--- a/left_shoulder_Data_Variable.xlsx
+++ b/left_shoulder_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HU4"/>
+  <dimension ref="A1:NM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,2072 +1121,3848 @@
       <c r="HU1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>316.6383972167969</v>
+        <v>378.2581787109375</v>
       </c>
       <c r="B2" t="n">
-        <v>321.9263305664062</v>
+        <v>385.7933959960938</v>
       </c>
       <c r="C2" t="n">
-        <v>322.3473510742188</v>
+        <v>390.632568359375</v>
       </c>
       <c r="D2" t="n">
-        <v>324.592529296875</v>
+        <v>395.5528564453125</v>
       </c>
       <c r="E2" t="n">
-        <v>330.7376708984375</v>
+        <v>403.0737609863281</v>
       </c>
       <c r="F2" t="n">
-        <v>333.3801879882812</v>
+        <v>412.8758544921875</v>
       </c>
       <c r="G2" t="n">
-        <v>338.7487487792969</v>
+        <v>424.7264099121094</v>
       </c>
       <c r="H2" t="n">
-        <v>340.4031982421875</v>
+        <v>435.6138610839844</v>
       </c>
       <c r="I2" t="n">
-        <v>348.5960083007812</v>
+        <v>444.5045471191406</v>
       </c>
       <c r="J2" t="n">
-        <v>350.0815124511719</v>
+        <v>452.599365234375</v>
       </c>
       <c r="K2" t="n">
-        <v>359.7223510742188</v>
+        <v>461.0427551269531</v>
       </c>
       <c r="L2" t="n">
-        <v>357.9496765136719</v>
+        <v>468.777099609375</v>
       </c>
       <c r="M2" t="n">
-        <v>366.4530944824219</v>
+        <v>504.8072814941406</v>
       </c>
       <c r="N2" t="n">
-        <v>362.4804992675781</v>
+        <v>505.1297607421875</v>
       </c>
       <c r="O2" t="n">
-        <v>375.3054504394531</v>
+        <v>503.7685546875</v>
       </c>
       <c r="P2" t="n">
-        <v>377.139404296875</v>
+        <v>500.7783203125</v>
       </c>
       <c r="Q2" t="n">
-        <v>377.7270812988281</v>
+        <v>498.7633666992188</v>
       </c>
       <c r="R2" t="n">
-        <v>377.9035034179688</v>
+        <v>496.49267578125</v>
       </c>
       <c r="S2" t="n">
-        <v>378.3851928710938</v>
+        <v>493.4760131835938</v>
       </c>
       <c r="T2" t="n">
-        <v>377.7801818847656</v>
+        <v>489.4276733398438</v>
       </c>
       <c r="U2" t="n">
-        <v>377.5757141113281</v>
+        <v>485.7096862792969</v>
       </c>
       <c r="V2" t="n">
-        <v>377.4497680664062</v>
+        <v>478.24609375</v>
       </c>
       <c r="W2" t="n">
-        <v>377.092041015625</v>
+        <v>472.0199584960938</v>
       </c>
       <c r="X2" t="n">
-        <v>375.5178527832031</v>
+        <v>465.5657653808594</v>
       </c>
       <c r="Y2" t="n">
-        <v>374.316650390625</v>
+        <v>458.7117919921875</v>
       </c>
       <c r="Z2" t="n">
-        <v>371.767333984375</v>
+        <v>454.6190795898438</v>
       </c>
       <c r="AA2" t="n">
-        <v>369.8322143554688</v>
+        <v>449.572509765625</v>
       </c>
       <c r="AB2" t="n">
-        <v>367.0869445800781</v>
+        <v>446.5057067871094</v>
       </c>
       <c r="AC2" t="n">
-        <v>366.0975952148438</v>
+        <v>442.4512023925781</v>
       </c>
       <c r="AD2" t="n">
-        <v>364.7837829589844</v>
+        <v>438.5618286132812</v>
       </c>
       <c r="AE2" t="n">
-        <v>363.5469970703125</v>
+        <v>436.37744140625</v>
       </c>
       <c r="AF2" t="n">
-        <v>362.764404296875</v>
+        <v>433.3441162109375</v>
       </c>
       <c r="AG2" t="n">
-        <v>362.5570983886719</v>
+        <v>430.7549743652344</v>
       </c>
       <c r="AH2" t="n">
-        <v>361.9604797363281</v>
+        <v>428.5345458984375</v>
       </c>
       <c r="AI2" t="n">
-        <v>361.3052978515625</v>
+        <v>426.7296142578125</v>
       </c>
       <c r="AJ2" t="n">
-        <v>360.3495788574219</v>
+        <v>425.9067993164062</v>
       </c>
       <c r="AK2" t="n">
-        <v>360.29638671875</v>
+        <v>423.7471313476562</v>
       </c>
       <c r="AL2" t="n">
-        <v>361.7434997558594</v>
+        <v>421.8347473144531</v>
       </c>
       <c r="AM2" t="n">
-        <v>362.1990661621094</v>
+        <v>420.1825561523438</v>
       </c>
       <c r="AN2" t="n">
-        <v>363.3589172363281</v>
+        <v>419.1293029785156</v>
       </c>
       <c r="AO2" t="n">
-        <v>364.9298400878906</v>
+        <v>418.3062438964844</v>
       </c>
       <c r="AP2" t="n">
-        <v>365.266357421875</v>
+        <v>417.3726806640625</v>
       </c>
       <c r="AQ2" t="n">
-        <v>365.7030639648438</v>
+        <v>416.5806579589844</v>
       </c>
       <c r="AR2" t="n">
-        <v>365.94287109375</v>
+        <v>415.495849609375</v>
       </c>
       <c r="AS2" t="n">
-        <v>366.0831909179688</v>
+        <v>414.8297729492188</v>
       </c>
       <c r="AT2" t="n">
-        <v>366.8175048828125</v>
+        <v>414.06982421875</v>
       </c>
       <c r="AU2" t="n">
-        <v>367.6044311523438</v>
+        <v>414.2239990234375</v>
       </c>
       <c r="AV2" t="n">
-        <v>367.5139770507812</v>
+        <v>414.3489074707031</v>
       </c>
       <c r="AW2" t="n">
-        <v>367.063232421875</v>
+        <v>414.918212890625</v>
       </c>
       <c r="AX2" t="n">
-        <v>366.4500122070312</v>
+        <v>415.1842041015625</v>
       </c>
       <c r="AY2" t="n">
-        <v>365.8402099609375</v>
+        <v>415.3809204101562</v>
       </c>
       <c r="AZ2" t="n">
-        <v>365.4934387207031</v>
+        <v>415.6118469238281</v>
       </c>
       <c r="BA2" t="n">
-        <v>364.6267700195312</v>
+        <v>416.0601196289062</v>
       </c>
       <c r="BB2" t="n">
-        <v>363.844482421875</v>
+        <v>416.28466796875</v>
       </c>
       <c r="BC2" t="n">
-        <v>362.2616271972656</v>
+        <v>416.6427917480469</v>
       </c>
       <c r="BD2" t="n">
-        <v>361.1549377441406</v>
+        <v>416.8654174804688</v>
       </c>
       <c r="BE2" t="n">
-        <v>359.75927734375</v>
+        <v>416.6526794433594</v>
       </c>
       <c r="BF2" t="n">
-        <v>358.1181030273438</v>
+        <v>416.3095397949219</v>
       </c>
       <c r="BG2" t="n">
-        <v>355.969970703125</v>
+        <v>416.0151672363281</v>
       </c>
       <c r="BH2" t="n">
-        <v>353.7018432617188</v>
+        <v>414.7681884765625</v>
       </c>
       <c r="BI2" t="n">
-        <v>351.0101928710938</v>
+        <v>412.2629089355469</v>
       </c>
       <c r="BJ2" t="n">
-        <v>350.2607421875</v>
+        <v>409.6798400878906</v>
       </c>
       <c r="BK2" t="n">
-        <v>349.1706848144531</v>
+        <v>405.6464233398438</v>
       </c>
       <c r="BL2" t="n">
-        <v>347.804443359375</v>
+        <v>402.1444091796875</v>
       </c>
       <c r="BM2" t="n">
-        <v>346.6120910644531</v>
+        <v>398.3582153320312</v>
       </c>
       <c r="BN2" t="n">
-        <v>345.8017578125</v>
+        <v>395.017333984375</v>
       </c>
       <c r="BO2" t="n">
-        <v>345.1690063476562</v>
+        <v>388.6553649902344</v>
       </c>
       <c r="BP2" t="n">
-        <v>345.7376098632812</v>
+        <v>385.3466796875</v>
       </c>
       <c r="BQ2" t="n">
-        <v>344.1633911132812</v>
+        <v>382.586669921875</v>
       </c>
       <c r="BR2" t="n">
-        <v>343.7435607910156</v>
+        <v>379.6171264648438</v>
       </c>
       <c r="BS2" t="n">
-        <v>342.9432678222656</v>
+        <v>377.532470703125</v>
       </c>
       <c r="BT2" t="n">
-        <v>341.7734375</v>
+        <v>375.58349609375</v>
       </c>
       <c r="BU2" t="n">
-        <v>341.9351806640625</v>
+        <v>374.3642578125</v>
       </c>
       <c r="BV2" t="n">
-        <v>341.6261291503906</v>
+        <v>373.151611328125</v>
       </c>
       <c r="BW2" t="n">
-        <v>341.1492309570312</v>
+        <v>372.6614990234375</v>
       </c>
       <c r="BX2" t="n">
-        <v>340.7647094726562</v>
+        <v>372.5314636230469</v>
       </c>
       <c r="BY2" t="n">
-        <v>340.5755004882812</v>
+        <v>373.3362426757812</v>
       </c>
       <c r="BZ2" t="n">
-        <v>340.1919555664062</v>
+        <v>373.8526916503906</v>
       </c>
       <c r="CA2" t="n">
-        <v>339.2342834472656</v>
+        <v>375.38916015625</v>
       </c>
       <c r="CB2" t="n">
-        <v>339.5825805664062</v>
+        <v>377.5621948242188</v>
       </c>
       <c r="CC2" t="n">
-        <v>341.15380859375</v>
+        <v>381.90283203125</v>
       </c>
       <c r="CD2" t="n">
-        <v>341.9107360839844</v>
+        <v>385.1742858886719</v>
       </c>
       <c r="CE2" t="n">
-        <v>342.1289672851562</v>
+        <v>392.4576416015625</v>
       </c>
       <c r="CF2" t="n">
-        <v>342.6845703125</v>
+        <v>396.1340942382812</v>
       </c>
       <c r="CG2" t="n">
-        <v>342.9409484863281</v>
+        <v>399.3359985351562</v>
       </c>
       <c r="CH2" t="n">
-        <v>342.80810546875</v>
+        <v>405.3287353515625</v>
       </c>
       <c r="CI2" t="n">
-        <v>343.1073608398438</v>
+        <v>409.9276733398438</v>
       </c>
       <c r="CJ2" t="n">
-        <v>342.8951416015625</v>
+        <v>414.5207214355469</v>
       </c>
       <c r="CK2" t="n">
-        <v>342.4722290039062</v>
+        <v>417.5648803710938</v>
       </c>
       <c r="CL2" t="n">
-        <v>342.5337524414062</v>
+        <v>420.6925659179688</v>
       </c>
       <c r="CM2" t="n">
-        <v>342.207275390625</v>
+        <v>424.1398315429688</v>
       </c>
       <c r="CN2" t="n">
-        <v>341.4270324707031</v>
+        <v>428.7349853515625</v>
       </c>
       <c r="CO2" t="n">
-        <v>340.8446044921875</v>
+        <v>430.8939208984375</v>
       </c>
       <c r="CP2" t="n">
-        <v>339.5721740722656</v>
+        <v>432.8625183105469</v>
       </c>
       <c r="CQ2" t="n">
-        <v>338.3988037109375</v>
+        <v>434.408203125</v>
       </c>
       <c r="CR2" t="n">
-        <v>338.0035400390625</v>
+        <v>435.7879943847656</v>
       </c>
       <c r="CS2" t="n">
-        <v>337.402587890625</v>
+        <v>436.724365234375</v>
       </c>
       <c r="CT2" t="n">
-        <v>334.92041015625</v>
+        <v>436.3102722167969</v>
       </c>
       <c r="CU2" t="n">
-        <v>332.06298828125</v>
+        <v>435.989501953125</v>
       </c>
       <c r="CV2" t="n">
-        <v>331.140380859375</v>
+        <v>434.2916564941406</v>
       </c>
       <c r="CW2" t="n">
-        <v>328.6392517089844</v>
+        <v>430.8523864746094</v>
       </c>
       <c r="CX2" t="n">
-        <v>328.0692138671875</v>
+        <v>425.1025695800781</v>
       </c>
       <c r="CY2" t="n">
-        <v>324.519287109375</v>
+        <v>422.5460205078125</v>
       </c>
       <c r="CZ2" t="n">
-        <v>318.5769653320312</v>
+        <v>417.878662109375</v>
       </c>
       <c r="DA2" t="n">
-        <v>318.7407836914062</v>
+        <v>415.943115234375</v>
       </c>
       <c r="DB2" t="n">
-        <v>317.79736328125</v>
+        <v>413.3021850585938</v>
       </c>
       <c r="DC2" t="n">
-        <v>318.8833923339844</v>
+        <v>408.8582763671875</v>
       </c>
       <c r="DD2" t="n">
-        <v>319.0871276855469</v>
+        <v>404.3622436523438</v>
       </c>
       <c r="DE2" t="n">
-        <v>319.4381103515625</v>
+        <v>396.4369201660156</v>
       </c>
       <c r="DF2" t="n">
-        <v>319.5834045410156</v>
+        <v>390.6884765625</v>
       </c>
       <c r="DG2" t="n">
-        <v>318.4836120605469</v>
+        <v>387.3127746582031</v>
       </c>
       <c r="DH2" t="n">
-        <v>318.097412109375</v>
+        <v>381.4027709960938</v>
       </c>
       <c r="DI2" t="n">
-        <v>317.8210754394531</v>
+        <v>378.7886047363281</v>
       </c>
       <c r="DJ2" t="n">
-        <v>320.0780944824219</v>
+        <v>375.3235473632812</v>
       </c>
       <c r="DK2" t="n">
-        <v>322.1167602539062</v>
+        <v>372.5820922851562</v>
       </c>
       <c r="DL2" t="n">
-        <v>323.1932373046875</v>
+        <v>371.2289428710938</v>
       </c>
       <c r="DM2" t="n">
-        <v>325.1544494628906</v>
+        <v>369.8786010742188</v>
       </c>
       <c r="DN2" t="n">
-        <v>326.3515014648438</v>
+        <v>368.3382873535156</v>
       </c>
       <c r="DO2" t="n">
-        <v>330.7817993164062</v>
+        <v>366.8101196289062</v>
       </c>
       <c r="DP2" t="n">
-        <v>333.791748046875</v>
+        <v>366.1149291992188</v>
       </c>
       <c r="DQ2" t="n">
-        <v>337.6750183105469</v>
+        <v>365.3738403320312</v>
       </c>
       <c r="DR2" t="n">
-        <v>341.5079345703125</v>
+        <v>364.9963684082031</v>
       </c>
       <c r="DS2" t="n">
-        <v>345.2073364257812</v>
+        <v>364.7771911621094</v>
       </c>
       <c r="DT2" t="n">
-        <v>347.809814453125</v>
+        <v>364.4143371582031</v>
       </c>
       <c r="DU2" t="n">
-        <v>352.2000732421875</v>
+        <v>364.0126037597656</v>
       </c>
       <c r="DV2" t="n">
-        <v>355.834716796875</v>
+        <v>364.2435302734375</v>
       </c>
       <c r="DW2" t="n">
-        <v>359.8648376464844</v>
+        <v>370.6323547363281</v>
       </c>
       <c r="DX2" t="n">
-        <v>361.9417724609375</v>
+        <v>374.7319946289062</v>
       </c>
       <c r="DY2" t="n">
-        <v>362.5907897949219</v>
+        <v>378.2113037109375</v>
       </c>
       <c r="DZ2" t="n">
-        <v>362.4773559570312</v>
+        <v>384.5608520507812</v>
       </c>
       <c r="EA2" t="n">
-        <v>362.5692749023438</v>
+        <v>388.189453125</v>
       </c>
       <c r="EB2" t="n">
-        <v>363.2288208007812</v>
+        <v>399.6310119628906</v>
       </c>
       <c r="EC2" t="n">
-        <v>363.674560546875</v>
+        <v>405.7823486328125</v>
       </c>
       <c r="ED2" t="n">
-        <v>363.5429077148438</v>
+        <v>412.5314331054688</v>
       </c>
       <c r="EE2" t="n">
-        <v>362.7743225097656</v>
+        <v>423.13134765625</v>
       </c>
       <c r="EF2" t="n">
-        <v>362.4627685546875</v>
+        <v>437.8811340332031</v>
       </c>
       <c r="EG2" t="n">
-        <v>360.8032836914062</v>
+        <v>451.2237854003906</v>
       </c>
       <c r="EH2" t="n">
-        <v>358.8202514648438</v>
+        <v>457.3519287109375</v>
       </c>
       <c r="EI2" t="n">
-        <v>357.6876220703125</v>
+        <v>468.0895385742188</v>
       </c>
       <c r="EJ2" t="n">
-        <v>352.9052429199219</v>
+        <v>472.1707763671875</v>
       </c>
       <c r="EK2" t="n">
-        <v>352.8181762695312</v>
+        <v>479.6246032714844</v>
       </c>
       <c r="EL2" t="n">
-        <v>348.6394653320312</v>
+        <v>482.2887573242188</v>
       </c>
       <c r="EM2" t="n">
-        <v>344.3252258300781</v>
+        <v>485.7149963378906</v>
       </c>
       <c r="EN2" t="n">
-        <v>342.4732055664062</v>
+        <v>487.7250671386719</v>
       </c>
       <c r="EO2" t="n">
-        <v>340.4571228027344</v>
+        <v>489.4871215820312</v>
       </c>
       <c r="EP2" t="n">
-        <v>338.8756103515625</v>
+        <v>491.6157531738281</v>
       </c>
       <c r="EQ2" t="n">
-        <v>335.5853881835938</v>
+        <v>494.4678039550781</v>
       </c>
       <c r="ER2" t="n">
-        <v>335.7039184570312</v>
+        <v>495.0698547363281</v>
       </c>
       <c r="ES2" t="n">
-        <v>334.6197509765625</v>
+        <v>494.1524658203125</v>
       </c>
       <c r="ET2" t="n">
-        <v>335.8648071289062</v>
+        <v>493.6291809082031</v>
       </c>
       <c r="EU2" t="n">
-        <v>335.5622863769531</v>
+        <v>493.7021179199219</v>
       </c>
       <c r="EV2" t="n">
-        <v>335.2052612304688</v>
+        <v>493.48681640625</v>
       </c>
       <c r="EW2" t="n">
-        <v>335.1830444335938</v>
+        <v>492.9570007324219</v>
       </c>
       <c r="EX2" t="n">
-        <v>334.3524780273438</v>
+        <v>492.0060729980469</v>
       </c>
       <c r="EY2" t="n">
-        <v>335.2388000488281</v>
+        <v>492.75146484375</v>
       </c>
       <c r="EZ2" t="n">
-        <v>335.705078125</v>
+        <v>492.9766235351562</v>
       </c>
       <c r="FA2" t="n">
-        <v>336.4818115234375</v>
+        <v>492.064697265625</v>
       </c>
       <c r="FB2" t="n">
-        <v>340.1369934082031</v>
+        <v>491.1385498046875</v>
       </c>
       <c r="FC2" t="n">
-        <v>341.8416137695312</v>
+        <v>490.644775390625</v>
       </c>
       <c r="FD2" t="n">
-        <v>341.5703735351562</v>
+        <v>487.1665649414062</v>
       </c>
       <c r="FE2" t="n">
-        <v>341.3104553222656</v>
+        <v>485.9533081054688</v>
       </c>
       <c r="FF2" t="n">
-        <v>341.1257934570312</v>
+        <v>485.7208862304688</v>
       </c>
       <c r="FG2" t="n">
-        <v>341.1659240722656</v>
+        <v>484.1231689453125</v>
       </c>
       <c r="FH2" t="n">
-        <v>341.1866455078125</v>
+        <v>483.24609375</v>
       </c>
       <c r="FI2" t="n">
-        <v>340.7215881347656</v>
+        <v>480.862060546875</v>
       </c>
       <c r="FJ2" t="n">
-        <v>339.8685913085938</v>
+        <v>479.3826293945312</v>
       </c>
       <c r="FK2" t="n">
-        <v>340.0325927734375</v>
+        <v>478.1167907714844</v>
       </c>
       <c r="FL2" t="n">
-        <v>339.2521362304688</v>
+        <v>476.3091430664062</v>
       </c>
       <c r="FM2" t="n">
-        <v>338.2037658691406</v>
+        <v>474.4134216308594</v>
       </c>
       <c r="FN2" t="n">
-        <v>334.57861328125</v>
+        <v>473.2905578613281</v>
       </c>
       <c r="FO2" t="n">
-        <v>333.2568969726562</v>
+        <v>472.0624389648438</v>
       </c>
       <c r="FP2" t="n">
-        <v>330.6322631835938</v>
+        <v>468.3292236328125</v>
       </c>
       <c r="FQ2" t="n">
-        <v>326.4896240234375</v>
+        <v>464.1204833984375</v>
       </c>
       <c r="FR2" t="n">
-        <v>326.8565063476562</v>
+        <v>459.9297790527344</v>
       </c>
       <c r="FS2" t="n">
-        <v>323.9335632324219</v>
+        <v>455.8074951171875</v>
       </c>
       <c r="FT2" t="n">
-        <v>324.7358703613281</v>
+        <v>451.0945129394531</v>
       </c>
       <c r="FU2" t="n">
-        <v>324.1875610351562</v>
+        <v>448.2559204101562</v>
       </c>
       <c r="FV2" t="n">
-        <v>321.6044921875</v>
+        <v>440.4034118652344</v>
       </c>
       <c r="FW2" t="n">
-        <v>323.1986083984375</v>
+        <v>434.6166381835938</v>
       </c>
       <c r="FX2" t="n">
-        <v>322.0745544433594</v>
+        <v>432.3113403320312</v>
       </c>
       <c r="FY2" t="n">
-        <v>322.4735107421875</v>
+        <v>430.4320068359375</v>
       </c>
       <c r="FZ2" t="n">
-        <v>321.886474609375</v>
+        <v>425.4862060546875</v>
       </c>
       <c r="GA2" t="n">
-        <v>321.445556640625</v>
+        <v>423.8382263183594</v>
       </c>
       <c r="GB2" t="n">
-        <v>321.2609252929688</v>
+        <v>420.5601196289062</v>
       </c>
       <c r="GC2" t="n">
-        <v>320.7810668945312</v>
+        <v>419.5899963378906</v>
       </c>
       <c r="GD2" t="n">
-        <v>320.6288452148438</v>
+        <v>418.024169921875</v>
       </c>
       <c r="GE2" t="n">
-        <v>321.0191650390625</v>
+        <v>417.7589416503906</v>
       </c>
       <c r="GF2" t="n">
-        <v>321.8805541992188</v>
+        <v>417.9541320800781</v>
       </c>
       <c r="GG2" t="n">
-        <v>323.9245910644531</v>
+        <v>420.140380859375</v>
       </c>
       <c r="GH2" t="n">
-        <v>324.704345703125</v>
+        <v>422.25732421875</v>
       </c>
       <c r="GI2" t="n">
-        <v>327.135986328125</v>
+        <v>422.41845703125</v>
       </c>
       <c r="GJ2" t="n">
-        <v>329.3927307128906</v>
+        <v>419.7223205566406</v>
       </c>
       <c r="GK2" t="n">
-        <v>330.7879333496094</v>
+        <v>418.0892333984375</v>
       </c>
       <c r="GL2" t="n">
-        <v>331.6552734375</v>
+        <v>413.601318359375</v>
       </c>
       <c r="GM2" t="n">
-        <v>332.883544921875</v>
+        <v>408.69970703125</v>
       </c>
       <c r="GN2" t="n">
-        <v>333.2721557617188</v>
+        <v>405.8543701171875</v>
       </c>
       <c r="GO2" t="n">
-        <v>331.7858276367188</v>
+        <v>399.2538146972656</v>
       </c>
       <c r="GP2" t="n">
-        <v>331.10205078125</v>
+        <v>391.7886352539062</v>
       </c>
       <c r="GQ2" t="n">
-        <v>330.5900268554688</v>
+        <v>382.20751953125</v>
       </c>
       <c r="GR2" t="n">
-        <v>330.3302612304688</v>
+        <v>376.5005187988281</v>
       </c>
       <c r="GS2" t="n">
-        <v>330.1942749023438</v>
+        <v>372.0205078125</v>
       </c>
       <c r="GT2" t="n">
-        <v>330.2684936523438</v>
+        <v>369.5489807128906</v>
       </c>
       <c r="GU2" t="n">
-        <v>329.3331909179688</v>
+        <v>363.3491821289062</v>
       </c>
       <c r="GV2" t="n">
-        <v>328.0701293945312</v>
+        <v>359.3567504882812</v>
       </c>
       <c r="GW2" t="n">
-        <v>327.4660949707031</v>
+        <v>357.9853820800781</v>
       </c>
       <c r="GX2" t="n">
-        <v>326.6442565917969</v>
+        <v>356.5356140136719</v>
       </c>
       <c r="GY2" t="n">
-        <v>326.3403930664062</v>
+        <v>354.2608032226562</v>
       </c>
       <c r="GZ2" t="n">
-        <v>326.4935302734375</v>
+        <v>353.8916320800781</v>
       </c>
       <c r="HA2" t="n">
-        <v>325.9297180175781</v>
+        <v>354.1805419921875</v>
       </c>
       <c r="HB2" t="n">
-        <v>326.4246826171875</v>
+        <v>353.890869140625</v>
       </c>
       <c r="HC2" t="n">
-        <v>328.9173583984375</v>
+        <v>353.5733642578125</v>
       </c>
       <c r="HD2" t="n">
-        <v>331.6169738769531</v>
+        <v>353.4229736328125</v>
       </c>
       <c r="HE2" t="n">
-        <v>333.34619140625</v>
+        <v>353.1622924804688</v>
       </c>
       <c r="HF2" t="n">
-        <v>335.4238891601562</v>
+        <v>354.4461364746094</v>
       </c>
       <c r="HG2" t="n">
-        <v>336.532958984375</v>
+        <v>358.2523193359375</v>
       </c>
       <c r="HH2" t="n">
-        <v>338.0431823730469</v>
+        <v>360.7882385253906</v>
       </c>
       <c r="HI2" t="n">
-        <v>337.6681823730469</v>
+        <v>362.1402282714844</v>
       </c>
       <c r="HJ2" t="n">
-        <v>336.8398742675781</v>
+        <v>365.6882019042969</v>
       </c>
       <c r="HK2" t="n">
-        <v>334.1926879882812</v>
+        <v>373.4887084960938</v>
       </c>
       <c r="HL2" t="n">
-        <v>329.5396118164062</v>
+        <v>382.1556396484375</v>
       </c>
       <c r="HM2" t="n">
-        <v>324.5810546875</v>
+        <v>390.1379089355469</v>
       </c>
       <c r="HN2" t="n">
-        <v>319.9989318847656</v>
+        <v>401.2593078613281</v>
       </c>
       <c r="HO2" t="n">
-        <v>317.8246765136719</v>
+        <v>418.23095703125</v>
       </c>
       <c r="HP2" t="n">
-        <v>316.0706787109375</v>
+        <v>425.9892578125</v>
       </c>
       <c r="HQ2" t="n">
-        <v>314.1167602539062</v>
+        <v>431.0408935546875</v>
       </c>
       <c r="HR2" t="n">
-        <v>314.0245361328125</v>
+        <v>444.33251953125</v>
       </c>
       <c r="HS2" t="n">
-        <v>314.0877380371094</v>
+        <v>450.6533203125</v>
       </c>
       <c r="HT2" t="n">
-        <v>312.5342712402344</v>
+        <v>455.9298095703125</v>
       </c>
       <c r="HU2" t="n">
-        <v>308.9280395507812</v>
+        <v>459.9720458984375</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>463.6297607421875</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>465.4380493164062</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>467.2998352050781</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>468.0394897460938</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>468.6992797851562</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>468.5347900390625</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>468.1035766601562</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>468.0029907226562</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>465.720703125</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>463.9661254882812</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>461.4004211425781</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>457.8014526367188</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>450.5741882324219</v>
+      </c>
+      <c r="II2" t="n">
+        <v>444.200927734375</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>436.5494995117188</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>423.3052062988281</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>418.0928344726562</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>408.9049682617188</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>394.023193359375</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>386.90771484375</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>383.662109375</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>374.8840942382812</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>368.5165100097656</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>366.1739501953125</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>360.351318359375</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>357.0219421386719</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>355.1007385253906</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>354.2568359375</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>353.1160888671875</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>352.9537658691406</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>352.9388732910156</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>355.4020690917969</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>359.13037109375</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>364.74462890625</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>369.1173095703125</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>376.0006103515625</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>382.6761169433594</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>393.5250549316406</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>401.7774047851562</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>406.9841003417969</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>412.083984375</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>418.3572387695312</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>424.4918823242188</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>428.4558715820312</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>433.0929565429688</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>437.2923583984375</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>439.1022338867188</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>441.4327392578125</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>443.2875366210938</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>445.403076171875</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>446.68310546875</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>447.7033081054688</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>448.3070373535156</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>448.7908935546875</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>449.2320251464844</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>449.72314453125</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>450.0570983886719</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>450.2667846679688</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>450.457763671875</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>450.645263671875</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>450.6595458984375</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>450.3515319824219</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>449.8669738769531</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>449.2584533691406</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>448.663818359375</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>447.8157958984375</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>446.7984619140625</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>446.2567749023438</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>445.48828125</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>445.3291625976562</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>445.6373596191406</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>445.8486328125</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>446.2212829589844</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>447.4822998046875</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>448.2065124511719</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>449.1984558105469</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>449.6031188964844</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>449.6883544921875</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>449.5596313476562</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>449.922607421875</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>450.4181213378906</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>450.8056335449219</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>451.1602172851562</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>452.8281860351562</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>454.4617919921875</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>455.7193298339844</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>457.0927734375</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>458.5863952636719</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>458.9091491699219</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>459.9627380371094</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>462.6297302246094</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>468.243408203125</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>474.6576232910156</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>481.6656799316406</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>486.5633544921875</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>491.8209228515625</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>498.2521057128906</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>501.9817504882812</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>512.8466796875</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>525.3987426757812</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>534.3724975585938</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>543.02392578125</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>560.0286254882812</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>564.2786865234375</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>565.0069580078125</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>562.9931640625</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>559.552490234375</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>550.739501953125</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>543.2416381835938</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>521.2847290039062</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>499.2118835449219</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>478.8772583007812</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>453.5811157226562</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>422.1990661621094</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>408.086669921875</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>399.0665283203125</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>401.2325439453125</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>407.650146484375</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>433.1741333007812</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>449.9019165039062</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>452.2045288085938</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>458.0375366210938</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>467.2619323730469</v>
+      </c>
+      <c r="MO2" t="n">
+        <v>469.8873291015625</v>
+      </c>
+      <c r="MP2" t="n">
+        <v>471.2567443847656</v>
+      </c>
+      <c r="MQ2" t="n">
+        <v>472.3717956542969</v>
+      </c>
+      <c r="MR2" t="n">
+        <v>471.2081604003906</v>
+      </c>
+      <c r="MS2" t="n">
+        <v>472.0408325195312</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>471.5345764160156</v>
+      </c>
+      <c r="MU2" t="n">
+        <v>481.3402709960938</v>
+      </c>
+      <c r="MV2" t="n">
+        <v>470.1797485351562</v>
+      </c>
+      <c r="MW2" t="n">
+        <v>436.6653442382812</v>
+      </c>
+      <c r="MX2" t="n">
+        <v>453.0858154296875</v>
+      </c>
+      <c r="MY2" t="n">
+        <v>448.3748168945312</v>
+      </c>
+      <c r="MZ2" t="n">
+        <v>447.43310546875</v>
+      </c>
+      <c r="NA2" t="n">
+        <v>446.3772583007812</v>
+      </c>
+      <c r="NB2" t="n">
+        <v>445.6606750488281</v>
+      </c>
+      <c r="NC2" t="n">
+        <v>443.5647583007812</v>
+      </c>
+      <c r="ND2" t="n">
+        <v>443.4525756835938</v>
+      </c>
+      <c r="NE2" t="n">
+        <v>447.3812561035156</v>
+      </c>
+      <c r="NF2" t="n">
+        <v>454.4989624023438</v>
+      </c>
+      <c r="NG2" t="n">
+        <v>458.5675659179688</v>
+      </c>
+      <c r="NH2" t="n">
+        <v>456.5325622558594</v>
+      </c>
+      <c r="NI2" t="n">
+        <v>453.7454223632812</v>
+      </c>
+      <c r="NJ2" t="n">
+        <v>451.927978515625</v>
+      </c>
+      <c r="NK2" t="n">
+        <v>452.0742797851562</v>
+      </c>
+      <c r="NL2" t="n">
+        <v>452.7650451660156</v>
+      </c>
+      <c r="NM2" t="n">
+        <v>454.3682556152344</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>176.9017791748047</v>
+        <v>175.2320556640625</v>
       </c>
       <c r="B3" t="n">
-        <v>168.5536346435547</v>
+        <v>167.9860687255859</v>
       </c>
       <c r="C3" t="n">
-        <v>169.8735961914062</v>
+        <v>169.7744598388672</v>
       </c>
       <c r="D3" t="n">
-        <v>169.7398223876953</v>
+        <v>170.0451354980469</v>
       </c>
       <c r="E3" t="n">
-        <v>170.5834350585938</v>
+        <v>171.2303771972656</v>
       </c>
       <c r="F3" t="n">
-        <v>175.5186462402344</v>
+        <v>172.9415130615234</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1503753662109</v>
+        <v>176.7101745605469</v>
       </c>
       <c r="H3" t="n">
-        <v>190.3898315429688</v>
+        <v>178.274169921875</v>
       </c>
       <c r="I3" t="n">
-        <v>191.9578247070312</v>
+        <v>179.6484222412109</v>
       </c>
       <c r="J3" t="n">
-        <v>203.4707794189453</v>
+        <v>179.9349517822266</v>
       </c>
       <c r="K3" t="n">
-        <v>203.8263092041016</v>
+        <v>179.3425750732422</v>
       </c>
       <c r="L3" t="n">
-        <v>215.189453125</v>
+        <v>180.5935974121094</v>
       </c>
       <c r="M3" t="n">
-        <v>212.6402740478516</v>
+        <v>187.5785827636719</v>
       </c>
       <c r="N3" t="n">
-        <v>219.5355224609375</v>
+        <v>186.7419586181641</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3752136230469</v>
+        <v>193.7298583984375</v>
       </c>
       <c r="P3" t="n">
-        <v>187.9383544921875</v>
+        <v>194.0973205566406</v>
       </c>
       <c r="Q3" t="n">
-        <v>188.8475189208984</v>
+        <v>193.8573455810547</v>
       </c>
       <c r="R3" t="n">
-        <v>187.1748046875</v>
+        <v>194.0083770751953</v>
       </c>
       <c r="S3" t="n">
-        <v>185.2883605957031</v>
+        <v>196.1733245849609</v>
       </c>
       <c r="T3" t="n">
-        <v>185.6736602783203</v>
+        <v>197.2747192382812</v>
       </c>
       <c r="U3" t="n">
-        <v>187.4586486816406</v>
+        <v>198.3745269775391</v>
       </c>
       <c r="V3" t="n">
-        <v>189.9482116699219</v>
+        <v>201.5344696044922</v>
       </c>
       <c r="W3" t="n">
-        <v>192.6685791015625</v>
+        <v>202.1916046142578</v>
       </c>
       <c r="X3" t="n">
-        <v>195.68896484375</v>
+        <v>204.7023468017578</v>
       </c>
       <c r="Y3" t="n">
-        <v>198.2285919189453</v>
+        <v>211.1518249511719</v>
       </c>
       <c r="Z3" t="n">
-        <v>200.6710662841797</v>
+        <v>214.676025390625</v>
       </c>
       <c r="AA3" t="n">
-        <v>202.6123504638672</v>
+        <v>216.8675079345703</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.8000335693359</v>
+        <v>216.4236602783203</v>
       </c>
       <c r="AC3" t="n">
-        <v>205.4512023925781</v>
+        <v>218.1971130371094</v>
       </c>
       <c r="AD3" t="n">
-        <v>205.6413116455078</v>
+        <v>219.9929351806641</v>
       </c>
       <c r="AE3" t="n">
-        <v>204.486328125</v>
+        <v>219.4969329833984</v>
       </c>
       <c r="AF3" t="n">
-        <v>201.8505859375</v>
+        <v>219.5942535400391</v>
       </c>
       <c r="AG3" t="n">
-        <v>199.5554504394531</v>
+        <v>219.2967071533203</v>
       </c>
       <c r="AH3" t="n">
-        <v>197.8547058105469</v>
+        <v>218.5323181152344</v>
       </c>
       <c r="AI3" t="n">
-        <v>197.5524291992188</v>
+        <v>217.3387908935547</v>
       </c>
       <c r="AJ3" t="n">
-        <v>197.9905853271484</v>
+        <v>214.6662139892578</v>
       </c>
       <c r="AK3" t="n">
-        <v>198.7942199707031</v>
+        <v>214.5809173583984</v>
       </c>
       <c r="AL3" t="n">
-        <v>199.9176483154297</v>
+        <v>214.8108367919922</v>
       </c>
       <c r="AM3" t="n">
-        <v>202.4438171386719</v>
+        <v>214.9597930908203</v>
       </c>
       <c r="AN3" t="n">
-        <v>203.2400817871094</v>
+        <v>214.5694274902344</v>
       </c>
       <c r="AO3" t="n">
-        <v>205.3049163818359</v>
+        <v>214.2899780273438</v>
       </c>
       <c r="AP3" t="n">
-        <v>207.6787414550781</v>
+        <v>214.0318298339844</v>
       </c>
       <c r="AQ3" t="n">
-        <v>209.0810852050781</v>
+        <v>213.7447052001953</v>
       </c>
       <c r="AR3" t="n">
-        <v>210.1557159423828</v>
+        <v>213.9558868408203</v>
       </c>
       <c r="AS3" t="n">
-        <v>211.8401947021484</v>
+        <v>214.3485717773438</v>
       </c>
       <c r="AT3" t="n">
-        <v>212.760986328125</v>
+        <v>214.7396545410156</v>
       </c>
       <c r="AU3" t="n">
-        <v>213.7321929931641</v>
+        <v>214.1027069091797</v>
       </c>
       <c r="AV3" t="n">
-        <v>214.3518524169922</v>
+        <v>213.7904663085938</v>
       </c>
       <c r="AW3" t="n">
-        <v>213.6768798828125</v>
+        <v>213.4585723876953</v>
       </c>
       <c r="AX3" t="n">
-        <v>212.9665832519531</v>
+        <v>213.3237609863281</v>
       </c>
       <c r="AY3" t="n">
-        <v>211.2062225341797</v>
+        <v>213.2284240722656</v>
       </c>
       <c r="AZ3" t="n">
-        <v>209.5054473876953</v>
+        <v>213.0142059326172</v>
       </c>
       <c r="BA3" t="n">
-        <v>209.4645843505859</v>
+        <v>212.4523620605469</v>
       </c>
       <c r="BB3" t="n">
-        <v>209.5968170166016</v>
+        <v>212.3283081054688</v>
       </c>
       <c r="BC3" t="n">
-        <v>210.4948577880859</v>
+        <v>211.7898101806641</v>
       </c>
       <c r="BD3" t="n">
-        <v>212.3330993652344</v>
+        <v>210.4674835205078</v>
       </c>
       <c r="BE3" t="n">
-        <v>213.9386444091797</v>
+        <v>209.6647644042969</v>
       </c>
       <c r="BF3" t="n">
-        <v>213.8211517333984</v>
+        <v>208.9104919433594</v>
       </c>
       <c r="BG3" t="n">
-        <v>214.7897186279297</v>
+        <v>208.0265350341797</v>
       </c>
       <c r="BH3" t="n">
-        <v>216.3343963623047</v>
+        <v>207.1887054443359</v>
       </c>
       <c r="BI3" t="n">
-        <v>217.0715179443359</v>
+        <v>205.9619445800781</v>
       </c>
       <c r="BJ3" t="n">
-        <v>216.6321411132812</v>
+        <v>204.1933135986328</v>
       </c>
       <c r="BK3" t="n">
-        <v>217.3171691894531</v>
+        <v>203.5641937255859</v>
       </c>
       <c r="BL3" t="n">
-        <v>217.8986358642578</v>
+        <v>202.7082366943359</v>
       </c>
       <c r="BM3" t="n">
-        <v>217.8211822509766</v>
+        <v>202.9830169677734</v>
       </c>
       <c r="BN3" t="n">
-        <v>217.5538635253906</v>
+        <v>202.9698486328125</v>
       </c>
       <c r="BO3" t="n">
-        <v>216.3177947998047</v>
+        <v>201.7864532470703</v>
       </c>
       <c r="BP3" t="n">
-        <v>215.3802337646484</v>
+        <v>201.0749053955078</v>
       </c>
       <c r="BQ3" t="n">
-        <v>214.8829040527344</v>
+        <v>199.793701171875</v>
       </c>
       <c r="BR3" t="n">
-        <v>214.6826019287109</v>
+        <v>199.5393676757812</v>
       </c>
       <c r="BS3" t="n">
-        <v>214.672119140625</v>
+        <v>198.8276214599609</v>
       </c>
       <c r="BT3" t="n">
-        <v>214.4813079833984</v>
+        <v>198.5440216064453</v>
       </c>
       <c r="BU3" t="n">
-        <v>214.7183532714844</v>
+        <v>198.0824432373047</v>
       </c>
       <c r="BV3" t="n">
-        <v>214.881591796875</v>
+        <v>197.7232055664062</v>
       </c>
       <c r="BW3" t="n">
-        <v>215.1309204101562</v>
+        <v>196.9176483154297</v>
       </c>
       <c r="BX3" t="n">
-        <v>215.4375152587891</v>
+        <v>196.0462951660156</v>
       </c>
       <c r="BY3" t="n">
-        <v>216.92626953125</v>
+        <v>193.0080261230469</v>
       </c>
       <c r="BZ3" t="n">
-        <v>218.7645416259766</v>
+        <v>191.6351776123047</v>
       </c>
       <c r="CA3" t="n">
-        <v>222.0763549804688</v>
+        <v>190.9190216064453</v>
       </c>
       <c r="CB3" t="n">
-        <v>218.5662994384766</v>
+        <v>191.1045684814453</v>
       </c>
       <c r="CC3" t="n">
-        <v>217.8542175292969</v>
+        <v>190.9690856933594</v>
       </c>
       <c r="CD3" t="n">
-        <v>218.8379364013672</v>
+        <v>191.6876373291016</v>
       </c>
       <c r="CE3" t="n">
-        <v>220.1967315673828</v>
+        <v>190.8347015380859</v>
       </c>
       <c r="CF3" t="n">
-        <v>220.2677917480469</v>
+        <v>190.45556640625</v>
       </c>
       <c r="CG3" t="n">
-        <v>220.8349609375</v>
+        <v>190.4744262695312</v>
       </c>
       <c r="CH3" t="n">
-        <v>220.9866027832031</v>
+        <v>189.5201568603516</v>
       </c>
       <c r="CI3" t="n">
-        <v>220.6033782958984</v>
+        <v>190.6313323974609</v>
       </c>
       <c r="CJ3" t="n">
-        <v>220.9228515625</v>
+        <v>190.0475463867188</v>
       </c>
       <c r="CK3" t="n">
-        <v>221.0419921875</v>
+        <v>190.0924682617188</v>
       </c>
       <c r="CL3" t="n">
-        <v>220.6867370605469</v>
+        <v>189.6169281005859</v>
       </c>
       <c r="CM3" t="n">
-        <v>220.5384826660156</v>
+        <v>189.4042205810547</v>
       </c>
       <c r="CN3" t="n">
-        <v>220.2696533203125</v>
+        <v>189.80224609375</v>
       </c>
       <c r="CO3" t="n">
-        <v>220.6033020019531</v>
+        <v>189.5614166259766</v>
       </c>
       <c r="CP3" t="n">
-        <v>221.1482391357422</v>
+        <v>189.3881225585938</v>
       </c>
       <c r="CQ3" t="n">
-        <v>220.6250915527344</v>
+        <v>189.6847991943359</v>
       </c>
       <c r="CR3" t="n">
-        <v>220.4174041748047</v>
+        <v>189.6207427978516</v>
       </c>
       <c r="CS3" t="n">
-        <v>220.4275054931641</v>
+        <v>189.9939422607422</v>
       </c>
       <c r="CT3" t="n">
-        <v>221.6933746337891</v>
+        <v>190.8511657714844</v>
       </c>
       <c r="CU3" t="n">
-        <v>222.1820831298828</v>
+        <v>191.3209381103516</v>
       </c>
       <c r="CV3" t="n">
-        <v>221.8356170654297</v>
+        <v>192.2233428955078</v>
       </c>
       <c r="CW3" t="n">
-        <v>223.2261962890625</v>
+        <v>192.3101043701172</v>
       </c>
       <c r="CX3" t="n">
-        <v>218.5869598388672</v>
+        <v>192.7581787109375</v>
       </c>
       <c r="CY3" t="n">
-        <v>218.1290588378906</v>
+        <v>193.2782440185547</v>
       </c>
       <c r="CZ3" t="n">
-        <v>222.1825561523438</v>
+        <v>193.878173828125</v>
       </c>
       <c r="DA3" t="n">
-        <v>220.655029296875</v>
+        <v>193.1118774414062</v>
       </c>
       <c r="DB3" t="n">
-        <v>222.3501129150391</v>
+        <v>192.603515625</v>
       </c>
       <c r="DC3" t="n">
-        <v>220.2058868408203</v>
+        <v>192.4222869873047</v>
       </c>
       <c r="DD3" t="n">
-        <v>220.5338897705078</v>
+        <v>191.7828216552734</v>
       </c>
       <c r="DE3" t="n">
-        <v>219.677490234375</v>
+        <v>191.8801422119141</v>
       </c>
       <c r="DF3" t="n">
-        <v>217.346435546875</v>
+        <v>191.8570251464844</v>
       </c>
       <c r="DG3" t="n">
-        <v>220.3047485351562</v>
+        <v>192.33935546875</v>
       </c>
       <c r="DH3" t="n">
-        <v>221.3826446533203</v>
+        <v>192.3599090576172</v>
       </c>
       <c r="DI3" t="n">
-        <v>224.0968017578125</v>
+        <v>192.2657318115234</v>
       </c>
       <c r="DJ3" t="n">
-        <v>221.8861083984375</v>
+        <v>192.2340240478516</v>
       </c>
       <c r="DK3" t="n">
-        <v>219.9962310791016</v>
+        <v>191.9119873046875</v>
       </c>
       <c r="DL3" t="n">
-        <v>220.4944305419922</v>
+        <v>192.0885925292969</v>
       </c>
       <c r="DM3" t="n">
-        <v>219.6406097412109</v>
+        <v>192.36279296875</v>
       </c>
       <c r="DN3" t="n">
-        <v>219.910400390625</v>
+        <v>192.7424011230469</v>
       </c>
       <c r="DO3" t="n">
-        <v>221.0099487304688</v>
+        <v>192.9445495605469</v>
       </c>
       <c r="DP3" t="n">
-        <v>222.6690826416016</v>
+        <v>192.6149139404297</v>
       </c>
       <c r="DQ3" t="n">
-        <v>222.7773590087891</v>
+        <v>192.579345703125</v>
       </c>
       <c r="DR3" t="n">
-        <v>221.5288848876953</v>
+        <v>192.6867065429688</v>
       </c>
       <c r="DS3" t="n">
-        <v>219.9216003417969</v>
+        <v>192.8659362792969</v>
       </c>
       <c r="DT3" t="n">
-        <v>218.9460754394531</v>
+        <v>193.6880493164062</v>
       </c>
       <c r="DU3" t="n">
-        <v>217.5555419921875</v>
+        <v>194.5825805664062</v>
       </c>
       <c r="DV3" t="n">
-        <v>218.3323822021484</v>
+        <v>194.8313903808594</v>
       </c>
       <c r="DW3" t="n">
-        <v>217.4415435791016</v>
+        <v>195.9992065429688</v>
       </c>
       <c r="DX3" t="n">
-        <v>217.0726013183594</v>
+        <v>197.6129302978516</v>
       </c>
       <c r="DY3" t="n">
-        <v>216.2567749023438</v>
+        <v>198.4948577880859</v>
       </c>
       <c r="DZ3" t="n">
-        <v>216.9450836181641</v>
+        <v>201.2719573974609</v>
       </c>
       <c r="EA3" t="n">
-        <v>216.8290252685547</v>
+        <v>201.91552734375</v>
       </c>
       <c r="EB3" t="n">
-        <v>216.3300170898438</v>
+        <v>203.9648742675781</v>
       </c>
       <c r="EC3" t="n">
-        <v>215.908447265625</v>
+        <v>207.8907318115234</v>
       </c>
       <c r="ED3" t="n">
-        <v>215.9130554199219</v>
+        <v>209.8810577392578</v>
       </c>
       <c r="EE3" t="n">
-        <v>216.7763824462891</v>
+        <v>212.4317932128906</v>
       </c>
       <c r="EF3" t="n">
-        <v>217.1488494873047</v>
+        <v>216.8466033935547</v>
       </c>
       <c r="EG3" t="n">
-        <v>218.7420349121094</v>
+        <v>220.2369384765625</v>
       </c>
       <c r="EH3" t="n">
-        <v>218.9955749511719</v>
+        <v>221.5676727294922</v>
       </c>
       <c r="EI3" t="n">
-        <v>219.008544921875</v>
+        <v>222.1739501953125</v>
       </c>
       <c r="EJ3" t="n">
-        <v>218.4264373779297</v>
+        <v>223.2189483642578</v>
       </c>
       <c r="EK3" t="n">
-        <v>220.3048248291016</v>
+        <v>222.4958343505859</v>
       </c>
       <c r="EL3" t="n">
-        <v>219.5157928466797</v>
+        <v>221.6892242431641</v>
       </c>
       <c r="EM3" t="n">
-        <v>220.8207244873047</v>
+        <v>220.9866790771484</v>
       </c>
       <c r="EN3" t="n">
-        <v>221.7008972167969</v>
+        <v>220.1310882568359</v>
       </c>
       <c r="EO3" t="n">
-        <v>219.0677642822266</v>
+        <v>221.6821594238281</v>
       </c>
       <c r="EP3" t="n">
-        <v>218.154541015625</v>
+        <v>222.6756286621094</v>
       </c>
       <c r="EQ3" t="n">
-        <v>219.7440185546875</v>
+        <v>227.9154510498047</v>
       </c>
       <c r="ER3" t="n">
-        <v>219.5245666503906</v>
+        <v>229.1595458984375</v>
       </c>
       <c r="ES3" t="n">
-        <v>218.9798278808594</v>
+        <v>232.7760467529297</v>
       </c>
       <c r="ET3" t="n">
-        <v>218.9230194091797</v>
+        <v>237.4256439208984</v>
       </c>
       <c r="EU3" t="n">
-        <v>218.8698120117188</v>
+        <v>238.9884490966797</v>
       </c>
       <c r="EV3" t="n">
-        <v>217.8562774658203</v>
+        <v>239.6597290039062</v>
       </c>
       <c r="EW3" t="n">
-        <v>216.8100128173828</v>
+        <v>238.9588775634766</v>
       </c>
       <c r="EX3" t="n">
-        <v>217.8665313720703</v>
+        <v>242.339111328125</v>
       </c>
       <c r="EY3" t="n">
-        <v>217.2404479980469</v>
+        <v>242.5815277099609</v>
       </c>
       <c r="EZ3" t="n">
-        <v>218.2478637695312</v>
+        <v>243.3974304199219</v>
       </c>
       <c r="FA3" t="n">
-        <v>224.4834899902344</v>
+        <v>246.2397766113281</v>
       </c>
       <c r="FB3" t="n">
-        <v>220.6779937744141</v>
+        <v>248.7674865722656</v>
       </c>
       <c r="FC3" t="n">
-        <v>219.6245880126953</v>
+        <v>250.7222595214844</v>
       </c>
       <c r="FD3" t="n">
-        <v>219.2976837158203</v>
+        <v>251.8268737792969</v>
       </c>
       <c r="FE3" t="n">
-        <v>218.9621429443359</v>
+        <v>252.8910217285156</v>
       </c>
       <c r="FF3" t="n">
-        <v>218.6273956298828</v>
+        <v>254.1066436767578</v>
       </c>
       <c r="FG3" t="n">
-        <v>217.519775390625</v>
+        <v>256.8307189941406</v>
       </c>
       <c r="FH3" t="n">
-        <v>217.8668060302734</v>
+        <v>257.3647155761719</v>
       </c>
       <c r="FI3" t="n">
-        <v>218.2307434082031</v>
+        <v>259.2327270507812</v>
       </c>
       <c r="FJ3" t="n">
-        <v>219.3659820556641</v>
+        <v>261.8939208984375</v>
       </c>
       <c r="FK3" t="n">
-        <v>219.5915069580078</v>
+        <v>264.078857421875</v>
       </c>
       <c r="FL3" t="n">
-        <v>220.3550262451172</v>
+        <v>265.9098815917969</v>
       </c>
       <c r="FM3" t="n">
-        <v>220.7716674804688</v>
+        <v>265.968505859375</v>
       </c>
       <c r="FN3" t="n">
-        <v>220.5491485595703</v>
+        <v>265.6520080566406</v>
       </c>
       <c r="FO3" t="n">
-        <v>221.4572906494141</v>
+        <v>265.2943420410156</v>
       </c>
       <c r="FP3" t="n">
-        <v>224.0447235107422</v>
+        <v>264.5512390136719</v>
       </c>
       <c r="FQ3" t="n">
-        <v>230.3335571289062</v>
+        <v>264.35009765625</v>
       </c>
       <c r="FR3" t="n">
-        <v>224.9482879638672</v>
+        <v>264.0771484375</v>
       </c>
       <c r="FS3" t="n">
-        <v>220.1011962890625</v>
+        <v>264.509033203125</v>
       </c>
       <c r="FT3" t="n">
-        <v>219.9029083251953</v>
+        <v>264.2798156738281</v>
       </c>
       <c r="FU3" t="n">
-        <v>218.3239440917969</v>
+        <v>264.5727844238281</v>
       </c>
       <c r="FV3" t="n">
-        <v>221.022705078125</v>
+        <v>266.1225280761719</v>
       </c>
       <c r="FW3" t="n">
-        <v>218.3761901855469</v>
+        <v>267.2441711425781</v>
       </c>
       <c r="FX3" t="n">
-        <v>219.7796173095703</v>
+        <v>266.8048095703125</v>
       </c>
       <c r="FY3" t="n">
-        <v>218.5738372802734</v>
+        <v>266.6768188476562</v>
       </c>
       <c r="FZ3" t="n">
-        <v>219.0343170166016</v>
+        <v>266.6121520996094</v>
       </c>
       <c r="GA3" t="n">
-        <v>217.66650390625</v>
+        <v>266.2662353515625</v>
       </c>
       <c r="GB3" t="n">
-        <v>216.7501831054688</v>
+        <v>266.5203857421875</v>
       </c>
       <c r="GC3" t="n">
-        <v>216.5375671386719</v>
+        <v>265.7773742675781</v>
       </c>
       <c r="GD3" t="n">
-        <v>216.7337493896484</v>
+        <v>264.8750915527344</v>
       </c>
       <c r="GE3" t="n">
-        <v>218.7952117919922</v>
+        <v>264.7566833496094</v>
       </c>
       <c r="GF3" t="n">
-        <v>219.4781646728516</v>
+        <v>264.7409362792969</v>
       </c>
       <c r="GG3" t="n">
-        <v>219.0503540039062</v>
+        <v>265.280517578125</v>
       </c>
       <c r="GH3" t="n">
-        <v>218.6697235107422</v>
+        <v>265.8096008300781</v>
       </c>
       <c r="GI3" t="n">
-        <v>214.7139434814453</v>
+        <v>266.4573059082031</v>
       </c>
       <c r="GJ3" t="n">
-        <v>211.3553009033203</v>
+        <v>266.8120422363281</v>
       </c>
       <c r="GK3" t="n">
-        <v>211.9373321533203</v>
+        <v>266.5113525390625</v>
       </c>
       <c r="GL3" t="n">
-        <v>210.5413208007812</v>
+        <v>265.8770141601562</v>
       </c>
       <c r="GM3" t="n">
-        <v>209.9395599365234</v>
+        <v>266.2189025878906</v>
       </c>
       <c r="GN3" t="n">
-        <v>208.0002746582031</v>
+        <v>266.273193359375</v>
       </c>
       <c r="GO3" t="n">
-        <v>206.7935333251953</v>
+        <v>266.0649108886719</v>
       </c>
       <c r="GP3" t="n">
-        <v>205.3676452636719</v>
+        <v>266.5743408203125</v>
       </c>
       <c r="GQ3" t="n">
-        <v>204.8160095214844</v>
+        <v>265.4661560058594</v>
       </c>
       <c r="GR3" t="n">
-        <v>204.1653594970703</v>
+        <v>265.7479248046875</v>
       </c>
       <c r="GS3" t="n">
-        <v>202.9853363037109</v>
+        <v>263.8982238769531</v>
       </c>
       <c r="GT3" t="n">
-        <v>202.9018859863281</v>
+        <v>262.9447631835938</v>
       </c>
       <c r="GU3" t="n">
-        <v>202.4990386962891</v>
+        <v>262.4464721679688</v>
       </c>
       <c r="GV3" t="n">
-        <v>201.4230041503906</v>
+        <v>261.3950500488281</v>
       </c>
       <c r="GW3" t="n">
-        <v>200.9762878417969</v>
+        <v>261.2500610351562</v>
       </c>
       <c r="GX3" t="n">
-        <v>201.3000793457031</v>
+        <v>259.8258972167969</v>
       </c>
       <c r="GY3" t="n">
-        <v>200.5934295654297</v>
+        <v>260.8843994140625</v>
       </c>
       <c r="GZ3" t="n">
-        <v>199.4741821289062</v>
+        <v>260.2533569335938</v>
       </c>
       <c r="HA3" t="n">
-        <v>199.5244598388672</v>
+        <v>259.2683410644531</v>
       </c>
       <c r="HB3" t="n">
-        <v>199.7670135498047</v>
+        <v>259.3521728515625</v>
       </c>
       <c r="HC3" t="n">
-        <v>200.4243774414062</v>
+        <v>259.2078552246094</v>
       </c>
       <c r="HD3" t="n">
-        <v>199.8795166015625</v>
+        <v>259.1452026367188</v>
       </c>
       <c r="HE3" t="n">
-        <v>198.7834320068359</v>
+        <v>258.9407043457031</v>
       </c>
       <c r="HF3" t="n">
-        <v>195.16259765625</v>
+        <v>258.9131774902344</v>
       </c>
       <c r="HG3" t="n">
-        <v>191.2652740478516</v>
+        <v>260.0012817382812</v>
       </c>
       <c r="HH3" t="n">
-        <v>185.1578369140625</v>
+        <v>259.2285461425781</v>
       </c>
       <c r="HI3" t="n">
-        <v>182.7437591552734</v>
+        <v>259.0617065429688</v>
       </c>
       <c r="HJ3" t="n">
-        <v>181.2962646484375</v>
+        <v>259.7160339355469</v>
       </c>
       <c r="HK3" t="n">
-        <v>181.7340850830078</v>
+        <v>261.0736694335938</v>
       </c>
       <c r="HL3" t="n">
-        <v>179.1871490478516</v>
+        <v>262.5435485839844</v>
       </c>
       <c r="HM3" t="n">
-        <v>176.2728271484375</v>
+        <v>263.6544494628906</v>
       </c>
       <c r="HN3" t="n">
-        <v>171.8908538818359</v>
+        <v>264.3406372070312</v>
       </c>
       <c r="HO3" t="n">
-        <v>167.5074310302734</v>
+        <v>263.4151000976562</v>
       </c>
       <c r="HP3" t="n">
-        <v>162.878662109375</v>
+        <v>262.8518676757812</v>
       </c>
       <c r="HQ3" t="n">
-        <v>158.0726013183594</v>
+        <v>262.3425598144531</v>
       </c>
       <c r="HR3" t="n">
-        <v>154.7300872802734</v>
+        <v>261.140380859375</v>
       </c>
       <c r="HS3" t="n">
-        <v>152.9387512207031</v>
+        <v>261.2715148925781</v>
       </c>
       <c r="HT3" t="n">
-        <v>149.5881195068359</v>
+        <v>261.0173950195312</v>
       </c>
       <c r="HU3" t="n">
-        <v>147.4342498779297</v>
+        <v>260.7289733886719</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>260.92431640625</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>264.205078125</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>265.4472045898438</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>265.9637451171875</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>266.844482421875</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>268.6070556640625</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>269.2610168457031</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>269.7741394042969</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>270.9284057617188</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>271.1588134765625</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>271.5504455566406</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>271.6204223632812</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>270.5096435546875</v>
+      </c>
+      <c r="II3" t="n">
+        <v>270.736572265625</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>270.1198425292969</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>270.1068115234375</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>270.8478393554688</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>270.5291442871094</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>270.8084716796875</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>270.5021362304688</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>271.0338439941406</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>266.003662109375</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>263.29443359375</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>262.8531494140625</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>262.9746398925781</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>262.4529418945312</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>261.6598510742188</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>261.1415710449219</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>260.2519836425781</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>260.1724853515625</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>259.8555297851562</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>257.5142211914062</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>257.2801208496094</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>258.7419128417969</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>258.0767517089844</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>259.2161865234375</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>259.1269836425781</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>260.1763610839844</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>260.9978637695312</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>259.9947509765625</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>259.6048583984375</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>259.8642883300781</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>259.5794372558594</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>259.2342529296875</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>259.810546875</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>260.5005798339844</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>260.7799377441406</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>259.8821105957031</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>260.18359375</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>260.5681762695312</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>261.2633361816406</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>261.8298034667969</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>262.1979675292969</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>262.49853515625</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>262.8888244628906</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>262.9984130859375</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>262.9859619140625</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>263.0613708496094</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>263.0751342773438</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>263.0279846191406</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>262.80322265625</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>262.7198791503906</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>262.3356628417969</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>261.0866088867188</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>260.3182983398438</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>260.0656433105469</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>259.7759094238281</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>260.1318969726562</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>261.2222595214844</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>261.6707153320312</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>261.4527893066406</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>261.3910217285156</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>261.27978515625</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>261.6119995117188</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>262.1535949707031</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>262.5153503417969</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>262.6799621582031</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>262.6448974609375</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>262.6743469238281</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>262.693359375</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>262.4353942871094</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>262.3959655761719</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>263.0841674804688</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>263.7081298828125</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>263.9646606445312</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>264.2989196777344</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>264.6375122070312</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>263.3548278808594</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>260.3455505371094</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>259.8567504882812</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>257.2746887207031</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>255.2885894775391</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>246.3537902832031</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>241.0066223144531</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>238.0247497558594</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>235.8702239990234</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>228.6973571777344</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>225.0668029785156</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>217.9138488769531</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>213.6746368408203</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>210.5007476806641</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>205.177490234375</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>186.5575408935547</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>171.4078979492188</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>147.1063232421875</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>130.2978210449219</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>123.5081405639648</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>111.8211288452148</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>108.3227386474609</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>116.4690170288086</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>127.8784713745117</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>139.8369903564453</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>136.6665191650391</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>132.3959503173828</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>136.9099884033203</v>
+      </c>
+      <c r="MG3" t="n">
+        <v>162.8528900146484</v>
+      </c>
+      <c r="MH3" t="n">
+        <v>184.2142181396484</v>
+      </c>
+      <c r="MI3" t="n">
+        <v>204.5439910888672</v>
+      </c>
+      <c r="MJ3" t="n">
+        <v>253.2799835205078</v>
+      </c>
+      <c r="MK3" t="n">
+        <v>290.178466796875</v>
+      </c>
+      <c r="ML3" t="n">
+        <v>312.1009826660156</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>335.8203430175781</v>
+      </c>
+      <c r="MN3" t="n">
+        <v>333.2986450195312</v>
+      </c>
+      <c r="MO3" t="n">
+        <v>330.0177307128906</v>
+      </c>
+      <c r="MP3" t="n">
+        <v>329.0971984863281</v>
+      </c>
+      <c r="MQ3" t="n">
+        <v>329.5676574707031</v>
+      </c>
+      <c r="MR3" t="n">
+        <v>334.7186279296875</v>
+      </c>
+      <c r="MS3" t="n">
+        <v>337.5661926269531</v>
+      </c>
+      <c r="MT3" t="n">
+        <v>344.4690856933594</v>
+      </c>
+      <c r="MU3" t="n">
+        <v>367.9729309082031</v>
+      </c>
+      <c r="MV3" t="n">
+        <v>348.3902893066406</v>
+      </c>
+      <c r="MW3" t="n">
+        <v>302.0759582519531</v>
+      </c>
+      <c r="MX3" t="n">
+        <v>320.6799621582031</v>
+      </c>
+      <c r="MY3" t="n">
+        <v>317.0209655761719</v>
+      </c>
+      <c r="MZ3" t="n">
+        <v>302.766845703125</v>
+      </c>
+      <c r="NA3" t="n">
+        <v>293.1200256347656</v>
+      </c>
+      <c r="NB3" t="n">
+        <v>288.6179809570312</v>
+      </c>
+      <c r="NC3" t="n">
+        <v>287.0747375488281</v>
+      </c>
+      <c r="ND3" t="n">
+        <v>287.8034057617188</v>
+      </c>
+      <c r="NE3" t="n">
+        <v>293.4193725585938</v>
+      </c>
+      <c r="NF3" t="n">
+        <v>299.2949829101562</v>
+      </c>
+      <c r="NG3" t="n">
+        <v>303.8832397460938</v>
+      </c>
+      <c r="NH3" t="n">
+        <v>305.6099853515625</v>
+      </c>
+      <c r="NI3" t="n">
+        <v>308.8056945800781</v>
+      </c>
+      <c r="NJ3" t="n">
+        <v>311.749267578125</v>
+      </c>
+      <c r="NK3" t="n">
+        <v>311.1666259765625</v>
+      </c>
+      <c r="NL3" t="n">
+        <v>309.7173767089844</v>
+      </c>
+      <c r="NM3" t="n">
+        <v>308.9414978027344</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>954.2735595703125</v>
+        <v>1062.493408203125</v>
       </c>
       <c r="B4" t="n">
-        <v>969.1890258789062</v>
+        <v>1058.321655273438</v>
       </c>
       <c r="C4" t="n">
-        <v>985.8704223632812</v>
+        <v>1063.573974609375</v>
       </c>
       <c r="D4" t="n">
-        <v>1010.965881347656</v>
+        <v>1068.4873046875</v>
       </c>
       <c r="E4" t="n">
-        <v>1021.399963378906</v>
+        <v>1074.3076171875</v>
       </c>
       <c r="F4" t="n">
-        <v>1054.7529296875</v>
+        <v>1086.087890625</v>
       </c>
       <c r="G4" t="n">
-        <v>1063.512573242188</v>
+        <v>1092.616455078125</v>
       </c>
       <c r="H4" t="n">
-        <v>1099.898315429688</v>
+        <v>1093.898193359375</v>
       </c>
       <c r="I4" t="n">
-        <v>1124.745361328125</v>
+        <v>1094.290405273438</v>
       </c>
       <c r="J4" t="n">
-        <v>1164.328369140625</v>
+        <v>1096.459228515625</v>
       </c>
       <c r="K4" t="n">
-        <v>1178.4052734375</v>
+        <v>1099.558959960938</v>
       </c>
       <c r="L4" t="n">
-        <v>1224.52001953125</v>
+        <v>1102.04443359375</v>
       </c>
       <c r="M4" t="n">
-        <v>1236.489868164062</v>
+        <v>1164.386352539062</v>
       </c>
       <c r="N4" t="n">
-        <v>1292.8525390625</v>
+        <v>1170.1708984375</v>
       </c>
       <c r="O4" t="n">
-        <v>1333.629638671875</v>
+        <v>1211.623046875</v>
       </c>
       <c r="P4" t="n">
-        <v>1367.5087890625</v>
+        <v>1216.425415039062</v>
       </c>
       <c r="Q4" t="n">
-        <v>1407.606201171875</v>
+        <v>1224.2587890625</v>
       </c>
       <c r="R4" t="n">
-        <v>1443.559814453125</v>
+        <v>1236.281860351562</v>
       </c>
       <c r="S4" t="n">
-        <v>1479.630859375</v>
+        <v>1243.475830078125</v>
       </c>
       <c r="T4" t="n">
-        <v>1514.4970703125</v>
+        <v>1260.723388671875</v>
       </c>
       <c r="U4" t="n">
-        <v>1547.838134765625</v>
+        <v>1265.904174804688</v>
       </c>
       <c r="V4" t="n">
-        <v>1589.947509765625</v>
+        <v>1286.875</v>
       </c>
       <c r="W4" t="n">
-        <v>1631.662963867188</v>
+        <v>1296.2314453125</v>
       </c>
       <c r="X4" t="n">
-        <v>1676.675659179688</v>
+        <v>1318.703979492188</v>
       </c>
       <c r="Y4" t="n">
-        <v>1714.666381835938</v>
+        <v>1335.127197265625</v>
       </c>
       <c r="Z4" t="n">
-        <v>1760.745971679688</v>
+        <v>1340.008422851562</v>
       </c>
       <c r="AA4" t="n">
-        <v>1803.253540039062</v>
+        <v>1355.905151367188</v>
       </c>
       <c r="AB4" t="n">
-        <v>1850.977294921875</v>
+        <v>1363.609375</v>
       </c>
       <c r="AC4" t="n">
-        <v>1876.801879882812</v>
+        <v>1384.273559570312</v>
       </c>
       <c r="AD4" t="n">
-        <v>1912.654541015625</v>
+        <v>1396.399291992188</v>
       </c>
       <c r="AE4" t="n">
-        <v>1961.001098632812</v>
+        <v>1402.313842773438</v>
       </c>
       <c r="AF4" t="n">
-        <v>2000.772583007812</v>
+        <v>1412.828247070312</v>
       </c>
       <c r="AG4" t="n">
-        <v>2016.123901367188</v>
+        <v>1423.308715820312</v>
       </c>
       <c r="AH4" t="n">
-        <v>2045.813598632812</v>
+        <v>1439.960205078125</v>
       </c>
       <c r="AI4" t="n">
-        <v>2074.723876953125</v>
+        <v>1441.6201171875</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2119.9765625</v>
+        <v>1446.334106445312</v>
       </c>
       <c r="AK4" t="n">
-        <v>2158.7607421875</v>
+        <v>1450.704833984375</v>
       </c>
       <c r="AL4" t="n">
-        <v>2196.849853515625</v>
+        <v>1449.924194335938</v>
       </c>
       <c r="AM4" t="n">
-        <v>2214.939697265625</v>
+        <v>1450.246215820312</v>
       </c>
       <c r="AN4" t="n">
-        <v>2246.62744140625</v>
+        <v>1450.9423828125</v>
       </c>
       <c r="AO4" t="n">
-        <v>2298.137939453125</v>
+        <v>1451.520629882812</v>
       </c>
       <c r="AP4" t="n">
-        <v>2363.42041015625</v>
+        <v>1451.937866210938</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2399.9384765625</v>
+        <v>1452.115234375</v>
       </c>
       <c r="AR4" t="n">
-        <v>2436.896484375</v>
+        <v>1451.703125</v>
       </c>
       <c r="AS4" t="n">
-        <v>2465.363525390625</v>
+        <v>1444.90576171875</v>
       </c>
       <c r="AT4" t="n">
-        <v>2497.469970703125</v>
+        <v>1429.688354492188</v>
       </c>
       <c r="AU4" t="n">
-        <v>2524.171630859375</v>
+        <v>1415.801635742188</v>
       </c>
       <c r="AV4" t="n">
-        <v>2563.883056640625</v>
+        <v>1406.11474609375</v>
       </c>
       <c r="AW4" t="n">
-        <v>2640.100341796875</v>
+        <v>1401.948364257812</v>
       </c>
       <c r="AX4" t="n">
-        <v>2659.537353515625</v>
+        <v>1395.935424804688</v>
       </c>
       <c r="AY4" t="n">
-        <v>2710.397705078125</v>
+        <v>1387.605834960938</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2739.91357421875</v>
+        <v>1380.312133789062</v>
       </c>
       <c r="BA4" t="n">
-        <v>2763.625732421875</v>
+        <v>1368.709594726562</v>
       </c>
       <c r="BB4" t="n">
-        <v>2792.280029296875</v>
+        <v>1365.968017578125</v>
       </c>
       <c r="BC4" t="n">
-        <v>2817.173583984375</v>
+        <v>1358.634399414062</v>
       </c>
       <c r="BD4" t="n">
-        <v>2846.28076171875</v>
+        <v>1352.235595703125</v>
       </c>
       <c r="BE4" t="n">
-        <v>2867.80078125</v>
+        <v>1344.922973632812</v>
       </c>
       <c r="BF4" t="n">
-        <v>2912.228271484375</v>
+        <v>1338.53515625</v>
       </c>
       <c r="BG4" t="n">
-        <v>2972.71923828125</v>
+        <v>1334.380615234375</v>
       </c>
       <c r="BH4" t="n">
-        <v>3003.035400390625</v>
+        <v>1330.541381835938</v>
       </c>
       <c r="BI4" t="n">
-        <v>3053.9306640625</v>
+        <v>1324.39599609375</v>
       </c>
       <c r="BJ4" t="n">
-        <v>3079.220703125</v>
+        <v>1320.323608398438</v>
       </c>
       <c r="BK4" t="n">
-        <v>3109.254150390625</v>
+        <v>1315.726928710938</v>
       </c>
       <c r="BL4" t="n">
-        <v>3123.37255859375</v>
+        <v>1310.935424804688</v>
       </c>
       <c r="BM4" t="n">
-        <v>3154.83740234375</v>
+        <v>1305.1416015625</v>
       </c>
       <c r="BN4" t="n">
-        <v>3174.473388671875</v>
+        <v>1301.364013671875</v>
       </c>
       <c r="BO4" t="n">
-        <v>3203.697265625</v>
+        <v>1296.501953125</v>
       </c>
       <c r="BP4" t="n">
-        <v>3193.27685546875</v>
+        <v>1295.739990234375</v>
       </c>
       <c r="BQ4" t="n">
-        <v>3237.931396484375</v>
+        <v>1292.991333007812</v>
       </c>
       <c r="BR4" t="n">
-        <v>3237.572021484375</v>
+        <v>1291.172119140625</v>
       </c>
       <c r="BS4" t="n">
-        <v>3250.156982421875</v>
+        <v>1289.40966796875</v>
       </c>
       <c r="BT4" t="n">
-        <v>3293.90283203125</v>
+        <v>1286.672973632812</v>
       </c>
       <c r="BU4" t="n">
-        <v>3290.267578125</v>
+        <v>1284.283935546875</v>
       </c>
       <c r="BV4" t="n">
-        <v>3313.673828125</v>
+        <v>1281.677734375</v>
       </c>
       <c r="BW4" t="n">
-        <v>3346.2314453125</v>
+        <v>1276.4794921875</v>
       </c>
       <c r="BX4" t="n">
-        <v>3391.221923828125</v>
+        <v>1272.296630859375</v>
       </c>
       <c r="BY4" t="n">
-        <v>3352.0869140625</v>
+        <v>1263.08349609375</v>
       </c>
       <c r="BZ4" t="n">
-        <v>3383.6640625</v>
+        <v>1254.6162109375</v>
       </c>
       <c r="CA4" t="n">
-        <v>3387.829345703125</v>
+        <v>1252.414428710938</v>
       </c>
       <c r="CB4" t="n">
-        <v>3493.54345703125</v>
+        <v>1250.0185546875</v>
       </c>
       <c r="CC4" t="n">
-        <v>3505.0712890625</v>
+        <v>1247.239624023438</v>
       </c>
       <c r="CD4" t="n">
-        <v>3511.414794921875</v>
+        <v>1241.878540039062</v>
       </c>
       <c r="CE4" t="n">
-        <v>3520.56787109375</v>
+        <v>1236.861206054688</v>
       </c>
       <c r="CF4" t="n">
-        <v>3546.092041015625</v>
+        <v>1235.155639648438</v>
       </c>
       <c r="CG4" t="n">
-        <v>3561.1689453125</v>
+        <v>1230.328857421875</v>
       </c>
       <c r="CH4" t="n">
-        <v>3576.97607421875</v>
+        <v>1228.26953125</v>
       </c>
       <c r="CI4" t="n">
-        <v>3592.69921875</v>
+        <v>1225.738891601562</v>
       </c>
       <c r="CJ4" t="n">
-        <v>3592.1728515625</v>
+        <v>1222.22705078125</v>
       </c>
       <c r="CK4" t="n">
-        <v>3592.27783203125</v>
+        <v>1220.016357421875</v>
       </c>
       <c r="CL4" t="n">
-        <v>3604.2626953125</v>
+        <v>1216.494506835938</v>
       </c>
       <c r="CM4" t="n">
-        <v>3617.346923828125</v>
+        <v>1211.840087890625</v>
       </c>
       <c r="CN4" t="n">
-        <v>3647.2998046875</v>
+        <v>1205.363647460938</v>
       </c>
       <c r="CO4" t="n">
-        <v>3637.701904296875</v>
+        <v>1203.944580078125</v>
       </c>
       <c r="CP4" t="n">
-        <v>3640.732177734375</v>
+        <v>1202.17041015625</v>
       </c>
       <c r="CQ4" t="n">
-        <v>3671.3310546875</v>
+        <v>1199.300903320312</v>
       </c>
       <c r="CR4" t="n">
-        <v>3675.56201171875</v>
+        <v>1196.841552734375</v>
       </c>
       <c r="CS4" t="n">
-        <v>3682.769287109375</v>
+        <v>1190.947509765625</v>
       </c>
       <c r="CT4" t="n">
-        <v>3685.46337890625</v>
+        <v>1189.584228515625</v>
       </c>
       <c r="CU4" t="n">
-        <v>3678.695068359375</v>
+        <v>1188.497314453125</v>
       </c>
       <c r="CV4" t="n">
-        <v>3680.47314453125</v>
+        <v>1188.047973632812</v>
       </c>
       <c r="CW4" t="n">
-        <v>3684.686767578125</v>
+        <v>1188.623779296875</v>
       </c>
       <c r="CX4" t="n">
-        <v>3724.44921875</v>
+        <v>1189.833251953125</v>
       </c>
       <c r="CY4" t="n">
-        <v>3684.809814453125</v>
+        <v>1191.371948242188</v>
       </c>
       <c r="CZ4" t="n">
-        <v>3729.210693359375</v>
+        <v>1205.850341796875</v>
       </c>
       <c r="DA4" t="n">
-        <v>3747.9921875</v>
+        <v>1209.056518554688</v>
       </c>
       <c r="DB4" t="n">
-        <v>3726.871826171875</v>
+        <v>1211.7255859375</v>
       </c>
       <c r="DC4" t="n">
-        <v>3730.921630859375</v>
+        <v>1213.059692382812</v>
       </c>
       <c r="DD4" t="n">
-        <v>3689.429931640625</v>
+        <v>1214.191528320312</v>
       </c>
       <c r="DE4" t="n">
-        <v>3697.578125</v>
+        <v>1218.879272460938</v>
       </c>
       <c r="DF4" t="n">
-        <v>3738.8896484375</v>
+        <v>1221.246704101562</v>
       </c>
       <c r="DG4" t="n">
-        <v>3729.328857421875</v>
+        <v>1222.921997070312</v>
       </c>
       <c r="DH4" t="n">
-        <v>3737.423583984375</v>
+        <v>1227.473876953125</v>
       </c>
       <c r="DI4" t="n">
-        <v>3726.399658203125</v>
+        <v>1229.398071289062</v>
       </c>
       <c r="DJ4" t="n">
-        <v>3698.1083984375</v>
+        <v>1234.696044921875</v>
       </c>
       <c r="DK4" t="n">
-        <v>3676.159423828125</v>
+        <v>1237.669677734375</v>
       </c>
       <c r="DL4" t="n">
-        <v>3694.394287109375</v>
+        <v>1238.337280273438</v>
       </c>
       <c r="DM4" t="n">
-        <v>3662.39404296875</v>
+        <v>1239.14453125</v>
       </c>
       <c r="DN4" t="n">
-        <v>3694.1513671875</v>
+        <v>1239.922119140625</v>
       </c>
       <c r="DO4" t="n">
-        <v>3647.98291015625</v>
+        <v>1240.861938476562</v>
       </c>
       <c r="DP4" t="n">
-        <v>3661.212158203125</v>
+        <v>1242.065185546875</v>
       </c>
       <c r="DQ4" t="n">
-        <v>3640.5751953125</v>
+        <v>1244.75146484375</v>
       </c>
       <c r="DR4" t="n">
-        <v>3626.775634765625</v>
+        <v>1246.310180664062</v>
       </c>
       <c r="DS4" t="n">
-        <v>3647.954833984375</v>
+        <v>1248.04638671875</v>
       </c>
       <c r="DT4" t="n">
-        <v>3611.0595703125</v>
+        <v>1254.2451171875</v>
       </c>
       <c r="DU4" t="n">
-        <v>3606.327880859375</v>
+        <v>1260.227294921875</v>
       </c>
       <c r="DV4" t="n">
-        <v>3592.837890625</v>
+        <v>1262.114013671875</v>
       </c>
       <c r="DW4" t="n">
-        <v>3599.23291015625</v>
+        <v>1265.943237304688</v>
       </c>
       <c r="DX4" t="n">
-        <v>3584.3935546875</v>
+        <v>1267.357421875</v>
       </c>
       <c r="DY4" t="n">
-        <v>3582.913818359375</v>
+        <v>1268.810302734375</v>
       </c>
       <c r="DZ4" t="n">
-        <v>3575.858154296875</v>
+        <v>1282.673706054688</v>
       </c>
       <c r="EA4" t="n">
-        <v>3570.42626953125</v>
+        <v>1289.328369140625</v>
       </c>
       <c r="EB4" t="n">
-        <v>3557.42919921875</v>
+        <v>1299.8935546875</v>
       </c>
       <c r="EC4" t="n">
-        <v>3562.7763671875</v>
+        <v>1305.179077148438</v>
       </c>
       <c r="ED4" t="n">
-        <v>3565.419921875</v>
+        <v>1311.656860351562</v>
       </c>
       <c r="EE4" t="n">
-        <v>3556.711181640625</v>
+        <v>1329.20556640625</v>
       </c>
       <c r="EF4" t="n">
-        <v>3532.40185546875</v>
+        <v>1346.640258789062</v>
       </c>
       <c r="EG4" t="n">
-        <v>3541.203369140625</v>
+        <v>1369.134033203125</v>
       </c>
       <c r="EH4" t="n">
-        <v>3533.11572265625</v>
+        <v>1381.008178710938</v>
       </c>
       <c r="EI4" t="n">
-        <v>3501.46728515625</v>
+        <v>1393.275268554688</v>
       </c>
       <c r="EJ4" t="n">
-        <v>3414.732666015625</v>
+        <v>1410.7548828125</v>
       </c>
       <c r="EK4" t="n">
-        <v>3476.1259765625</v>
+        <v>1425.1591796875</v>
       </c>
       <c r="EL4" t="n">
-        <v>3477.64208984375</v>
+        <v>1428.827270507812</v>
       </c>
       <c r="EM4" t="n">
-        <v>3443.626708984375</v>
+        <v>1450.93212890625</v>
       </c>
       <c r="EN4" t="n">
-        <v>3455.99072265625</v>
+        <v>1462.81201171875</v>
       </c>
       <c r="EO4" t="n">
-        <v>3406.229736328125</v>
+        <v>1482.19189453125</v>
       </c>
       <c r="EP4" t="n">
-        <v>3466.334228515625</v>
+        <v>1496.194458007812</v>
       </c>
       <c r="EQ4" t="n">
-        <v>3489.2646484375</v>
+        <v>1543.677612304688</v>
       </c>
       <c r="ER4" t="n">
-        <v>3484.770263671875</v>
+        <v>1558.029907226562</v>
       </c>
       <c r="ES4" t="n">
-        <v>3502.369873046875</v>
+        <v>1591.080322265625</v>
       </c>
       <c r="ET4" t="n">
-        <v>3450.641845703125</v>
+        <v>1618.31689453125</v>
       </c>
       <c r="EU4" t="n">
-        <v>3431.736328125</v>
+        <v>1647.766845703125</v>
       </c>
       <c r="EV4" t="n">
-        <v>3467.672607421875</v>
+        <v>1673.99169921875</v>
       </c>
       <c r="EW4" t="n">
-        <v>3470.64697265625</v>
+        <v>1718.12060546875</v>
       </c>
       <c r="EX4" t="n">
-        <v>3463.89501953125</v>
+        <v>1755.58349609375</v>
       </c>
       <c r="EY4" t="n">
-        <v>3461.52685546875</v>
+        <v>1778.267822265625</v>
       </c>
       <c r="EZ4" t="n">
-        <v>3457.50244140625</v>
+        <v>1799.999755859375</v>
       </c>
       <c r="FA4" t="n">
-        <v>3454.59228515625</v>
+        <v>1833.622924804688</v>
       </c>
       <c r="FB4" t="n">
-        <v>3494.25537109375</v>
+        <v>1849.494262695312</v>
       </c>
       <c r="FC4" t="n">
-        <v>3497.3447265625</v>
+        <v>1877.887084960938</v>
       </c>
       <c r="FD4" t="n">
-        <v>3487.89306640625</v>
+        <v>1935.137451171875</v>
       </c>
       <c r="FE4" t="n">
-        <v>3488.61767578125</v>
+        <v>1961.183227539062</v>
       </c>
       <c r="FF4" t="n">
-        <v>3489.6884765625</v>
+        <v>1973.468505859375</v>
       </c>
       <c r="FG4" t="n">
-        <v>3490.556396484375</v>
+        <v>2009.3515625</v>
       </c>
       <c r="FH4" t="n">
-        <v>3507.6064453125</v>
+        <v>2020.789184570312</v>
       </c>
       <c r="FI4" t="n">
-        <v>3495.53466796875</v>
+        <v>2047.622680664062</v>
       </c>
       <c r="FJ4" t="n">
-        <v>3487.641357421875</v>
+        <v>2080.93603515625</v>
       </c>
       <c r="FK4" t="n">
-        <v>3488.807861328125</v>
+        <v>2122.14013671875</v>
       </c>
       <c r="FL4" t="n">
-        <v>3503.207275390625</v>
+        <v>2150.10986328125</v>
       </c>
       <c r="FM4" t="n">
-        <v>3517.68798828125</v>
+        <v>2188.823974609375</v>
       </c>
       <c r="FN4" t="n">
-        <v>3461.85302734375</v>
+        <v>2201.859130859375</v>
       </c>
       <c r="FO4" t="n">
-        <v>3444.923583984375</v>
+        <v>2211.97412109375</v>
       </c>
       <c r="FP4" t="n">
-        <v>3438.441162109375</v>
+        <v>2237.706298828125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>3441.210205078125</v>
+        <v>2237.816650390625</v>
       </c>
       <c r="FR4" t="n">
-        <v>3439.736572265625</v>
+        <v>2270.072509765625</v>
       </c>
       <c r="FS4" t="n">
-        <v>3501.15869140625</v>
+        <v>2270.182861328125</v>
       </c>
       <c r="FT4" t="n">
-        <v>3507.1796875</v>
+        <v>2284.18115234375</v>
       </c>
       <c r="FU4" t="n">
-        <v>3469.003662109375</v>
+        <v>2296.62353515625</v>
       </c>
       <c r="FV4" t="n">
-        <v>3453.169921875</v>
+        <v>2324.2265625</v>
       </c>
       <c r="FW4" t="n">
-        <v>3453.33056640625</v>
+        <v>2321.481689453125</v>
       </c>
       <c r="FX4" t="n">
-        <v>3433.068359375</v>
+        <v>2323.641845703125</v>
       </c>
       <c r="FY4" t="n">
-        <v>3407.017822265625</v>
+        <v>2333.4013671875</v>
       </c>
       <c r="FZ4" t="n">
-        <v>3409.585693359375</v>
+        <v>2351.554443359375</v>
       </c>
       <c r="GA4" t="n">
-        <v>3361.193603515625</v>
+        <v>2350.945556640625</v>
       </c>
       <c r="GB4" t="n">
-        <v>3357.385498046875</v>
+        <v>2352.1279296875</v>
       </c>
       <c r="GC4" t="n">
-        <v>3298.270751953125</v>
+        <v>2352.472900390625</v>
       </c>
       <c r="GD4" t="n">
-        <v>3308.02099609375</v>
+        <v>2348.80078125</v>
       </c>
       <c r="GE4" t="n">
-        <v>3268.3837890625</v>
+        <v>2348.39599609375</v>
       </c>
       <c r="GF4" t="n">
-        <v>3240.7880859375</v>
+        <v>2349.126708984375</v>
       </c>
       <c r="GG4" t="n">
-        <v>3171.552001953125</v>
+        <v>2346.388427734375</v>
       </c>
       <c r="GH4" t="n">
-        <v>3160.7666015625</v>
+        <v>2344.33837890625</v>
       </c>
       <c r="GI4" t="n">
-        <v>3098.85009765625</v>
+        <v>2352.71630859375</v>
       </c>
       <c r="GJ4" t="n">
-        <v>3001.982666015625</v>
+        <v>2351.859130859375</v>
       </c>
       <c r="GK4" t="n">
-        <v>2901.868408203125</v>
+        <v>2353.223876953125</v>
       </c>
       <c r="GL4" t="n">
-        <v>2820.9404296875</v>
+        <v>2363.0029296875</v>
       </c>
       <c r="GM4" t="n">
-        <v>2815.380126953125</v>
+        <v>2365.5517578125</v>
       </c>
       <c r="GN4" t="n">
-        <v>2805.1923828125</v>
+        <v>2366.846923828125</v>
       </c>
       <c r="GO4" t="n">
-        <v>2749.036865234375</v>
+        <v>2355.375244140625</v>
       </c>
       <c r="GP4" t="n">
-        <v>2707.02099609375</v>
+        <v>2355.002197265625</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2678.686279296875</v>
+        <v>2356.07568359375</v>
       </c>
       <c r="GR4" t="n">
-        <v>2633.20751953125</v>
+        <v>2349.736572265625</v>
       </c>
       <c r="GS4" t="n">
-        <v>2536.056640625</v>
+        <v>2356.331298828125</v>
       </c>
       <c r="GT4" t="n">
-        <v>2509.7412109375</v>
+        <v>2357.041748046875</v>
       </c>
       <c r="GU4" t="n">
-        <v>2453.900634765625</v>
+        <v>2355.936767578125</v>
       </c>
       <c r="GV4" t="n">
-        <v>2394.8798828125</v>
+        <v>2350.31884765625</v>
       </c>
       <c r="GW4" t="n">
-        <v>2325.097412109375</v>
+        <v>2344.11328125</v>
       </c>
       <c r="GX4" t="n">
-        <v>2260.95068359375</v>
+        <v>2332.0517578125</v>
       </c>
       <c r="GY4" t="n">
-        <v>2214.206298828125</v>
+        <v>2330.96630859375</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2143.337158203125</v>
+        <v>2354.730224609375</v>
       </c>
       <c r="HA4" t="n">
-        <v>2072.75439453125</v>
+        <v>2354.9140625</v>
       </c>
       <c r="HB4" t="n">
-        <v>2009.385375976562</v>
+        <v>2346.430419921875</v>
       </c>
       <c r="HC4" t="n">
-        <v>1935.22265625</v>
+        <v>2338.334228515625</v>
       </c>
       <c r="HD4" t="n">
-        <v>1857.331909179688</v>
+        <v>2338.4453125</v>
       </c>
       <c r="HE4" t="n">
-        <v>1818.397094726562</v>
+        <v>2339.90625</v>
       </c>
       <c r="HF4" t="n">
-        <v>1703.451538085938</v>
+        <v>2345.526611328125</v>
       </c>
       <c r="HG4" t="n">
-        <v>1625.509521484375</v>
+        <v>2339.63623046875</v>
       </c>
       <c r="HH4" t="n">
-        <v>1534.86767578125</v>
+        <v>2340.803955078125</v>
       </c>
       <c r="HI4" t="n">
-        <v>1481.513061523438</v>
+        <v>2342.14404296875</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1416.880249023438</v>
+        <v>2327.45947265625</v>
       </c>
       <c r="HK4" t="n">
-        <v>1358.065551757812</v>
+        <v>2316.57177734375</v>
       </c>
       <c r="HL4" t="n">
-        <v>1296.318969726562</v>
+        <v>2290.632080078125</v>
       </c>
       <c r="HM4" t="n">
-        <v>1233.936401367188</v>
+        <v>2258.87548828125</v>
       </c>
       <c r="HN4" t="n">
-        <v>1162.089965820312</v>
+        <v>2251.912353515625</v>
       </c>
       <c r="HO4" t="n">
-        <v>1106.07421875</v>
+        <v>2230.787109375</v>
       </c>
       <c r="HP4" t="n">
-        <v>1054.096801757812</v>
+        <v>2215.96875</v>
       </c>
       <c r="HQ4" t="n">
-        <v>998.3190307617188</v>
+        <v>2215.74560546875</v>
       </c>
       <c r="HR4" t="n">
-        <v>948.0499877929688</v>
+        <v>2201.45751953125</v>
       </c>
       <c r="HS4" t="n">
-        <v>894.1452026367188</v>
+        <v>2198.201416015625</v>
       </c>
       <c r="HT4" t="n">
-        <v>844.5989990234375</v>
+        <v>2189.203857421875</v>
       </c>
       <c r="HU4" t="n">
-        <v>794.794921875</v>
+        <v>2191.115234375</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>2191.01416015625</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>2194.073486328125</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>2205.49853515625</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>2206.69677734375</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>2215.51416015625</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>2212.635009765625</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>2212.533935546875</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>2213.626708984375</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>2213.562744140625</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>2214.876953125</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>2215.5390625</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>2215.678955078125</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>2223.45947265625</v>
+      </c>
+      <c r="II4" t="n">
+        <v>2229.396728515625</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>2236.715087890625</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>2252.24267578125</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>2253.0810546875</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>2258.15478515625</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>2271.384521484375</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>2282.171875</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>2280.823486328125</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>2300.1728515625</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>2309.611083984375</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>2312.224609375</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>2292.31494140625</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>2289.43603515625</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>2279.19970703125</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>2273.206787109375</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>2274.116943359375</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>2273.59423828125</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>2272.0380859375</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>2265.95947265625</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>2266.1435546875</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>2253.212890625</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>2244.704833984375</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>2231.743896484375</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>2223.983642578125</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>2218.536376953125</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>2212.521484375</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>2212.22119140625</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>2206.291748046875</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>2202.5107421875</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>2202.37255859375</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>2198.8251953125</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>2192.10205078125</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>2189.572021484375</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>2188.978515625</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>2191.843017578125</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>2190.883544921875</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>2188.765380859375</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>2185.6318359375</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>2176.691650390625</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>2169.93017578125</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>2162.353515625</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>2163.875</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>2162.712646484375</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>2163.021240234375</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>2162.660888671875</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>2162.403564453125</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>2162.082275390625</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>2162.44580078125</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>2172.46923828125</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>2180.512451171875</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>2187.17626953125</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>2188.432861328125</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>2190.462890625</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>2194.774658203125</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>2194.162109375</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>2194.249755859375</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>2192.9443359375</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>2190.364501953125</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>2192.526123046875</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>2192.206298828125</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>2191.548583984375</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>2195.29296875</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>2195.92626953125</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>2196.18701171875</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>2199.98291015625</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>2205.055419921875</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>2198.437744140625</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>2197.865234375</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>2198.084228515625</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>2197.22802734375</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>2196.33056640625</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>2189.790283203125</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>2173.743896484375</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>2157.580810546875</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>2126.24951171875</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>2079.49462890625</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>2044.536376953125</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>2011.5859375</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>1922.322509765625</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>1827.76953125</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>1721.600952148438</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>1659.810424804688</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>1597.694213867188</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>1523.170532226562</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>1472.653930664062</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>1380.901733398438</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>1268.522583007812</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>1188.361328125</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>1099.656616210938</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>967.8489990234375</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>900.317138671875</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>832.96875</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>787.3926391601562</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>764.1300659179688</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>723.351806640625</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>705.401611328125</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>710.517822265625</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>714.3390502929688</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>730.866455078125</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>735.9620971679688</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>738.9542846679688</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>738.785400390625</v>
+      </c>
+      <c r="MG4" t="n">
+        <v>730.11669921875</v>
+      </c>
+      <c r="MH4" t="n">
+        <v>726.5802001953125</v>
+      </c>
+      <c r="MI4" t="n">
+        <v>727.7767333984375</v>
+      </c>
+      <c r="MJ4" t="n">
+        <v>750.8587036132812</v>
+      </c>
+      <c r="MK4" t="n">
+        <v>772.3026733398438</v>
+      </c>
+      <c r="ML4" t="n">
+        <v>793.344970703125</v>
+      </c>
+      <c r="MM4" t="n">
+        <v>859.2882690429688</v>
+      </c>
+      <c r="MN4" t="n">
+        <v>881.5704956054688</v>
+      </c>
+      <c r="MO4" t="n">
+        <v>902.3435668945312</v>
+      </c>
+      <c r="MP4" t="n">
+        <v>920.2791137695312</v>
+      </c>
+      <c r="MQ4" t="n">
+        <v>918.199951171875</v>
+      </c>
+      <c r="MR4" t="n">
+        <v>881.8065185546875</v>
+      </c>
+      <c r="MS4" t="n">
+        <v>840.854736328125</v>
+      </c>
+      <c r="MT4" t="n">
+        <v>784.9977416992188</v>
+      </c>
+      <c r="MU4" t="n">
+        <v>689.5667114257812</v>
+      </c>
+      <c r="MV4" t="n">
+        <v>790.5460205078125</v>
+      </c>
+      <c r="MW4" t="n">
+        <v>862.6541748046875</v>
+      </c>
+      <c r="MX4" t="n">
+        <v>724.0653076171875</v>
+      </c>
+      <c r="MY4" t="n">
+        <v>718.2438354492188</v>
+      </c>
+      <c r="MZ4" t="n">
+        <v>702.1958618164062</v>
+      </c>
+      <c r="NA4" t="n">
+        <v>690.097412109375</v>
+      </c>
+      <c r="NB4" t="n">
+        <v>689.9198608398438</v>
+      </c>
+      <c r="NC4" t="n">
+        <v>695.0106811523438</v>
+      </c>
+      <c r="ND4" t="n">
+        <v>696.93017578125</v>
+      </c>
+      <c r="NE4" t="n">
+        <v>700.656005859375</v>
+      </c>
+      <c r="NF4" t="n">
+        <v>702.1578979492188</v>
+      </c>
+      <c r="NG4" t="n">
+        <v>710.978515625</v>
+      </c>
+      <c r="NH4" t="n">
+        <v>720.2406616210938</v>
+      </c>
+      <c r="NI4" t="n">
+        <v>738.0917358398438</v>
+      </c>
+      <c r="NJ4" t="n">
+        <v>746.6072998046875</v>
+      </c>
+      <c r="NK4" t="n">
+        <v>746.47802734375</v>
+      </c>
+      <c r="NL4" t="n">
+        <v>738.9357299804688</v>
+      </c>
+      <c r="NM4" t="n">
+        <v>733.4425048828125</v>
       </c>
     </row>
   </sheetData>

--- a/left_shoulder_Data_Variable.xlsx
+++ b/left_shoulder_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NM4"/>
+  <dimension ref="A1:IX4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,3761 +1208,2333 @@
       <c r="IX1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ME1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ML1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ND1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>378.2581787109375</v>
+        <v>331.112060546875</v>
       </c>
       <c r="B2" t="n">
-        <v>385.7933959960938</v>
+        <v>333.5448608398438</v>
       </c>
       <c r="C2" t="n">
-        <v>390.632568359375</v>
+        <v>335.8822937011719</v>
       </c>
       <c r="D2" t="n">
-        <v>395.5528564453125</v>
+        <v>336.5546264648438</v>
       </c>
       <c r="E2" t="n">
-        <v>403.0737609863281</v>
+        <v>338.7265319824219</v>
       </c>
       <c r="F2" t="n">
-        <v>412.8758544921875</v>
+        <v>340.7818603515625</v>
       </c>
       <c r="G2" t="n">
-        <v>424.7264099121094</v>
+        <v>343.8417053222656</v>
       </c>
       <c r="H2" t="n">
-        <v>435.6138610839844</v>
+        <v>348.2992553710938</v>
       </c>
       <c r="I2" t="n">
-        <v>444.5045471191406</v>
+        <v>352.8686218261719</v>
       </c>
       <c r="J2" t="n">
-        <v>452.599365234375</v>
+        <v>359.7466430664062</v>
       </c>
       <c r="K2" t="n">
-        <v>461.0427551269531</v>
+        <v>364.1044311523438</v>
       </c>
       <c r="L2" t="n">
-        <v>468.777099609375</v>
+        <v>368.8541259765625</v>
       </c>
       <c r="M2" t="n">
-        <v>504.8072814941406</v>
+        <v>372.7260131835938</v>
       </c>
       <c r="N2" t="n">
-        <v>505.1297607421875</v>
+        <v>378.7655029296875</v>
       </c>
       <c r="O2" t="n">
-        <v>503.7685546875</v>
+        <v>401.3948974609375</v>
       </c>
       <c r="P2" t="n">
-        <v>500.7783203125</v>
+        <v>401.750244140625</v>
       </c>
       <c r="Q2" t="n">
-        <v>498.7633666992188</v>
+        <v>401.3145141601562</v>
       </c>
       <c r="R2" t="n">
-        <v>496.49267578125</v>
+        <v>400.3228759765625</v>
       </c>
       <c r="S2" t="n">
-        <v>493.4760131835938</v>
+        <v>399.9584350585938</v>
       </c>
       <c r="T2" t="n">
-        <v>489.4276733398438</v>
+        <v>397.1719055175781</v>
       </c>
       <c r="U2" t="n">
-        <v>485.7096862792969</v>
+        <v>395.8309326171875</v>
       </c>
       <c r="V2" t="n">
-        <v>478.24609375</v>
+        <v>394.2992553710938</v>
       </c>
       <c r="W2" t="n">
-        <v>472.0199584960938</v>
+        <v>392.2912902832031</v>
       </c>
       <c r="X2" t="n">
-        <v>465.5657653808594</v>
+        <v>391.3074340820312</v>
       </c>
       <c r="Y2" t="n">
-        <v>458.7117919921875</v>
+        <v>388.1231079101562</v>
       </c>
       <c r="Z2" t="n">
-        <v>454.6190795898438</v>
+        <v>385.4632568359375</v>
       </c>
       <c r="AA2" t="n">
-        <v>449.572509765625</v>
+        <v>383.5484619140625</v>
       </c>
       <c r="AB2" t="n">
-        <v>446.5057067871094</v>
+        <v>382.2276611328125</v>
       </c>
       <c r="AC2" t="n">
-        <v>442.4512023925781</v>
+        <v>381.4763793945312</v>
       </c>
       <c r="AD2" t="n">
-        <v>438.5618286132812</v>
+        <v>379.759521484375</v>
       </c>
       <c r="AE2" t="n">
-        <v>436.37744140625</v>
+        <v>379.4766540527344</v>
       </c>
       <c r="AF2" t="n">
-        <v>433.3441162109375</v>
+        <v>378.0678100585938</v>
       </c>
       <c r="AG2" t="n">
-        <v>430.7549743652344</v>
+        <v>377.1612548828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>428.5345458984375</v>
+        <v>375.4330749511719</v>
       </c>
       <c r="AI2" t="n">
-        <v>426.7296142578125</v>
+        <v>374.48876953125</v>
       </c>
       <c r="AJ2" t="n">
-        <v>425.9067993164062</v>
+        <v>373.0324096679688</v>
       </c>
       <c r="AK2" t="n">
-        <v>423.7471313476562</v>
+        <v>372.0613098144531</v>
       </c>
       <c r="AL2" t="n">
-        <v>421.8347473144531</v>
+        <v>370.8856811523438</v>
       </c>
       <c r="AM2" t="n">
-        <v>420.1825561523438</v>
+        <v>370.1425170898438</v>
       </c>
       <c r="AN2" t="n">
-        <v>419.1293029785156</v>
+        <v>369.4259033203125</v>
       </c>
       <c r="AO2" t="n">
-        <v>418.3062438964844</v>
+        <v>369.1850280761719</v>
       </c>
       <c r="AP2" t="n">
-        <v>417.3726806640625</v>
+        <v>368.7681274414062</v>
       </c>
       <c r="AQ2" t="n">
-        <v>416.5806579589844</v>
+        <v>368.1043090820312</v>
       </c>
       <c r="AR2" t="n">
-        <v>415.495849609375</v>
+        <v>367.6163330078125</v>
       </c>
       <c r="AS2" t="n">
-        <v>414.8297729492188</v>
+        <v>367.2066650390625</v>
       </c>
       <c r="AT2" t="n">
-        <v>414.06982421875</v>
+        <v>366.7899780273438</v>
       </c>
       <c r="AU2" t="n">
-        <v>414.2239990234375</v>
+        <v>366.3729553222656</v>
       </c>
       <c r="AV2" t="n">
-        <v>414.3489074707031</v>
+        <v>366.1550903320312</v>
       </c>
       <c r="AW2" t="n">
-        <v>414.918212890625</v>
+        <v>365.8499145507812</v>
       </c>
       <c r="AX2" t="n">
-        <v>415.1842041015625</v>
+        <v>365.5716247558594</v>
       </c>
       <c r="AY2" t="n">
-        <v>415.3809204101562</v>
+        <v>365.2297973632812</v>
       </c>
       <c r="AZ2" t="n">
-        <v>415.6118469238281</v>
+        <v>365.2874755859375</v>
       </c>
       <c r="BA2" t="n">
-        <v>416.0601196289062</v>
+        <v>365.4654541015625</v>
       </c>
       <c r="BB2" t="n">
-        <v>416.28466796875</v>
+        <v>365.9072570800781</v>
       </c>
       <c r="BC2" t="n">
-        <v>416.6427917480469</v>
+        <v>366.3836975097656</v>
       </c>
       <c r="BD2" t="n">
-        <v>416.8654174804688</v>
+        <v>366.848388671875</v>
       </c>
       <c r="BE2" t="n">
-        <v>416.6526794433594</v>
+        <v>367.4464721679688</v>
       </c>
       <c r="BF2" t="n">
-        <v>416.3095397949219</v>
+        <v>368.4462280273438</v>
       </c>
       <c r="BG2" t="n">
-        <v>416.0151672363281</v>
+        <v>369.5582275390625</v>
       </c>
       <c r="BH2" t="n">
-        <v>414.7681884765625</v>
+        <v>370.6307678222656</v>
       </c>
       <c r="BI2" t="n">
-        <v>412.2629089355469</v>
+        <v>371.4153442382812</v>
       </c>
       <c r="BJ2" t="n">
-        <v>409.6798400878906</v>
+        <v>371.8738098144531</v>
       </c>
       <c r="BK2" t="n">
-        <v>405.6464233398438</v>
+        <v>372.1059875488281</v>
       </c>
       <c r="BL2" t="n">
-        <v>402.1444091796875</v>
+        <v>372.3145141601562</v>
       </c>
       <c r="BM2" t="n">
-        <v>398.3582153320312</v>
+        <v>372.3097534179688</v>
       </c>
       <c r="BN2" t="n">
-        <v>395.017333984375</v>
+        <v>372.2952575683594</v>
       </c>
       <c r="BO2" t="n">
-        <v>388.6553649902344</v>
+        <v>372.427978515625</v>
       </c>
       <c r="BP2" t="n">
-        <v>385.3466796875</v>
+        <v>372.48681640625</v>
       </c>
       <c r="BQ2" t="n">
-        <v>382.586669921875</v>
+        <v>372.6575317382812</v>
       </c>
       <c r="BR2" t="n">
-        <v>379.6171264648438</v>
+        <v>372.8985595703125</v>
       </c>
       <c r="BS2" t="n">
-        <v>377.532470703125</v>
+        <v>373.0537414550781</v>
       </c>
       <c r="BT2" t="n">
-        <v>375.58349609375</v>
+        <v>373.2389526367188</v>
       </c>
       <c r="BU2" t="n">
-        <v>374.3642578125</v>
+        <v>373.3028869628906</v>
       </c>
       <c r="BV2" t="n">
-        <v>373.151611328125</v>
+        <v>373.22705078125</v>
       </c>
       <c r="BW2" t="n">
-        <v>372.6614990234375</v>
+        <v>373.1487731933594</v>
       </c>
       <c r="BX2" t="n">
-        <v>372.5314636230469</v>
+        <v>373.098876953125</v>
       </c>
       <c r="BY2" t="n">
-        <v>373.3362426757812</v>
+        <v>373.0811767578125</v>
       </c>
       <c r="BZ2" t="n">
-        <v>373.8526916503906</v>
+        <v>373.0757446289062</v>
       </c>
       <c r="CA2" t="n">
-        <v>375.38916015625</v>
+        <v>373.0661315917969</v>
       </c>
       <c r="CB2" t="n">
-        <v>377.5621948242188</v>
+        <v>373.0941467285156</v>
       </c>
       <c r="CC2" t="n">
-        <v>381.90283203125</v>
+        <v>373.1357421875</v>
       </c>
       <c r="CD2" t="n">
-        <v>385.1742858886719</v>
+        <v>373.1976928710938</v>
       </c>
       <c r="CE2" t="n">
-        <v>392.4576416015625</v>
+        <v>373.2353210449219</v>
       </c>
       <c r="CF2" t="n">
-        <v>396.1340942382812</v>
+        <v>373.261962890625</v>
       </c>
       <c r="CG2" t="n">
-        <v>399.3359985351562</v>
+        <v>373.2976989746094</v>
       </c>
       <c r="CH2" t="n">
-        <v>405.3287353515625</v>
+        <v>373.3070373535156</v>
       </c>
       <c r="CI2" t="n">
-        <v>409.9276733398438</v>
+        <v>373.3995361328125</v>
       </c>
       <c r="CJ2" t="n">
-        <v>414.5207214355469</v>
+        <v>373.49755859375</v>
       </c>
       <c r="CK2" t="n">
-        <v>417.5648803710938</v>
+        <v>373.5347900390625</v>
       </c>
       <c r="CL2" t="n">
-        <v>420.6925659179688</v>
+        <v>373.5675354003906</v>
       </c>
       <c r="CM2" t="n">
-        <v>424.1398315429688</v>
+        <v>373.5821838378906</v>
       </c>
       <c r="CN2" t="n">
-        <v>428.7349853515625</v>
+        <v>373.59423828125</v>
       </c>
       <c r="CO2" t="n">
-        <v>430.8939208984375</v>
+        <v>373.6073303222656</v>
       </c>
       <c r="CP2" t="n">
-        <v>432.8625183105469</v>
+        <v>373.62451171875</v>
       </c>
       <c r="CQ2" t="n">
-        <v>434.408203125</v>
+        <v>373.6268615722656</v>
       </c>
       <c r="CR2" t="n">
-        <v>435.7879943847656</v>
+        <v>373.6233520507812</v>
       </c>
       <c r="CS2" t="n">
-        <v>436.724365234375</v>
+        <v>373.6252136230469</v>
       </c>
       <c r="CT2" t="n">
-        <v>436.3102722167969</v>
+        <v>373.620361328125</v>
       </c>
       <c r="CU2" t="n">
-        <v>435.989501953125</v>
+        <v>373.6355590820312</v>
       </c>
       <c r="CV2" t="n">
-        <v>434.2916564941406</v>
+        <v>373.6471862792969</v>
       </c>
       <c r="CW2" t="n">
-        <v>430.8523864746094</v>
+        <v>373.6660766601562</v>
       </c>
       <c r="CX2" t="n">
-        <v>425.1025695800781</v>
+        <v>373.66259765625</v>
       </c>
       <c r="CY2" t="n">
-        <v>422.5460205078125</v>
+        <v>373.6610412597656</v>
       </c>
       <c r="CZ2" t="n">
-        <v>417.878662109375</v>
+        <v>373.6560668945312</v>
       </c>
       <c r="DA2" t="n">
-        <v>415.943115234375</v>
+        <v>373.629638671875</v>
       </c>
       <c r="DB2" t="n">
-        <v>413.3021850585938</v>
+        <v>373.5778503417969</v>
       </c>
       <c r="DC2" t="n">
-        <v>408.8582763671875</v>
+        <v>373.3736877441406</v>
       </c>
       <c r="DD2" t="n">
-        <v>404.3622436523438</v>
+        <v>373.083984375</v>
       </c>
       <c r="DE2" t="n">
-        <v>396.4369201660156</v>
+        <v>372.72412109375</v>
       </c>
       <c r="DF2" t="n">
-        <v>390.6884765625</v>
+        <v>372.3320922851562</v>
       </c>
       <c r="DG2" t="n">
-        <v>387.3127746582031</v>
+        <v>372.0784912109375</v>
       </c>
       <c r="DH2" t="n">
-        <v>381.4027709960938</v>
+        <v>371.6263427734375</v>
       </c>
       <c r="DI2" t="n">
-        <v>378.7886047363281</v>
+        <v>370.9699096679688</v>
       </c>
       <c r="DJ2" t="n">
-        <v>375.3235473632812</v>
+        <v>370.6790771484375</v>
       </c>
       <c r="DK2" t="n">
-        <v>372.5820922851562</v>
+        <v>370.3655395507812</v>
       </c>
       <c r="DL2" t="n">
-        <v>371.2289428710938</v>
+        <v>370.3380737304688</v>
       </c>
       <c r="DM2" t="n">
-        <v>369.8786010742188</v>
+        <v>370.2492980957031</v>
       </c>
       <c r="DN2" t="n">
-        <v>368.3382873535156</v>
+        <v>370.0726623535156</v>
       </c>
       <c r="DO2" t="n">
-        <v>366.8101196289062</v>
+        <v>369.9566955566406</v>
       </c>
       <c r="DP2" t="n">
-        <v>366.1149291992188</v>
+        <v>369.8778686523438</v>
       </c>
       <c r="DQ2" t="n">
-        <v>365.3738403320312</v>
+        <v>369.6740417480469</v>
       </c>
       <c r="DR2" t="n">
-        <v>364.9963684082031</v>
+        <v>369.5972290039062</v>
       </c>
       <c r="DS2" t="n">
-        <v>364.7771911621094</v>
+        <v>369.526123046875</v>
       </c>
       <c r="DT2" t="n">
-        <v>364.4143371582031</v>
+        <v>369.1143798828125</v>
       </c>
       <c r="DU2" t="n">
-        <v>364.0126037597656</v>
+        <v>368.906005859375</v>
       </c>
       <c r="DV2" t="n">
-        <v>364.2435302734375</v>
+        <v>368.6615600585938</v>
       </c>
       <c r="DW2" t="n">
-        <v>370.6323547363281</v>
+        <v>368.5279846191406</v>
       </c>
       <c r="DX2" t="n">
-        <v>374.7319946289062</v>
+        <v>368.4095764160156</v>
       </c>
       <c r="DY2" t="n">
-        <v>378.2113037109375</v>
+        <v>368.2955322265625</v>
       </c>
       <c r="DZ2" t="n">
-        <v>384.5608520507812</v>
+        <v>368.3270568847656</v>
       </c>
       <c r="EA2" t="n">
-        <v>388.189453125</v>
+        <v>368.3397827148438</v>
       </c>
       <c r="EB2" t="n">
-        <v>399.6310119628906</v>
+        <v>368.3748779296875</v>
       </c>
       <c r="EC2" t="n">
-        <v>405.7823486328125</v>
+        <v>368.455322265625</v>
       </c>
       <c r="ED2" t="n">
-        <v>412.5314331054688</v>
+        <v>368.4625549316406</v>
       </c>
       <c r="EE2" t="n">
-        <v>423.13134765625</v>
+        <v>368.2769775390625</v>
       </c>
       <c r="EF2" t="n">
-        <v>437.8811340332031</v>
+        <v>367.5155944824219</v>
       </c>
       <c r="EG2" t="n">
-        <v>451.2237854003906</v>
+        <v>366.9429931640625</v>
       </c>
       <c r="EH2" t="n">
-        <v>457.3519287109375</v>
+        <v>366.2723388671875</v>
       </c>
       <c r="EI2" t="n">
-        <v>468.0895385742188</v>
+        <v>366.093505859375</v>
       </c>
       <c r="EJ2" t="n">
-        <v>472.1707763671875</v>
+        <v>366.1123046875</v>
       </c>
       <c r="EK2" t="n">
-        <v>479.6246032714844</v>
+        <v>366.779052734375</v>
       </c>
       <c r="EL2" t="n">
-        <v>482.2887573242188</v>
+        <v>367.4369812011719</v>
       </c>
       <c r="EM2" t="n">
-        <v>485.7149963378906</v>
+        <v>367.4642944335938</v>
       </c>
       <c r="EN2" t="n">
-        <v>487.7250671386719</v>
+        <v>367.3809204101562</v>
       </c>
       <c r="EO2" t="n">
-        <v>489.4871215820312</v>
+        <v>367.1560974121094</v>
       </c>
       <c r="EP2" t="n">
-        <v>491.6157531738281</v>
+        <v>366.9217529296875</v>
       </c>
       <c r="EQ2" t="n">
-        <v>494.4678039550781</v>
+        <v>365.9011840820312</v>
       </c>
       <c r="ER2" t="n">
-        <v>495.0698547363281</v>
+        <v>365.3966674804688</v>
       </c>
       <c r="ES2" t="n">
-        <v>494.1524658203125</v>
+        <v>365.3414306640625</v>
       </c>
       <c r="ET2" t="n">
-        <v>493.6291809082031</v>
+        <v>365.3269958496094</v>
       </c>
       <c r="EU2" t="n">
-        <v>493.7021179199219</v>
+        <v>365.9620666503906</v>
       </c>
       <c r="EV2" t="n">
-        <v>493.48681640625</v>
+        <v>365.8026733398438</v>
       </c>
       <c r="EW2" t="n">
-        <v>492.9570007324219</v>
+        <v>365.7970581054688</v>
       </c>
       <c r="EX2" t="n">
-        <v>492.0060729980469</v>
+        <v>366.2984619140625</v>
       </c>
       <c r="EY2" t="n">
-        <v>492.75146484375</v>
+        <v>366.7568969726562</v>
       </c>
       <c r="EZ2" t="n">
-        <v>492.9766235351562</v>
+        <v>368.433837890625</v>
       </c>
       <c r="FA2" t="n">
-        <v>492.064697265625</v>
+        <v>369.2619018554688</v>
       </c>
       <c r="FB2" t="n">
-        <v>491.1385498046875</v>
+        <v>370.14306640625</v>
       </c>
       <c r="FC2" t="n">
-        <v>490.644775390625</v>
+        <v>372.4414367675781</v>
       </c>
       <c r="FD2" t="n">
-        <v>487.1665649414062</v>
+        <v>374.1784057617188</v>
       </c>
       <c r="FE2" t="n">
-        <v>485.9533081054688</v>
+        <v>375.9945373535156</v>
       </c>
       <c r="FF2" t="n">
-        <v>485.7208862304688</v>
+        <v>379.1788024902344</v>
       </c>
       <c r="FG2" t="n">
-        <v>484.1231689453125</v>
+        <v>380.2217407226562</v>
       </c>
       <c r="FH2" t="n">
-        <v>483.24609375</v>
+        <v>381.95458984375</v>
       </c>
       <c r="FI2" t="n">
-        <v>480.862060546875</v>
+        <v>383.4420166015625</v>
       </c>
       <c r="FJ2" t="n">
-        <v>479.3826293945312</v>
+        <v>387.0452270507812</v>
       </c>
       <c r="FK2" t="n">
-        <v>478.1167907714844</v>
+        <v>389.22607421875</v>
       </c>
       <c r="FL2" t="n">
-        <v>476.3091430664062</v>
+        <v>390.4354553222656</v>
       </c>
       <c r="FM2" t="n">
-        <v>474.4134216308594</v>
+        <v>392.121337890625</v>
       </c>
       <c r="FN2" t="n">
-        <v>473.2905578613281</v>
+        <v>393.15869140625</v>
       </c>
       <c r="FO2" t="n">
-        <v>472.0624389648438</v>
+        <v>393.9257507324219</v>
       </c>
       <c r="FP2" t="n">
-        <v>468.3292236328125</v>
+        <v>393.9710693359375</v>
       </c>
       <c r="FQ2" t="n">
-        <v>464.1204833984375</v>
+        <v>393.7677612304688</v>
       </c>
       <c r="FR2" t="n">
-        <v>459.9297790527344</v>
+        <v>393.608154296875</v>
       </c>
       <c r="FS2" t="n">
-        <v>455.8074951171875</v>
+        <v>393.9176940917969</v>
       </c>
       <c r="FT2" t="n">
-        <v>451.0945129394531</v>
+        <v>394.3042602539062</v>
       </c>
       <c r="FU2" t="n">
-        <v>448.2559204101562</v>
+        <v>392.8732604980469</v>
       </c>
       <c r="FV2" t="n">
-        <v>440.4034118652344</v>
+        <v>391.3482360839844</v>
       </c>
       <c r="FW2" t="n">
-        <v>434.6166381835938</v>
+        <v>386.916259765625</v>
       </c>
       <c r="FX2" t="n">
-        <v>432.3113403320312</v>
+        <v>383.9448547363281</v>
       </c>
       <c r="FY2" t="n">
-        <v>430.4320068359375</v>
+        <v>381.531982421875</v>
       </c>
       <c r="FZ2" t="n">
-        <v>425.4862060546875</v>
+        <v>381.4977416992188</v>
       </c>
       <c r="GA2" t="n">
-        <v>423.8382263183594</v>
+        <v>377.482177734375</v>
       </c>
       <c r="GB2" t="n">
-        <v>420.5601196289062</v>
+        <v>375.7600402832031</v>
       </c>
       <c r="GC2" t="n">
-        <v>419.5899963378906</v>
+        <v>372.9140014648438</v>
       </c>
       <c r="GD2" t="n">
-        <v>418.024169921875</v>
+        <v>371.7736206054688</v>
       </c>
       <c r="GE2" t="n">
-        <v>417.7589416503906</v>
+        <v>369.6924133300781</v>
       </c>
       <c r="GF2" t="n">
-        <v>417.9541320800781</v>
+        <v>368.5381469726562</v>
       </c>
       <c r="GG2" t="n">
-        <v>420.140380859375</v>
+        <v>367.3681030273438</v>
       </c>
       <c r="GH2" t="n">
-        <v>422.25732421875</v>
+        <v>367.4205017089844</v>
       </c>
       <c r="GI2" t="n">
-        <v>422.41845703125</v>
+        <v>368.365234375</v>
       </c>
       <c r="GJ2" t="n">
-        <v>419.7223205566406</v>
+        <v>368.6174926757812</v>
       </c>
       <c r="GK2" t="n">
-        <v>418.0892333984375</v>
+        <v>369.7513122558594</v>
       </c>
       <c r="GL2" t="n">
-        <v>413.601318359375</v>
+        <v>370.9158630371094</v>
       </c>
       <c r="GM2" t="n">
-        <v>408.69970703125</v>
+        <v>371.9255981445312</v>
       </c>
       <c r="GN2" t="n">
-        <v>405.8543701171875</v>
+        <v>372.8482360839844</v>
       </c>
       <c r="GO2" t="n">
-        <v>399.2538146972656</v>
+        <v>374.7322082519531</v>
       </c>
       <c r="GP2" t="n">
-        <v>391.7886352539062</v>
+        <v>375.14697265625</v>
       </c>
       <c r="GQ2" t="n">
-        <v>382.20751953125</v>
+        <v>375.6956787109375</v>
       </c>
       <c r="GR2" t="n">
-        <v>376.5005187988281</v>
+        <v>376.11474609375</v>
       </c>
       <c r="GS2" t="n">
-        <v>372.0205078125</v>
+        <v>375.9776306152344</v>
       </c>
       <c r="GT2" t="n">
-        <v>369.5489807128906</v>
+        <v>375.7482299804688</v>
       </c>
       <c r="GU2" t="n">
-        <v>363.3491821289062</v>
+        <v>374.6515502929688</v>
       </c>
       <c r="GV2" t="n">
-        <v>359.3567504882812</v>
+        <v>373.0352783203125</v>
       </c>
       <c r="GW2" t="n">
-        <v>357.9853820800781</v>
+        <v>367.3471374511719</v>
       </c>
       <c r="GX2" t="n">
-        <v>356.5356140136719</v>
+        <v>357.7392578125</v>
       </c>
       <c r="GY2" t="n">
-        <v>354.2608032226562</v>
+        <v>345.183837890625</v>
       </c>
       <c r="GZ2" t="n">
-        <v>353.8916320800781</v>
+        <v>335.1939086914062</v>
       </c>
       <c r="HA2" t="n">
-        <v>354.1805419921875</v>
+        <v>305.8103942871094</v>
       </c>
       <c r="HB2" t="n">
-        <v>353.890869140625</v>
+        <v>287.7998657226562</v>
       </c>
       <c r="HC2" t="n">
-        <v>353.5733642578125</v>
+        <v>274.332275390625</v>
       </c>
       <c r="HD2" t="n">
-        <v>353.4229736328125</v>
+        <v>255.2328338623047</v>
       </c>
       <c r="HE2" t="n">
-        <v>353.1622924804688</v>
+        <v>244.5045776367188</v>
       </c>
       <c r="HF2" t="n">
-        <v>354.4461364746094</v>
+        <v>233.5946350097656</v>
       </c>
       <c r="HG2" t="n">
-        <v>358.2523193359375</v>
+        <v>220.9771423339844</v>
       </c>
       <c r="HH2" t="n">
-        <v>360.7882385253906</v>
+        <v>218.604736328125</v>
       </c>
       <c r="HI2" t="n">
-        <v>362.1402282714844</v>
+        <v>207.3450469970703</v>
       </c>
       <c r="HJ2" t="n">
-        <v>365.6882019042969</v>
+        <v>204.1752471923828</v>
       </c>
       <c r="HK2" t="n">
-        <v>373.4887084960938</v>
+        <v>205.6070251464844</v>
       </c>
       <c r="HL2" t="n">
-        <v>382.1556396484375</v>
+        <v>206.3291625976562</v>
       </c>
       <c r="HM2" t="n">
-        <v>390.1379089355469</v>
+        <v>208.1101989746094</v>
       </c>
       <c r="HN2" t="n">
-        <v>401.2593078613281</v>
+        <v>220.3971862792969</v>
       </c>
       <c r="HO2" t="n">
-        <v>418.23095703125</v>
+        <v>244.7136535644531</v>
       </c>
       <c r="HP2" t="n">
-        <v>425.9892578125</v>
+        <v>269.7939147949219</v>
       </c>
       <c r="HQ2" t="n">
-        <v>431.0408935546875</v>
+        <v>287.3192749023438</v>
       </c>
       <c r="HR2" t="n">
-        <v>444.33251953125</v>
+        <v>298.2257690429688</v>
       </c>
       <c r="HS2" t="n">
-        <v>450.6533203125</v>
+        <v>298.4729309082031</v>
       </c>
       <c r="HT2" t="n">
-        <v>455.9298095703125</v>
+        <v>301.896484375</v>
       </c>
       <c r="HU2" t="n">
-        <v>459.9720458984375</v>
+        <v>312.8255310058594</v>
       </c>
       <c r="HV2" t="n">
-        <v>463.6297607421875</v>
+        <v>329.2311401367188</v>
       </c>
       <c r="HW2" t="n">
-        <v>465.4380493164062</v>
+        <v>345.0894775390625</v>
       </c>
       <c r="HX2" t="n">
-        <v>467.2998352050781</v>
+        <v>363.7238159179688</v>
       </c>
       <c r="HY2" t="n">
-        <v>468.0394897460938</v>
+        <v>384.1113586425781</v>
       </c>
       <c r="HZ2" t="n">
-        <v>468.6992797851562</v>
+        <v>395.6448059082031</v>
       </c>
       <c r="IA2" t="n">
-        <v>468.5347900390625</v>
+        <v>404.3143310546875</v>
       </c>
       <c r="IB2" t="n">
-        <v>468.1035766601562</v>
+        <v>414.9692077636719</v>
       </c>
       <c r="IC2" t="n">
-        <v>468.0029907226562</v>
+        <v>422.3626403808594</v>
       </c>
       <c r="ID2" t="n">
-        <v>465.720703125</v>
+        <v>427.2969970703125</v>
       </c>
       <c r="IE2" t="n">
-        <v>463.9661254882812</v>
+        <v>430.6852416992188</v>
       </c>
       <c r="IF2" t="n">
-        <v>461.4004211425781</v>
+        <v>432.7367858886719</v>
       </c>
       <c r="IG2" t="n">
-        <v>457.8014526367188</v>
+        <v>432.2279052734375</v>
       </c>
       <c r="IH2" t="n">
-        <v>450.5741882324219</v>
+        <v>432.0171813964844</v>
       </c>
       <c r="II2" t="n">
-        <v>444.200927734375</v>
+        <v>431.510986328125</v>
       </c>
       <c r="IJ2" t="n">
-        <v>436.5494995117188</v>
+        <v>429.0408325195312</v>
       </c>
       <c r="IK2" t="n">
-        <v>423.3052062988281</v>
+        <v>427.0936279296875</v>
       </c>
       <c r="IL2" t="n">
-        <v>418.0928344726562</v>
+        <v>425.0654296875</v>
       </c>
       <c r="IM2" t="n">
-        <v>408.9049682617188</v>
+        <v>421.3252563476562</v>
       </c>
       <c r="IN2" t="n">
-        <v>394.023193359375</v>
+        <v>408.8348999023438</v>
       </c>
       <c r="IO2" t="n">
-        <v>386.90771484375</v>
+        <v>405.3427734375</v>
       </c>
       <c r="IP2" t="n">
-        <v>383.662109375</v>
+        <v>401.368408203125</v>
       </c>
       <c r="IQ2" t="n">
-        <v>374.8840942382812</v>
+        <v>385.183837890625</v>
       </c>
       <c r="IR2" t="n">
-        <v>368.5165100097656</v>
+        <v>380.201904296875</v>
       </c>
       <c r="IS2" t="n">
-        <v>366.1739501953125</v>
+        <v>373.7985534667969</v>
       </c>
       <c r="IT2" t="n">
-        <v>360.351318359375</v>
+        <v>369.6107482910156</v>
       </c>
       <c r="IU2" t="n">
-        <v>357.0219421386719</v>
+        <v>362.7709350585938</v>
       </c>
       <c r="IV2" t="n">
-        <v>355.1007385253906</v>
+        <v>357.5146484375</v>
       </c>
       <c r="IW2" t="n">
-        <v>354.2568359375</v>
+        <v>355.3265686035156</v>
       </c>
       <c r="IX2" t="n">
-        <v>353.1160888671875</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>352.9537658691406</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>352.9388732910156</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>355.4020690917969</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>359.13037109375</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>364.74462890625</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>369.1173095703125</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>376.0006103515625</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>382.6761169433594</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>393.5250549316406</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>401.7774047851562</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>406.9841003417969</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>412.083984375</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>418.3572387695312</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>424.4918823242188</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>428.4558715820312</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>433.0929565429688</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>437.2923583984375</v>
-      </c>
-      <c r="JP2" t="n">
-        <v>439.1022338867188</v>
-      </c>
-      <c r="JQ2" t="n">
-        <v>441.4327392578125</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>443.2875366210938</v>
-      </c>
-      <c r="JS2" t="n">
-        <v>445.403076171875</v>
-      </c>
-      <c r="JT2" t="n">
-        <v>446.68310546875</v>
-      </c>
-      <c r="JU2" t="n">
-        <v>447.7033081054688</v>
-      </c>
-      <c r="JV2" t="n">
-        <v>448.3070373535156</v>
-      </c>
-      <c r="JW2" t="n">
-        <v>448.7908935546875</v>
-      </c>
-      <c r="JX2" t="n">
-        <v>449.2320251464844</v>
-      </c>
-      <c r="JY2" t="n">
-        <v>449.72314453125</v>
-      </c>
-      <c r="JZ2" t="n">
-        <v>450.0570983886719</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>450.2667846679688</v>
-      </c>
-      <c r="KB2" t="n">
-        <v>450.457763671875</v>
-      </c>
-      <c r="KC2" t="n">
-        <v>450.645263671875</v>
-      </c>
-      <c r="KD2" t="n">
-        <v>450.6595458984375</v>
-      </c>
-      <c r="KE2" t="n">
-        <v>450.3515319824219</v>
-      </c>
-      <c r="KF2" t="n">
-        <v>449.8669738769531</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>449.2584533691406</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>448.663818359375</v>
-      </c>
-      <c r="KI2" t="n">
-        <v>447.8157958984375</v>
-      </c>
-      <c r="KJ2" t="n">
-        <v>446.7984619140625</v>
-      </c>
-      <c r="KK2" t="n">
-        <v>446.2567749023438</v>
-      </c>
-      <c r="KL2" t="n">
-        <v>445.48828125</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>445.3291625976562</v>
-      </c>
-      <c r="KN2" t="n">
-        <v>445.6373596191406</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>445.8486328125</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>446.2212829589844</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>447.4822998046875</v>
-      </c>
-      <c r="KR2" t="n">
-        <v>448.2065124511719</v>
-      </c>
-      <c r="KS2" t="n">
-        <v>449.1984558105469</v>
-      </c>
-      <c r="KT2" t="n">
-        <v>449.6031188964844</v>
-      </c>
-      <c r="KU2" t="n">
-        <v>449.6883544921875</v>
-      </c>
-      <c r="KV2" t="n">
-        <v>449.5596313476562</v>
-      </c>
-      <c r="KW2" t="n">
-        <v>449.922607421875</v>
-      </c>
-      <c r="KX2" t="n">
-        <v>450.4181213378906</v>
-      </c>
-      <c r="KY2" t="n">
-        <v>450.8056335449219</v>
-      </c>
-      <c r="KZ2" t="n">
-        <v>451.1602172851562</v>
-      </c>
-      <c r="LA2" t="n">
-        <v>452.8281860351562</v>
-      </c>
-      <c r="LB2" t="n">
-        <v>454.4617919921875</v>
-      </c>
-      <c r="LC2" t="n">
-        <v>455.7193298339844</v>
-      </c>
-      <c r="LD2" t="n">
-        <v>457.0927734375</v>
-      </c>
-      <c r="LE2" t="n">
-        <v>458.5863952636719</v>
-      </c>
-      <c r="LF2" t="n">
-        <v>458.9091491699219</v>
-      </c>
-      <c r="LG2" t="n">
-        <v>459.9627380371094</v>
-      </c>
-      <c r="LH2" t="n">
-        <v>462.6297302246094</v>
-      </c>
-      <c r="LI2" t="n">
-        <v>468.243408203125</v>
-      </c>
-      <c r="LJ2" t="n">
-        <v>474.6576232910156</v>
-      </c>
-      <c r="LK2" t="n">
-        <v>481.6656799316406</v>
-      </c>
-      <c r="LL2" t="n">
-        <v>486.5633544921875</v>
-      </c>
-      <c r="LM2" t="n">
-        <v>491.8209228515625</v>
-      </c>
-      <c r="LN2" t="n">
-        <v>498.2521057128906</v>
-      </c>
-      <c r="LO2" t="n">
-        <v>501.9817504882812</v>
-      </c>
-      <c r="LP2" t="n">
-        <v>512.8466796875</v>
-      </c>
-      <c r="LQ2" t="n">
-        <v>525.3987426757812</v>
-      </c>
-      <c r="LR2" t="n">
-        <v>534.3724975585938</v>
-      </c>
-      <c r="LS2" t="n">
-        <v>543.02392578125</v>
-      </c>
-      <c r="LT2" t="n">
-        <v>560.0286254882812</v>
-      </c>
-      <c r="LU2" t="n">
-        <v>564.2786865234375</v>
-      </c>
-      <c r="LV2" t="n">
-        <v>565.0069580078125</v>
-      </c>
-      <c r="LW2" t="n">
-        <v>562.9931640625</v>
-      </c>
-      <c r="LX2" t="n">
-        <v>559.552490234375</v>
-      </c>
-      <c r="LY2" t="n">
-        <v>550.739501953125</v>
-      </c>
-      <c r="LZ2" t="n">
-        <v>543.2416381835938</v>
-      </c>
-      <c r="MA2" t="n">
-        <v>521.2847290039062</v>
-      </c>
-      <c r="MB2" t="n">
-        <v>499.2118835449219</v>
-      </c>
-      <c r="MC2" t="n">
-        <v>478.8772583007812</v>
-      </c>
-      <c r="MD2" t="n">
-        <v>453.5811157226562</v>
-      </c>
-      <c r="ME2" t="n">
-        <v>422.1990661621094</v>
-      </c>
-      <c r="MF2" t="n">
-        <v>408.086669921875</v>
-      </c>
-      <c r="MG2" t="n">
-        <v>399.0665283203125</v>
-      </c>
-      <c r="MH2" t="n">
-        <v>401.2325439453125</v>
-      </c>
-      <c r="MI2" t="n">
-        <v>407.650146484375</v>
-      </c>
-      <c r="MJ2" t="n">
-        <v>433.1741333007812</v>
-      </c>
-      <c r="MK2" t="n">
-        <v>449.9019165039062</v>
-      </c>
-      <c r="ML2" t="n">
-        <v>452.2045288085938</v>
-      </c>
-      <c r="MM2" t="n">
-        <v>458.0375366210938</v>
-      </c>
-      <c r="MN2" t="n">
-        <v>467.2619323730469</v>
-      </c>
-      <c r="MO2" t="n">
-        <v>469.8873291015625</v>
-      </c>
-      <c r="MP2" t="n">
-        <v>471.2567443847656</v>
-      </c>
-      <c r="MQ2" t="n">
-        <v>472.3717956542969</v>
-      </c>
-      <c r="MR2" t="n">
-        <v>471.2081604003906</v>
-      </c>
-      <c r="MS2" t="n">
-        <v>472.0408325195312</v>
-      </c>
-      <c r="MT2" t="n">
-        <v>471.5345764160156</v>
-      </c>
-      <c r="MU2" t="n">
-        <v>481.3402709960938</v>
-      </c>
-      <c r="MV2" t="n">
-        <v>470.1797485351562</v>
-      </c>
-      <c r="MW2" t="n">
-        <v>436.6653442382812</v>
-      </c>
-      <c r="MX2" t="n">
-        <v>453.0858154296875</v>
-      </c>
-      <c r="MY2" t="n">
-        <v>448.3748168945312</v>
-      </c>
-      <c r="MZ2" t="n">
-        <v>447.43310546875</v>
-      </c>
-      <c r="NA2" t="n">
-        <v>446.3772583007812</v>
-      </c>
-      <c r="NB2" t="n">
-        <v>445.6606750488281</v>
-      </c>
-      <c r="NC2" t="n">
-        <v>443.5647583007812</v>
-      </c>
-      <c r="ND2" t="n">
-        <v>443.4525756835938</v>
-      </c>
-      <c r="NE2" t="n">
-        <v>447.3812561035156</v>
-      </c>
-      <c r="NF2" t="n">
-        <v>454.4989624023438</v>
-      </c>
-      <c r="NG2" t="n">
-        <v>458.5675659179688</v>
-      </c>
-      <c r="NH2" t="n">
-        <v>456.5325622558594</v>
-      </c>
-      <c r="NI2" t="n">
-        <v>453.7454223632812</v>
-      </c>
-      <c r="NJ2" t="n">
-        <v>451.927978515625</v>
-      </c>
-      <c r="NK2" t="n">
-        <v>452.0742797851562</v>
-      </c>
-      <c r="NL2" t="n">
-        <v>452.7650451660156</v>
-      </c>
-      <c r="NM2" t="n">
-        <v>454.3682556152344</v>
+        <v>354.4024353027344</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>175.2320556640625</v>
+        <v>182.1921234130859</v>
       </c>
       <c r="B3" t="n">
-        <v>167.9860687255859</v>
+        <v>178.1213226318359</v>
       </c>
       <c r="C3" t="n">
-        <v>169.7744598388672</v>
+        <v>178.8939361572266</v>
       </c>
       <c r="D3" t="n">
-        <v>170.0451354980469</v>
+        <v>179.5386962890625</v>
       </c>
       <c r="E3" t="n">
-        <v>171.2303771972656</v>
+        <v>181.7383270263672</v>
       </c>
       <c r="F3" t="n">
-        <v>172.9415130615234</v>
+        <v>184.2369232177734</v>
       </c>
       <c r="G3" t="n">
-        <v>176.7101745605469</v>
+        <v>190.4271850585938</v>
       </c>
       <c r="H3" t="n">
-        <v>178.274169921875</v>
+        <v>192.7540740966797</v>
       </c>
       <c r="I3" t="n">
-        <v>179.6484222412109</v>
+        <v>199.6613159179688</v>
       </c>
       <c r="J3" t="n">
-        <v>179.9349517822266</v>
+        <v>201.3126220703125</v>
       </c>
       <c r="K3" t="n">
-        <v>179.3425750732422</v>
+        <v>207.8586883544922</v>
       </c>
       <c r="L3" t="n">
-        <v>180.5935974121094</v>
+        <v>212.4904479980469</v>
       </c>
       <c r="M3" t="n">
-        <v>187.5785827636719</v>
+        <v>216.4403076171875</v>
       </c>
       <c r="N3" t="n">
-        <v>186.7419586181641</v>
+        <v>217.8916473388672</v>
       </c>
       <c r="O3" t="n">
-        <v>193.7298583984375</v>
+        <v>238.8037109375</v>
       </c>
       <c r="P3" t="n">
-        <v>194.0973205566406</v>
+        <v>239.3367309570312</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.8573455810547</v>
+        <v>240.5230255126953</v>
       </c>
       <c r="R3" t="n">
-        <v>194.0083770751953</v>
+        <v>243.8622131347656</v>
       </c>
       <c r="S3" t="n">
-        <v>196.1733245849609</v>
+        <v>244.4804534912109</v>
       </c>
       <c r="T3" t="n">
-        <v>197.2747192382812</v>
+        <v>247.4124450683594</v>
       </c>
       <c r="U3" t="n">
-        <v>198.3745269775391</v>
+        <v>247.6049652099609</v>
       </c>
       <c r="V3" t="n">
-        <v>201.5344696044922</v>
+        <v>249.1401672363281</v>
       </c>
       <c r="W3" t="n">
-        <v>202.1916046142578</v>
+        <v>251.3969116210938</v>
       </c>
       <c r="X3" t="n">
-        <v>204.7023468017578</v>
+        <v>252.7255096435547</v>
       </c>
       <c r="Y3" t="n">
-        <v>211.1518249511719</v>
+        <v>254.6944427490234</v>
       </c>
       <c r="Z3" t="n">
-        <v>214.676025390625</v>
+        <v>255.3586883544922</v>
       </c>
       <c r="AA3" t="n">
-        <v>216.8675079345703</v>
+        <v>255.9496917724609</v>
       </c>
       <c r="AB3" t="n">
-        <v>216.4236602783203</v>
+        <v>256.2824401855469</v>
       </c>
       <c r="AC3" t="n">
-        <v>218.1971130371094</v>
+        <v>257.0739135742188</v>
       </c>
       <c r="AD3" t="n">
-        <v>219.9929351806641</v>
+        <v>259.8574523925781</v>
       </c>
       <c r="AE3" t="n">
-        <v>219.4969329833984</v>
+        <v>260.4600830078125</v>
       </c>
       <c r="AF3" t="n">
-        <v>219.5942535400391</v>
+        <v>261.10205078125</v>
       </c>
       <c r="AG3" t="n">
-        <v>219.2967071533203</v>
+        <v>261.7348937988281</v>
       </c>
       <c r="AH3" t="n">
-        <v>218.5323181152344</v>
+        <v>261.2702941894531</v>
       </c>
       <c r="AI3" t="n">
-        <v>217.3387908935547</v>
+        <v>261.0015563964844</v>
       </c>
       <c r="AJ3" t="n">
-        <v>214.6662139892578</v>
+        <v>260.9752807617188</v>
       </c>
       <c r="AK3" t="n">
-        <v>214.5809173583984</v>
+        <v>261.0492858886719</v>
       </c>
       <c r="AL3" t="n">
-        <v>214.8108367919922</v>
+        <v>261.460205078125</v>
       </c>
       <c r="AM3" t="n">
-        <v>214.9597930908203</v>
+        <v>262.0601196289062</v>
       </c>
       <c r="AN3" t="n">
-        <v>214.5694274902344</v>
+        <v>262.9522705078125</v>
       </c>
       <c r="AO3" t="n">
-        <v>214.2899780273438</v>
+        <v>263.2812194824219</v>
       </c>
       <c r="AP3" t="n">
-        <v>214.0318298339844</v>
+        <v>263.5786743164062</v>
       </c>
       <c r="AQ3" t="n">
-        <v>213.7447052001953</v>
+        <v>263.7786254882812</v>
       </c>
       <c r="AR3" t="n">
-        <v>213.9558868408203</v>
+        <v>263.7828674316406</v>
       </c>
       <c r="AS3" t="n">
-        <v>214.3485717773438</v>
+        <v>263.9440002441406</v>
       </c>
       <c r="AT3" t="n">
-        <v>214.7396545410156</v>
+        <v>264.1412048339844</v>
       </c>
       <c r="AU3" t="n">
-        <v>214.1027069091797</v>
+        <v>264.3266906738281</v>
       </c>
       <c r="AV3" t="n">
-        <v>213.7904663085938</v>
+        <v>264.6546325683594</v>
       </c>
       <c r="AW3" t="n">
-        <v>213.4585723876953</v>
+        <v>265.3245849609375</v>
       </c>
       <c r="AX3" t="n">
-        <v>213.3237609863281</v>
+        <v>266.2005004882812</v>
       </c>
       <c r="AY3" t="n">
-        <v>213.2284240722656</v>
+        <v>267.1886901855469</v>
       </c>
       <c r="AZ3" t="n">
-        <v>213.0142059326172</v>
+        <v>267.6745910644531</v>
       </c>
       <c r="BA3" t="n">
-        <v>212.4523620605469</v>
+        <v>267.566162109375</v>
       </c>
       <c r="BB3" t="n">
-        <v>212.3283081054688</v>
+        <v>266.9232177734375</v>
       </c>
       <c r="BC3" t="n">
-        <v>211.7898101806641</v>
+        <v>266.1159973144531</v>
       </c>
       <c r="BD3" t="n">
-        <v>210.4674835205078</v>
+        <v>265.3443908691406</v>
       </c>
       <c r="BE3" t="n">
-        <v>209.6647644042969</v>
+        <v>265.1092224121094</v>
       </c>
       <c r="BF3" t="n">
-        <v>208.9104919433594</v>
+        <v>265.0343933105469</v>
       </c>
       <c r="BG3" t="n">
-        <v>208.0265350341797</v>
+        <v>265.2088623046875</v>
       </c>
       <c r="BH3" t="n">
-        <v>207.1887054443359</v>
+        <v>265.4076538085938</v>
       </c>
       <c r="BI3" t="n">
-        <v>205.9619445800781</v>
+        <v>265.4013061523438</v>
       </c>
       <c r="BJ3" t="n">
-        <v>204.1933135986328</v>
+        <v>265.2027893066406</v>
       </c>
       <c r="BK3" t="n">
-        <v>203.5641937255859</v>
+        <v>264.9195861816406</v>
       </c>
       <c r="BL3" t="n">
-        <v>202.7082366943359</v>
+        <v>264.7254943847656</v>
       </c>
       <c r="BM3" t="n">
-        <v>202.9830169677734</v>
+        <v>264.998046875</v>
       </c>
       <c r="BN3" t="n">
-        <v>202.9698486328125</v>
+        <v>265.2075500488281</v>
       </c>
       <c r="BO3" t="n">
-        <v>201.7864532470703</v>
+        <v>265.2677307128906</v>
       </c>
       <c r="BP3" t="n">
-        <v>201.0749053955078</v>
+        <v>265.3036804199219</v>
       </c>
       <c r="BQ3" t="n">
-        <v>199.793701171875</v>
+        <v>265.1814575195312</v>
       </c>
       <c r="BR3" t="n">
-        <v>199.5393676757812</v>
+        <v>264.9237976074219</v>
       </c>
       <c r="BS3" t="n">
-        <v>198.8276214599609</v>
+        <v>264.8537292480469</v>
       </c>
       <c r="BT3" t="n">
-        <v>198.5440216064453</v>
+        <v>264.6768798828125</v>
       </c>
       <c r="BU3" t="n">
-        <v>198.0824432373047</v>
+        <v>264.6636047363281</v>
       </c>
       <c r="BV3" t="n">
-        <v>197.7232055664062</v>
+        <v>264.7989501953125</v>
       </c>
       <c r="BW3" t="n">
-        <v>196.9176483154297</v>
+        <v>264.9089050292969</v>
       </c>
       <c r="BX3" t="n">
-        <v>196.0462951660156</v>
+        <v>264.9188232421875</v>
       </c>
       <c r="BY3" t="n">
-        <v>193.0080261230469</v>
+        <v>264.8642272949219</v>
       </c>
       <c r="BZ3" t="n">
-        <v>191.6351776123047</v>
+        <v>264.7927551269531</v>
       </c>
       <c r="CA3" t="n">
-        <v>190.9190216064453</v>
+        <v>264.7440795898438</v>
       </c>
       <c r="CB3" t="n">
-        <v>191.1045684814453</v>
+        <v>264.724853515625</v>
       </c>
       <c r="CC3" t="n">
-        <v>190.9690856933594</v>
+        <v>264.7177734375</v>
       </c>
       <c r="CD3" t="n">
-        <v>191.6876373291016</v>
+        <v>264.7173156738281</v>
       </c>
       <c r="CE3" t="n">
-        <v>190.8347015380859</v>
+        <v>264.7599792480469</v>
       </c>
       <c r="CF3" t="n">
-        <v>190.45556640625</v>
+        <v>264.7388305664062</v>
       </c>
       <c r="CG3" t="n">
-        <v>190.4744262695312</v>
+        <v>264.7467956542969</v>
       </c>
       <c r="CH3" t="n">
-        <v>189.5201568603516</v>
+        <v>264.8297119140625</v>
       </c>
       <c r="CI3" t="n">
-        <v>190.6313323974609</v>
+        <v>264.8662414550781</v>
       </c>
       <c r="CJ3" t="n">
-        <v>190.0475463867188</v>
+        <v>264.8453979492188</v>
       </c>
       <c r="CK3" t="n">
-        <v>190.0924682617188</v>
+        <v>264.863037109375</v>
       </c>
       <c r="CL3" t="n">
-        <v>189.6169281005859</v>
+        <v>264.8772277832031</v>
       </c>
       <c r="CM3" t="n">
-        <v>189.4042205810547</v>
+        <v>264.9340209960938</v>
       </c>
       <c r="CN3" t="n">
-        <v>189.80224609375</v>
+        <v>264.99609375</v>
       </c>
       <c r="CO3" t="n">
-        <v>189.5614166259766</v>
+        <v>265.0604248046875</v>
       </c>
       <c r="CP3" t="n">
-        <v>189.3881225585938</v>
+        <v>265.1252746582031</v>
       </c>
       <c r="CQ3" t="n">
-        <v>189.6847991943359</v>
+        <v>265.1815185546875</v>
       </c>
       <c r="CR3" t="n">
-        <v>189.6207427978516</v>
+        <v>265.2381286621094</v>
       </c>
       <c r="CS3" t="n">
-        <v>189.9939422607422</v>
+        <v>265.2825622558594</v>
       </c>
       <c r="CT3" t="n">
-        <v>190.8511657714844</v>
+        <v>265.3348999023438</v>
       </c>
       <c r="CU3" t="n">
-        <v>191.3209381103516</v>
+        <v>265.3289184570312</v>
       </c>
       <c r="CV3" t="n">
-        <v>192.2233428955078</v>
+        <v>265.3245544433594</v>
       </c>
       <c r="CW3" t="n">
-        <v>192.3101043701172</v>
+        <v>265.3003540039062</v>
       </c>
       <c r="CX3" t="n">
-        <v>192.7581787109375</v>
+        <v>265.3099975585938</v>
       </c>
       <c r="CY3" t="n">
-        <v>193.2782440185547</v>
+        <v>265.3067321777344</v>
       </c>
       <c r="CZ3" t="n">
-        <v>193.878173828125</v>
+        <v>265.3106384277344</v>
       </c>
       <c r="DA3" t="n">
-        <v>193.1118774414062</v>
+        <v>265.3690795898438</v>
       </c>
       <c r="DB3" t="n">
-        <v>192.603515625</v>
+        <v>265.5359802246094</v>
       </c>
       <c r="DC3" t="n">
-        <v>192.4222869873047</v>
+        <v>265.9972839355469</v>
       </c>
       <c r="DD3" t="n">
-        <v>191.7828216552734</v>
+        <v>266.4041137695312</v>
       </c>
       <c r="DE3" t="n">
-        <v>191.8801422119141</v>
+        <v>266.879638671875</v>
       </c>
       <c r="DF3" t="n">
-        <v>191.8570251464844</v>
+        <v>267.7377319335938</v>
       </c>
       <c r="DG3" t="n">
-        <v>192.33935546875</v>
+        <v>268.2926025390625</v>
       </c>
       <c r="DH3" t="n">
-        <v>192.3599090576172</v>
+        <v>269.0896606445312</v>
       </c>
       <c r="DI3" t="n">
-        <v>192.2657318115234</v>
+        <v>270.3221435546875</v>
       </c>
       <c r="DJ3" t="n">
-        <v>192.2340240478516</v>
+        <v>270.8384094238281</v>
       </c>
       <c r="DK3" t="n">
-        <v>191.9119873046875</v>
+        <v>271.091064453125</v>
       </c>
       <c r="DL3" t="n">
-        <v>192.0885925292969</v>
+        <v>270.9949645996094</v>
       </c>
       <c r="DM3" t="n">
-        <v>192.36279296875</v>
+        <v>270.9359741210938</v>
       </c>
       <c r="DN3" t="n">
-        <v>192.7424011230469</v>
+        <v>270.8228149414062</v>
       </c>
       <c r="DO3" t="n">
-        <v>192.9445495605469</v>
+        <v>270.6729736328125</v>
       </c>
       <c r="DP3" t="n">
-        <v>192.6149139404297</v>
+        <v>270.5738220214844</v>
       </c>
       <c r="DQ3" t="n">
-        <v>192.579345703125</v>
+        <v>270.3917846679688</v>
       </c>
       <c r="DR3" t="n">
-        <v>192.6867065429688</v>
+        <v>270.2789611816406</v>
       </c>
       <c r="DS3" t="n">
-        <v>192.8659362792969</v>
+        <v>270.1631469726562</v>
       </c>
       <c r="DT3" t="n">
-        <v>193.6880493164062</v>
+        <v>270.1214904785156</v>
       </c>
       <c r="DU3" t="n">
-        <v>194.5825805664062</v>
+        <v>270.1620788574219</v>
       </c>
       <c r="DV3" t="n">
-        <v>194.8313903808594</v>
+        <v>269.9228210449219</v>
       </c>
       <c r="DW3" t="n">
-        <v>195.9992065429688</v>
+        <v>269.8511047363281</v>
       </c>
       <c r="DX3" t="n">
-        <v>197.6129302978516</v>
+        <v>269.7734069824219</v>
       </c>
       <c r="DY3" t="n">
-        <v>198.4948577880859</v>
+        <v>269.674072265625</v>
       </c>
       <c r="DZ3" t="n">
-        <v>201.2719573974609</v>
+        <v>269.6239624023438</v>
       </c>
       <c r="EA3" t="n">
-        <v>201.91552734375</v>
+        <v>269.6297607421875</v>
       </c>
       <c r="EB3" t="n">
-        <v>203.9648742675781</v>
+        <v>269.6465148925781</v>
       </c>
       <c r="EC3" t="n">
-        <v>207.8907318115234</v>
+        <v>269.6856384277344</v>
       </c>
       <c r="ED3" t="n">
-        <v>209.8810577392578</v>
+        <v>269.6734619140625</v>
       </c>
       <c r="EE3" t="n">
-        <v>212.4317932128906</v>
+        <v>269.5615234375</v>
       </c>
       <c r="EF3" t="n">
-        <v>216.8466033935547</v>
+        <v>269.136474609375</v>
       </c>
       <c r="EG3" t="n">
-        <v>220.2369384765625</v>
+        <v>268.8330078125</v>
       </c>
       <c r="EH3" t="n">
-        <v>221.5676727294922</v>
+        <v>268.4971618652344</v>
       </c>
       <c r="EI3" t="n">
-        <v>222.1739501953125</v>
+        <v>268.410400390625</v>
       </c>
       <c r="EJ3" t="n">
-        <v>223.2189483642578</v>
+        <v>268.3874816894531</v>
       </c>
       <c r="EK3" t="n">
-        <v>222.4958343505859</v>
+        <v>267.3775939941406</v>
       </c>
       <c r="EL3" t="n">
-        <v>221.6892242431641</v>
+        <v>266.4013366699219</v>
       </c>
       <c r="EM3" t="n">
-        <v>220.9866790771484</v>
+        <v>266.6461791992188</v>
       </c>
       <c r="EN3" t="n">
-        <v>220.1310882568359</v>
+        <v>266.8004760742188</v>
       </c>
       <c r="EO3" t="n">
-        <v>221.6821594238281</v>
+        <v>267.0023193359375</v>
       </c>
       <c r="EP3" t="n">
-        <v>222.6756286621094</v>
+        <v>267.1829528808594</v>
       </c>
       <c r="EQ3" t="n">
-        <v>227.9154510498047</v>
+        <v>268.0669250488281</v>
       </c>
       <c r="ER3" t="n">
-        <v>229.1595458984375</v>
+        <v>267.8854675292969</v>
       </c>
       <c r="ES3" t="n">
-        <v>232.7760467529297</v>
+        <v>267.7538452148438</v>
       </c>
       <c r="ET3" t="n">
-        <v>237.4256439208984</v>
+        <v>267.5967407226562</v>
       </c>
       <c r="EU3" t="n">
-        <v>238.9884490966797</v>
+        <v>265.8605346679688</v>
       </c>
       <c r="EV3" t="n">
-        <v>239.6597290039062</v>
+        <v>265.5994262695312</v>
       </c>
       <c r="EW3" t="n">
-        <v>238.9588775634766</v>
+        <v>265.4708557128906</v>
       </c>
       <c r="EX3" t="n">
-        <v>242.339111328125</v>
+        <v>264.6477966308594</v>
       </c>
       <c r="EY3" t="n">
-        <v>242.5815277099609</v>
+        <v>264.3663635253906</v>
       </c>
       <c r="EZ3" t="n">
-        <v>243.3974304199219</v>
+        <v>263.1432495117188</v>
       </c>
       <c r="FA3" t="n">
-        <v>246.2397766113281</v>
+        <v>262.9208068847656</v>
       </c>
       <c r="FB3" t="n">
-        <v>248.7674865722656</v>
+        <v>262.724609375</v>
       </c>
       <c r="FC3" t="n">
-        <v>250.7222595214844</v>
+        <v>262.3292846679688</v>
       </c>
       <c r="FD3" t="n">
-        <v>251.8268737792969</v>
+        <v>262.1153259277344</v>
       </c>
       <c r="FE3" t="n">
-        <v>252.8910217285156</v>
+        <v>260.4432373046875</v>
       </c>
       <c r="FF3" t="n">
-        <v>254.1066436767578</v>
+        <v>258.7131652832031</v>
       </c>
       <c r="FG3" t="n">
-        <v>256.8307189941406</v>
+        <v>257.1331176757812</v>
       </c>
       <c r="FH3" t="n">
-        <v>257.3647155761719</v>
+        <v>255.3336181640625</v>
       </c>
       <c r="FI3" t="n">
-        <v>259.2327270507812</v>
+        <v>254.3993225097656</v>
       </c>
       <c r="FJ3" t="n">
-        <v>261.8939208984375</v>
+        <v>252.7546081542969</v>
       </c>
       <c r="FK3" t="n">
-        <v>264.078857421875</v>
+        <v>252.4991455078125</v>
       </c>
       <c r="FL3" t="n">
-        <v>265.9098815917969</v>
+        <v>252.4570007324219</v>
       </c>
       <c r="FM3" t="n">
-        <v>265.968505859375</v>
+        <v>250.9636077880859</v>
       </c>
       <c r="FN3" t="n">
-        <v>265.6520080566406</v>
+        <v>249.9020233154297</v>
       </c>
       <c r="FO3" t="n">
-        <v>265.2943420410156</v>
+        <v>248.0651397705078</v>
       </c>
       <c r="FP3" t="n">
-        <v>264.5512390136719</v>
+        <v>247.4168090820312</v>
       </c>
       <c r="FQ3" t="n">
-        <v>264.35009765625</v>
+        <v>246.94287109375</v>
       </c>
       <c r="FR3" t="n">
-        <v>264.0771484375</v>
+        <v>245.4101409912109</v>
       </c>
       <c r="FS3" t="n">
-        <v>264.509033203125</v>
+        <v>244.3266448974609</v>
       </c>
       <c r="FT3" t="n">
-        <v>264.2798156738281</v>
+        <v>242.3183135986328</v>
       </c>
       <c r="FU3" t="n">
-        <v>264.5727844238281</v>
+        <v>241.5289916992188</v>
       </c>
       <c r="FV3" t="n">
-        <v>266.1225280761719</v>
+        <v>239.1203155517578</v>
       </c>
       <c r="FW3" t="n">
-        <v>267.2441711425781</v>
+        <v>232.384521484375</v>
       </c>
       <c r="FX3" t="n">
-        <v>266.8048095703125</v>
+        <v>230.3831176757812</v>
       </c>
       <c r="FY3" t="n">
-        <v>266.6768188476562</v>
+        <v>227.4717864990234</v>
       </c>
       <c r="FZ3" t="n">
-        <v>266.6121520996094</v>
+        <v>224.4116668701172</v>
       </c>
       <c r="GA3" t="n">
-        <v>266.2662353515625</v>
+        <v>222.844970703125</v>
       </c>
       <c r="GB3" t="n">
-        <v>266.5203857421875</v>
+        <v>221.7813873291016</v>
       </c>
       <c r="GC3" t="n">
-        <v>265.7773742675781</v>
+        <v>220.5422973632812</v>
       </c>
       <c r="GD3" t="n">
-        <v>264.8750915527344</v>
+        <v>218.5970001220703</v>
       </c>
       <c r="GE3" t="n">
-        <v>264.7566833496094</v>
+        <v>215.1190948486328</v>
       </c>
       <c r="GF3" t="n">
-        <v>264.7409362792969</v>
+        <v>213.276123046875</v>
       </c>
       <c r="GG3" t="n">
-        <v>265.280517578125</v>
+        <v>212.9053649902344</v>
       </c>
       <c r="GH3" t="n">
-        <v>265.8096008300781</v>
+        <v>210.8585205078125</v>
       </c>
       <c r="GI3" t="n">
-        <v>266.4573059082031</v>
+        <v>208.32958984375</v>
       </c>
       <c r="GJ3" t="n">
-        <v>266.8120422363281</v>
+        <v>207.2212829589844</v>
       </c>
       <c r="GK3" t="n">
-        <v>266.5113525390625</v>
+        <v>205.6180725097656</v>
       </c>
       <c r="GL3" t="n">
-        <v>265.8770141601562</v>
+        <v>203.6230621337891</v>
       </c>
       <c r="GM3" t="n">
-        <v>266.2189025878906</v>
+        <v>200.1525115966797</v>
       </c>
       <c r="GN3" t="n">
-        <v>266.273193359375</v>
+        <v>198.2733154296875</v>
       </c>
       <c r="GO3" t="n">
-        <v>266.0649108886719</v>
+        <v>189.6127014160156</v>
       </c>
       <c r="GP3" t="n">
-        <v>266.5743408203125</v>
+        <v>183.9827423095703</v>
       </c>
       <c r="GQ3" t="n">
-        <v>265.4661560058594</v>
+        <v>181.3460998535156</v>
       </c>
       <c r="GR3" t="n">
-        <v>265.7479248046875</v>
+        <v>178.3540191650391</v>
       </c>
       <c r="GS3" t="n">
-        <v>263.8982238769531</v>
+        <v>177.7734222412109</v>
       </c>
       <c r="GT3" t="n">
-        <v>262.9447631835938</v>
+        <v>177.2546234130859</v>
       </c>
       <c r="GU3" t="n">
-        <v>262.4464721679688</v>
+        <v>177.5753326416016</v>
       </c>
       <c r="GV3" t="n">
-        <v>261.3950500488281</v>
+        <v>177.4644470214844</v>
       </c>
       <c r="GW3" t="n">
-        <v>261.2500610351562</v>
+        <v>177.4188690185547</v>
       </c>
       <c r="GX3" t="n">
-        <v>259.8258972167969</v>
+        <v>175.4850769042969</v>
       </c>
       <c r="GY3" t="n">
-        <v>260.8843994140625</v>
+        <v>174.0743408203125</v>
       </c>
       <c r="GZ3" t="n">
-        <v>260.2533569335938</v>
+        <v>172.8432006835938</v>
       </c>
       <c r="HA3" t="n">
-        <v>259.2683410644531</v>
+        <v>185.1571960449219</v>
       </c>
       <c r="HB3" t="n">
-        <v>259.3521728515625</v>
+        <v>188.4687347412109</v>
       </c>
       <c r="HC3" t="n">
-        <v>259.2078552246094</v>
+        <v>189.6269836425781</v>
       </c>
       <c r="HD3" t="n">
-        <v>259.1452026367188</v>
+        <v>201.2409515380859</v>
       </c>
       <c r="HE3" t="n">
-        <v>258.9407043457031</v>
+        <v>203.3109893798828</v>
       </c>
       <c r="HF3" t="n">
-        <v>258.9131774902344</v>
+        <v>202.3709411621094</v>
       </c>
       <c r="HG3" t="n">
-        <v>260.0012817382812</v>
+        <v>206.2310485839844</v>
       </c>
       <c r="HH3" t="n">
-        <v>259.2285461425781</v>
+        <v>209.7658538818359</v>
       </c>
       <c r="HI3" t="n">
-        <v>259.0617065429688</v>
+        <v>226.1316375732422</v>
       </c>
       <c r="HJ3" t="n">
-        <v>259.7160339355469</v>
+        <v>233.1664581298828</v>
       </c>
       <c r="HK3" t="n">
-        <v>261.0736694335938</v>
+        <v>226.8482055664062</v>
       </c>
       <c r="HL3" t="n">
-        <v>262.5435485839844</v>
+        <v>219.1190185546875</v>
       </c>
       <c r="HM3" t="n">
-        <v>263.6544494628906</v>
+        <v>215.1239013671875</v>
       </c>
       <c r="HN3" t="n">
-        <v>264.3406372070312</v>
+        <v>212.0062866210938</v>
       </c>
       <c r="HO3" t="n">
-        <v>263.4151000976562</v>
+        <v>210.8883972167969</v>
       </c>
       <c r="HP3" t="n">
-        <v>262.8518676757812</v>
+        <v>212.7032623291016</v>
       </c>
       <c r="HQ3" t="n">
-        <v>262.3425598144531</v>
+        <v>212.0577239990234</v>
       </c>
       <c r="HR3" t="n">
-        <v>261.140380859375</v>
+        <v>215.9515228271484</v>
       </c>
       <c r="HS3" t="n">
-        <v>261.2715148925781</v>
+        <v>238.3622131347656</v>
       </c>
       <c r="HT3" t="n">
-        <v>261.0173950195312</v>
+        <v>256.9315185546875</v>
       </c>
       <c r="HU3" t="n">
-        <v>260.7289733886719</v>
+        <v>272.4871520996094</v>
       </c>
       <c r="HV3" t="n">
-        <v>260.92431640625</v>
+        <v>284.1570129394531</v>
       </c>
       <c r="HW3" t="n">
-        <v>264.205078125</v>
+        <v>294.9140625</v>
       </c>
       <c r="HX3" t="n">
-        <v>265.4472045898438</v>
+        <v>306.9339904785156</v>
       </c>
       <c r="HY3" t="n">
-        <v>265.9637451171875</v>
+        <v>309.8736572265625</v>
       </c>
       <c r="HZ3" t="n">
-        <v>266.844482421875</v>
+        <v>311.7962951660156</v>
       </c>
       <c r="IA3" t="n">
-        <v>268.6070556640625</v>
+        <v>311.5909729003906</v>
       </c>
       <c r="IB3" t="n">
-        <v>269.2610168457031</v>
+        <v>318.6057739257812</v>
       </c>
       <c r="IC3" t="n">
-        <v>269.7741394042969</v>
+        <v>323.7685546875</v>
       </c>
       <c r="ID3" t="n">
-        <v>270.9284057617188</v>
+        <v>327.4008178710938</v>
       </c>
       <c r="IE3" t="n">
-        <v>271.1588134765625</v>
+        <v>328.8014831542969</v>
       </c>
       <c r="IF3" t="n">
-        <v>271.5504455566406</v>
+        <v>331.3633422851562</v>
       </c>
       <c r="IG3" t="n">
-        <v>271.6204223632812</v>
+        <v>333.9971313476562</v>
       </c>
       <c r="IH3" t="n">
-        <v>270.5096435546875</v>
+        <v>334.3710632324219</v>
       </c>
       <c r="II3" t="n">
-        <v>270.736572265625</v>
+        <v>335.5450134277344</v>
       </c>
       <c r="IJ3" t="n">
-        <v>270.1198425292969</v>
+        <v>334.91064453125</v>
       </c>
       <c r="IK3" t="n">
-        <v>270.1068115234375</v>
+        <v>336.1546630859375</v>
       </c>
       <c r="IL3" t="n">
-        <v>270.8478393554688</v>
+        <v>334.0382385253906</v>
       </c>
       <c r="IM3" t="n">
-        <v>270.5291442871094</v>
+        <v>334.6025085449219</v>
       </c>
       <c r="IN3" t="n">
-        <v>270.8084716796875</v>
+        <v>321.8373718261719</v>
       </c>
       <c r="IO3" t="n">
-        <v>270.5021362304688</v>
+        <v>322.0648193359375</v>
       </c>
       <c r="IP3" t="n">
-        <v>271.0338439941406</v>
+        <v>323.9020690917969</v>
       </c>
       <c r="IQ3" t="n">
-        <v>266.003662109375</v>
+        <v>328.0623168945312</v>
       </c>
       <c r="IR3" t="n">
-        <v>263.29443359375</v>
+        <v>328.4187622070312</v>
       </c>
       <c r="IS3" t="n">
-        <v>262.8531494140625</v>
+        <v>323.9506225585938</v>
       </c>
       <c r="IT3" t="n">
-        <v>262.9746398925781</v>
+        <v>316.5039367675781</v>
       </c>
       <c r="IU3" t="n">
-        <v>262.4529418945312</v>
+        <v>313.9583435058594</v>
       </c>
       <c r="IV3" t="n">
-        <v>261.6598510742188</v>
+        <v>308.0533142089844</v>
       </c>
       <c r="IW3" t="n">
-        <v>261.1415710449219</v>
+        <v>297.6674194335938</v>
       </c>
       <c r="IX3" t="n">
-        <v>260.2519836425781</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>260.1724853515625</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>259.8555297851562</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>257.5142211914062</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>257.2801208496094</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>258.7419128417969</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>258.0767517089844</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>259.2161865234375</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>259.1269836425781</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>260.1763610839844</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>260.9978637695312</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>259.9947509765625</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>259.6048583984375</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>259.8642883300781</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>259.5794372558594</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>259.2342529296875</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>259.810546875</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>260.5005798339844</v>
-      </c>
-      <c r="JP3" t="n">
-        <v>260.7799377441406</v>
-      </c>
-      <c r="JQ3" t="n">
-        <v>259.8821105957031</v>
-      </c>
-      <c r="JR3" t="n">
-        <v>260.18359375</v>
-      </c>
-      <c r="JS3" t="n">
-        <v>260.5681762695312</v>
-      </c>
-      <c r="JT3" t="n">
-        <v>261.2633361816406</v>
-      </c>
-      <c r="JU3" t="n">
-        <v>261.8298034667969</v>
-      </c>
-      <c r="JV3" t="n">
-        <v>262.1979675292969</v>
-      </c>
-      <c r="JW3" t="n">
-        <v>262.49853515625</v>
-      </c>
-      <c r="JX3" t="n">
-        <v>262.8888244628906</v>
-      </c>
-      <c r="JY3" t="n">
-        <v>262.9984130859375</v>
-      </c>
-      <c r="JZ3" t="n">
-        <v>262.9859619140625</v>
-      </c>
-      <c r="KA3" t="n">
-        <v>263.0613708496094</v>
-      </c>
-      <c r="KB3" t="n">
-        <v>263.0751342773438</v>
-      </c>
-      <c r="KC3" t="n">
-        <v>263.0279846191406</v>
-      </c>
-      <c r="KD3" t="n">
-        <v>262.80322265625</v>
-      </c>
-      <c r="KE3" t="n">
-        <v>262.7198791503906</v>
-      </c>
-      <c r="KF3" t="n">
-        <v>262.3356628417969</v>
-      </c>
-      <c r="KG3" t="n">
-        <v>261.0866088867188</v>
-      </c>
-      <c r="KH3" t="n">
-        <v>260.3182983398438</v>
-      </c>
-      <c r="KI3" t="n">
-        <v>260.0656433105469</v>
-      </c>
-      <c r="KJ3" t="n">
-        <v>259.7759094238281</v>
-      </c>
-      <c r="KK3" t="n">
-        <v>260.1318969726562</v>
-      </c>
-      <c r="KL3" t="n">
-        <v>261.2222595214844</v>
-      </c>
-      <c r="KM3" t="n">
-        <v>261.6707153320312</v>
-      </c>
-      <c r="KN3" t="n">
-        <v>261.4527893066406</v>
-      </c>
-      <c r="KO3" t="n">
-        <v>261.3910217285156</v>
-      </c>
-      <c r="KP3" t="n">
-        <v>261.27978515625</v>
-      </c>
-      <c r="KQ3" t="n">
-        <v>261.6119995117188</v>
-      </c>
-      <c r="KR3" t="n">
-        <v>262.1535949707031</v>
-      </c>
-      <c r="KS3" t="n">
-        <v>262.5153503417969</v>
-      </c>
-      <c r="KT3" t="n">
-        <v>262.6799621582031</v>
-      </c>
-      <c r="KU3" t="n">
-        <v>262.6448974609375</v>
-      </c>
-      <c r="KV3" t="n">
-        <v>262.6743469238281</v>
-      </c>
-      <c r="KW3" t="n">
-        <v>262.693359375</v>
-      </c>
-      <c r="KX3" t="n">
-        <v>262.4353942871094</v>
-      </c>
-      <c r="KY3" t="n">
-        <v>262.3959655761719</v>
-      </c>
-      <c r="KZ3" t="n">
-        <v>263.0841674804688</v>
-      </c>
-      <c r="LA3" t="n">
-        <v>263.7081298828125</v>
-      </c>
-      <c r="LB3" t="n">
-        <v>263.9646606445312</v>
-      </c>
-      <c r="LC3" t="n">
-        <v>264.2989196777344</v>
-      </c>
-      <c r="LD3" t="n">
-        <v>264.6375122070312</v>
-      </c>
-      <c r="LE3" t="n">
-        <v>263.3548278808594</v>
-      </c>
-      <c r="LF3" t="n">
-        <v>260.3455505371094</v>
-      </c>
-      <c r="LG3" t="n">
-        <v>259.8567504882812</v>
-      </c>
-      <c r="LH3" t="n">
-        <v>257.2746887207031</v>
-      </c>
-      <c r="LI3" t="n">
-        <v>255.2885894775391</v>
-      </c>
-      <c r="LJ3" t="n">
-        <v>246.3537902832031</v>
-      </c>
-      <c r="LK3" t="n">
-        <v>241.0066223144531</v>
-      </c>
-      <c r="LL3" t="n">
-        <v>238.0247497558594</v>
-      </c>
-      <c r="LM3" t="n">
-        <v>235.8702239990234</v>
-      </c>
-      <c r="LN3" t="n">
-        <v>228.6973571777344</v>
-      </c>
-      <c r="LO3" t="n">
-        <v>225.0668029785156</v>
-      </c>
-      <c r="LP3" t="n">
-        <v>217.9138488769531</v>
-      </c>
-      <c r="LQ3" t="n">
-        <v>213.6746368408203</v>
-      </c>
-      <c r="LR3" t="n">
-        <v>210.5007476806641</v>
-      </c>
-      <c r="LS3" t="n">
-        <v>205.177490234375</v>
-      </c>
-      <c r="LT3" t="n">
-        <v>186.5575408935547</v>
-      </c>
-      <c r="LU3" t="n">
-        <v>171.4078979492188</v>
-      </c>
-      <c r="LV3" t="n">
-        <v>147.1063232421875</v>
-      </c>
-      <c r="LW3" t="n">
-        <v>130.2978210449219</v>
-      </c>
-      <c r="LX3" t="n">
-        <v>123.5081405639648</v>
-      </c>
-      <c r="LY3" t="n">
-        <v>111.8211288452148</v>
-      </c>
-      <c r="LZ3" t="n">
-        <v>108.3227386474609</v>
-      </c>
-      <c r="MA3" t="n">
-        <v>116.4690170288086</v>
-      </c>
-      <c r="MB3" t="n">
-        <v>127.8784713745117</v>
-      </c>
-      <c r="MC3" t="n">
-        <v>139.8369903564453</v>
-      </c>
-      <c r="MD3" t="n">
-        <v>136.6665191650391</v>
-      </c>
-      <c r="ME3" t="n">
-        <v>132.3959503173828</v>
-      </c>
-      <c r="MF3" t="n">
-        <v>136.9099884033203</v>
-      </c>
-      <c r="MG3" t="n">
-        <v>162.8528900146484</v>
-      </c>
-      <c r="MH3" t="n">
-        <v>184.2142181396484</v>
-      </c>
-      <c r="MI3" t="n">
-        <v>204.5439910888672</v>
-      </c>
-      <c r="MJ3" t="n">
-        <v>253.2799835205078</v>
-      </c>
-      <c r="MK3" t="n">
-        <v>290.178466796875</v>
-      </c>
-      <c r="ML3" t="n">
-        <v>312.1009826660156</v>
-      </c>
-      <c r="MM3" t="n">
-        <v>335.8203430175781</v>
-      </c>
-      <c r="MN3" t="n">
-        <v>333.2986450195312</v>
-      </c>
-      <c r="MO3" t="n">
-        <v>330.0177307128906</v>
-      </c>
-      <c r="MP3" t="n">
-        <v>329.0971984863281</v>
-      </c>
-      <c r="MQ3" t="n">
-        <v>329.5676574707031</v>
-      </c>
-      <c r="MR3" t="n">
-        <v>334.7186279296875</v>
-      </c>
-      <c r="MS3" t="n">
-        <v>337.5661926269531</v>
-      </c>
-      <c r="MT3" t="n">
-        <v>344.4690856933594</v>
-      </c>
-      <c r="MU3" t="n">
-        <v>367.9729309082031</v>
-      </c>
-      <c r="MV3" t="n">
-        <v>348.3902893066406</v>
-      </c>
-      <c r="MW3" t="n">
-        <v>302.0759582519531</v>
-      </c>
-      <c r="MX3" t="n">
-        <v>320.6799621582031</v>
-      </c>
-      <c r="MY3" t="n">
-        <v>317.0209655761719</v>
-      </c>
-      <c r="MZ3" t="n">
-        <v>302.766845703125</v>
-      </c>
-      <c r="NA3" t="n">
-        <v>293.1200256347656</v>
-      </c>
-      <c r="NB3" t="n">
-        <v>288.6179809570312</v>
-      </c>
-      <c r="NC3" t="n">
-        <v>287.0747375488281</v>
-      </c>
-      <c r="ND3" t="n">
-        <v>287.8034057617188</v>
-      </c>
-      <c r="NE3" t="n">
-        <v>293.4193725585938</v>
-      </c>
-      <c r="NF3" t="n">
-        <v>299.2949829101562</v>
-      </c>
-      <c r="NG3" t="n">
-        <v>303.8832397460938</v>
-      </c>
-      <c r="NH3" t="n">
-        <v>305.6099853515625</v>
-      </c>
-      <c r="NI3" t="n">
-        <v>308.8056945800781</v>
-      </c>
-      <c r="NJ3" t="n">
-        <v>311.749267578125</v>
-      </c>
-      <c r="NK3" t="n">
-        <v>311.1666259765625</v>
-      </c>
-      <c r="NL3" t="n">
-        <v>309.7173767089844</v>
-      </c>
-      <c r="NM3" t="n">
-        <v>308.9414978027344</v>
+        <v>291.0875244140625</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1062.493408203125</v>
+        <v>1023.718627929688</v>
       </c>
       <c r="B4" t="n">
-        <v>1058.321655273438</v>
+        <v>1045.863403320312</v>
       </c>
       <c r="C4" t="n">
-        <v>1063.573974609375</v>
+        <v>1046.043212890625</v>
       </c>
       <c r="D4" t="n">
-        <v>1068.4873046875</v>
+        <v>1062.850952148438</v>
       </c>
       <c r="E4" t="n">
-        <v>1074.3076171875</v>
+        <v>1074.023803710938</v>
       </c>
       <c r="F4" t="n">
-        <v>1086.087890625</v>
+        <v>1106.587890625</v>
       </c>
       <c r="G4" t="n">
-        <v>1092.616455078125</v>
+        <v>1122.958862304688</v>
       </c>
       <c r="H4" t="n">
-        <v>1093.898193359375</v>
+        <v>1156.91015625</v>
       </c>
       <c r="I4" t="n">
-        <v>1094.290405273438</v>
+        <v>1158.426025390625</v>
       </c>
       <c r="J4" t="n">
-        <v>1096.459228515625</v>
+        <v>1188.598999023438</v>
       </c>
       <c r="K4" t="n">
-        <v>1099.558959960938</v>
+        <v>1207.281372070312</v>
       </c>
       <c r="L4" t="n">
-        <v>1102.04443359375</v>
+        <v>1233.823608398438</v>
       </c>
       <c r="M4" t="n">
-        <v>1164.386352539062</v>
+        <v>1257.3115234375</v>
       </c>
       <c r="N4" t="n">
-        <v>1170.1708984375</v>
+        <v>1284.654663085938</v>
       </c>
       <c r="O4" t="n">
-        <v>1211.623046875</v>
+        <v>1515.064453125</v>
       </c>
       <c r="P4" t="n">
-        <v>1216.425415039062</v>
+        <v>1540.7841796875</v>
       </c>
       <c r="Q4" t="n">
-        <v>1224.2587890625</v>
+        <v>1548.992431640625</v>
       </c>
       <c r="R4" t="n">
-        <v>1236.281860351562</v>
+        <v>1580.820556640625</v>
       </c>
       <c r="S4" t="n">
-        <v>1243.475830078125</v>
+        <v>1594.873046875</v>
       </c>
       <c r="T4" t="n">
-        <v>1260.723388671875</v>
+        <v>1626.34521484375</v>
       </c>
       <c r="U4" t="n">
-        <v>1265.904174804688</v>
+        <v>1651.801635742188</v>
       </c>
       <c r="V4" t="n">
-        <v>1286.875</v>
+        <v>1679.928955078125</v>
       </c>
       <c r="W4" t="n">
-        <v>1296.2314453125</v>
+        <v>1704.2705078125</v>
       </c>
       <c r="X4" t="n">
-        <v>1318.703979492188</v>
+        <v>1716.61669921875</v>
       </c>
       <c r="Y4" t="n">
-        <v>1335.127197265625</v>
+        <v>1757.87744140625</v>
       </c>
       <c r="Z4" t="n">
-        <v>1340.008422851562</v>
+        <v>1788.146850585938</v>
       </c>
       <c r="AA4" t="n">
-        <v>1355.905151367188</v>
+        <v>1808.466186523438</v>
       </c>
       <c r="AB4" t="n">
-        <v>1363.609375</v>
+        <v>1828.080322265625</v>
       </c>
       <c r="AC4" t="n">
-        <v>1384.273559570312</v>
+        <v>1835.362915039062</v>
       </c>
       <c r="AD4" t="n">
-        <v>1396.399291992188</v>
+        <v>1857.637329101562</v>
       </c>
       <c r="AE4" t="n">
-        <v>1402.313842773438</v>
+        <v>1867.349731445312</v>
       </c>
       <c r="AF4" t="n">
-        <v>1412.828247070312</v>
+        <v>1902.48974609375</v>
       </c>
       <c r="AG4" t="n">
-        <v>1423.308715820312</v>
+        <v>1909.582275390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1439.960205078125</v>
+        <v>1949.9921875</v>
       </c>
       <c r="AI4" t="n">
-        <v>1441.6201171875</v>
+        <v>1948.471069335938</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1446.334106445312</v>
+        <v>1970.921142578125</v>
       </c>
       <c r="AK4" t="n">
-        <v>1450.704833984375</v>
+        <v>1969.8603515625</v>
       </c>
       <c r="AL4" t="n">
-        <v>1449.924194335938</v>
+        <v>1985.218505859375</v>
       </c>
       <c r="AM4" t="n">
-        <v>1450.246215820312</v>
+        <v>1985.480834960938</v>
       </c>
       <c r="AN4" t="n">
-        <v>1450.9423828125</v>
+        <v>1990.9990234375</v>
       </c>
       <c r="AO4" t="n">
-        <v>1451.520629882812</v>
+        <v>2001.832763671875</v>
       </c>
       <c r="AP4" t="n">
-        <v>1451.937866210938</v>
+        <v>2011.74462890625</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1452.115234375</v>
+        <v>2022.68896484375</v>
       </c>
       <c r="AR4" t="n">
-        <v>1451.703125</v>
+        <v>2033.526123046875</v>
       </c>
       <c r="AS4" t="n">
-        <v>1444.90576171875</v>
+        <v>2033.79443359375</v>
       </c>
       <c r="AT4" t="n">
-        <v>1429.688354492188</v>
+        <v>2034.795288085938</v>
       </c>
       <c r="AU4" t="n">
-        <v>1415.801635742188</v>
+        <v>2035.821899414062</v>
       </c>
       <c r="AV4" t="n">
-        <v>1406.11474609375</v>
+        <v>2038.243041992188</v>
       </c>
       <c r="AW4" t="n">
-        <v>1401.948364257812</v>
+        <v>2041.766723632812</v>
       </c>
       <c r="AX4" t="n">
-        <v>1395.935424804688</v>
+        <v>2047.4892578125</v>
       </c>
       <c r="AY4" t="n">
-        <v>1387.605834960938</v>
+        <v>2045.161865234375</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1380.312133789062</v>
+        <v>2047.840454101562</v>
       </c>
       <c r="BA4" t="n">
-        <v>1368.709594726562</v>
+        <v>2052.16259765625</v>
       </c>
       <c r="BB4" t="n">
-        <v>1365.968017578125</v>
+        <v>2058.30224609375</v>
       </c>
       <c r="BC4" t="n">
-        <v>1358.634399414062</v>
+        <v>2068.65576171875</v>
       </c>
       <c r="BD4" t="n">
-        <v>1352.235595703125</v>
+        <v>2083.844970703125</v>
       </c>
       <c r="BE4" t="n">
-        <v>1344.922973632812</v>
+        <v>2093.48291015625</v>
       </c>
       <c r="BF4" t="n">
-        <v>1338.53515625</v>
+        <v>2099.6611328125</v>
       </c>
       <c r="BG4" t="n">
-        <v>1334.380615234375</v>
+        <v>2099.265380859375</v>
       </c>
       <c r="BH4" t="n">
-        <v>1330.541381835938</v>
+        <v>2098.977783203125</v>
       </c>
       <c r="BI4" t="n">
-        <v>1324.39599609375</v>
+        <v>2098.907470703125</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1320.323608398438</v>
+        <v>2104.167236328125</v>
       </c>
       <c r="BK4" t="n">
-        <v>1315.726928710938</v>
+        <v>2109.640625</v>
       </c>
       <c r="BL4" t="n">
-        <v>1310.935424804688</v>
+        <v>2109.46533203125</v>
       </c>
       <c r="BM4" t="n">
-        <v>1305.1416015625</v>
+        <v>2109.767333984375</v>
       </c>
       <c r="BN4" t="n">
-        <v>1301.364013671875</v>
+        <v>2110.056396484375</v>
       </c>
       <c r="BO4" t="n">
-        <v>1296.501953125</v>
+        <v>2110.667724609375</v>
       </c>
       <c r="BP4" t="n">
-        <v>1295.739990234375</v>
+        <v>2110.977294921875</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1292.991333007812</v>
+        <v>2111.483642578125</v>
       </c>
       <c r="BR4" t="n">
-        <v>1291.172119140625</v>
+        <v>2112.18896484375</v>
       </c>
       <c r="BS4" t="n">
-        <v>1289.40966796875</v>
+        <v>2112.578125</v>
       </c>
       <c r="BT4" t="n">
-        <v>1286.672973632812</v>
+        <v>2112.699462890625</v>
       </c>
       <c r="BU4" t="n">
-        <v>1284.283935546875</v>
+        <v>2112.582275390625</v>
       </c>
       <c r="BV4" t="n">
-        <v>1281.677734375</v>
+        <v>2112.387939453125</v>
       </c>
       <c r="BW4" t="n">
-        <v>1276.4794921875</v>
+        <v>2112.1748046875</v>
       </c>
       <c r="BX4" t="n">
-        <v>1272.296630859375</v>
+        <v>2112.047607421875</v>
       </c>
       <c r="BY4" t="n">
-        <v>1263.08349609375</v>
+        <v>2111.89501953125</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1254.6162109375</v>
+        <v>2111.73095703125</v>
       </c>
       <c r="CA4" t="n">
-        <v>1252.414428710938</v>
+        <v>2111.498046875</v>
       </c>
       <c r="CB4" t="n">
-        <v>1250.0185546875</v>
+        <v>2109.5009765625</v>
       </c>
       <c r="CC4" t="n">
-        <v>1247.239624023438</v>
+        <v>2107.453369140625</v>
       </c>
       <c r="CD4" t="n">
-        <v>1241.878540039062</v>
+        <v>2105.044677734375</v>
       </c>
       <c r="CE4" t="n">
-        <v>1236.861206054688</v>
+        <v>2103.20654296875</v>
       </c>
       <c r="CF4" t="n">
-        <v>1235.155639648438</v>
+        <v>2103.8076171875</v>
       </c>
       <c r="CG4" t="n">
-        <v>1230.328857421875</v>
+        <v>2103.587646484375</v>
       </c>
       <c r="CH4" t="n">
-        <v>1228.26953125</v>
+        <v>2103.353515625</v>
       </c>
       <c r="CI4" t="n">
-        <v>1225.738891601562</v>
+        <v>2103.129638671875</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1222.22705078125</v>
+        <v>2097.8056640625</v>
       </c>
       <c r="CK4" t="n">
-        <v>1220.016357421875</v>
+        <v>2097.397705078125</v>
       </c>
       <c r="CL4" t="n">
-        <v>1216.494506835938</v>
+        <v>2097.55517578125</v>
       </c>
       <c r="CM4" t="n">
-        <v>1211.840087890625</v>
+        <v>2097.397705078125</v>
       </c>
       <c r="CN4" t="n">
-        <v>1205.363647460938</v>
+        <v>2097.16064453125</v>
       </c>
       <c r="CO4" t="n">
-        <v>1203.944580078125</v>
+        <v>2096.926513671875</v>
       </c>
       <c r="CP4" t="n">
-        <v>1202.17041015625</v>
+        <v>2096.908447265625</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1199.300903320312</v>
+        <v>2096.909423828125</v>
       </c>
       <c r="CR4" t="n">
-        <v>1196.841552734375</v>
+        <v>2096.91455078125</v>
       </c>
       <c r="CS4" t="n">
-        <v>1190.947509765625</v>
+        <v>2096.905029296875</v>
       </c>
       <c r="CT4" t="n">
-        <v>1189.584228515625</v>
+        <v>2096.845458984375</v>
       </c>
       <c r="CU4" t="n">
-        <v>1188.497314453125</v>
+        <v>2096.777099609375</v>
       </c>
       <c r="CV4" t="n">
-        <v>1188.047973632812</v>
+        <v>2096.72265625</v>
       </c>
       <c r="CW4" t="n">
-        <v>1188.623779296875</v>
+        <v>2096.644287109375</v>
       </c>
       <c r="CX4" t="n">
-        <v>1189.833251953125</v>
+        <v>2096.67431640625</v>
       </c>
       <c r="CY4" t="n">
-        <v>1191.371948242188</v>
+        <v>2096.907470703125</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1205.850341796875</v>
+        <v>2097.038818359375</v>
       </c>
       <c r="DA4" t="n">
-        <v>1209.056518554688</v>
+        <v>2096.880859375</v>
       </c>
       <c r="DB4" t="n">
-        <v>1211.7255859375</v>
+        <v>2094.95263671875</v>
       </c>
       <c r="DC4" t="n">
-        <v>1213.059692382812</v>
+        <v>2091.58203125</v>
       </c>
       <c r="DD4" t="n">
-        <v>1214.191528320312</v>
+        <v>2084.78955078125</v>
       </c>
       <c r="DE4" t="n">
-        <v>1218.879272460938</v>
+        <v>2080.21142578125</v>
       </c>
       <c r="DF4" t="n">
-        <v>1221.246704101562</v>
+        <v>2078.980712890625</v>
       </c>
       <c r="DG4" t="n">
-        <v>1222.921997070312</v>
+        <v>2077.793701171875</v>
       </c>
       <c r="DH4" t="n">
-        <v>1227.473876953125</v>
+        <v>2075.983642578125</v>
       </c>
       <c r="DI4" t="n">
-        <v>1229.398071289062</v>
+        <v>2073.733642578125</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1234.696044921875</v>
+        <v>2068.576171875</v>
       </c>
       <c r="DK4" t="n">
-        <v>1237.669677734375</v>
+        <v>2058.756103515625</v>
       </c>
       <c r="DL4" t="n">
-        <v>1238.337280273438</v>
+        <v>2058.030517578125</v>
       </c>
       <c r="DM4" t="n">
-        <v>1239.14453125</v>
+        <v>2056.928466796875</v>
       </c>
       <c r="DN4" t="n">
-        <v>1239.922119140625</v>
+        <v>2056.59033203125</v>
       </c>
       <c r="DO4" t="n">
-        <v>1240.861938476562</v>
+        <v>2062.928466796875</v>
       </c>
       <c r="DP4" t="n">
-        <v>1242.065185546875</v>
+        <v>2066.075439453125</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1244.75146484375</v>
+        <v>2063.836669921875</v>
       </c>
       <c r="DR4" t="n">
-        <v>1246.310180664062</v>
+        <v>2064.390380859375</v>
       </c>
       <c r="DS4" t="n">
-        <v>1248.04638671875</v>
+        <v>2064.886474609375</v>
       </c>
       <c r="DT4" t="n">
-        <v>1254.2451171875</v>
+        <v>2065.11181640625</v>
       </c>
       <c r="DU4" t="n">
-        <v>1260.227294921875</v>
+        <v>2065.092529296875</v>
       </c>
       <c r="DV4" t="n">
-        <v>1262.114013671875</v>
+        <v>2065.529296875</v>
       </c>
       <c r="DW4" t="n">
-        <v>1265.943237304688</v>
+        <v>2065.599365234375</v>
       </c>
       <c r="DX4" t="n">
-        <v>1267.357421875</v>
+        <v>2065.741455078125</v>
       </c>
       <c r="DY4" t="n">
-        <v>1268.810302734375</v>
+        <v>2066.0185546875</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1282.673706054688</v>
+        <v>2066.16064453125</v>
       </c>
       <c r="EA4" t="n">
-        <v>1289.328369140625</v>
+        <v>2066.14794921875</v>
       </c>
       <c r="EB4" t="n">
-        <v>1299.8935546875</v>
+        <v>2066.11083984375</v>
       </c>
       <c r="EC4" t="n">
-        <v>1305.179077148438</v>
+        <v>2071.291748046875</v>
       </c>
       <c r="ED4" t="n">
-        <v>1311.656860351562</v>
+        <v>2085.844482421875</v>
       </c>
       <c r="EE4" t="n">
-        <v>1329.20556640625</v>
+        <v>2089.705322265625</v>
       </c>
       <c r="EF4" t="n">
-        <v>1346.640258789062</v>
+        <v>2087.354248046875</v>
       </c>
       <c r="EG4" t="n">
-        <v>1369.134033203125</v>
+        <v>2087.689697265625</v>
       </c>
       <c r="EH4" t="n">
-        <v>1381.008178710938</v>
+        <v>2087.921630859375</v>
       </c>
       <c r="EI4" t="n">
-        <v>1393.275268554688</v>
+        <v>2088.222412109375</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1410.7548828125</v>
+        <v>2088.3955078125</v>
       </c>
       <c r="EK4" t="n">
-        <v>1425.1591796875</v>
+        <v>2086.958740234375</v>
       </c>
       <c r="EL4" t="n">
-        <v>1428.827270507812</v>
+        <v>2076.550537109375</v>
       </c>
       <c r="EM4" t="n">
-        <v>1450.93212890625</v>
+        <v>2069.24462890625</v>
       </c>
       <c r="EN4" t="n">
-        <v>1462.81201171875</v>
+        <v>2068.20263671875</v>
       </c>
       <c r="EO4" t="n">
-        <v>1482.19189453125</v>
+        <v>2058.226318359375</v>
       </c>
       <c r="EP4" t="n">
-        <v>1496.194458007812</v>
+        <v>2050.213134765625</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1543.677612304688</v>
+        <v>2046.633666992188</v>
       </c>
       <c r="ER4" t="n">
-        <v>1558.029907226562</v>
+        <v>2047.311645507812</v>
       </c>
       <c r="ES4" t="n">
-        <v>1591.080322265625</v>
+        <v>2047.291625976562</v>
       </c>
       <c r="ET4" t="n">
-        <v>1618.31689453125</v>
+        <v>2047.35888671875</v>
       </c>
       <c r="EU4" t="n">
-        <v>1647.766845703125</v>
+        <v>2033.9775390625</v>
       </c>
       <c r="EV4" t="n">
-        <v>1673.99169921875</v>
+        <v>2021.294189453125</v>
       </c>
       <c r="EW4" t="n">
-        <v>1718.12060546875</v>
+        <v>2017.934204101562</v>
       </c>
       <c r="EX4" t="n">
-        <v>1755.58349609375</v>
+        <v>1999.103881835938</v>
       </c>
       <c r="EY4" t="n">
-        <v>1778.267822265625</v>
+        <v>1994.139770507812</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1799.999755859375</v>
+        <v>1975.133056640625</v>
       </c>
       <c r="FA4" t="n">
-        <v>1833.622924804688</v>
+        <v>1949.343994140625</v>
       </c>
       <c r="FB4" t="n">
-        <v>1849.494262695312</v>
+        <v>1945.7548828125</v>
       </c>
       <c r="FC4" t="n">
-        <v>1877.887084960938</v>
+        <v>1904.282958984375</v>
       </c>
       <c r="FD4" t="n">
-        <v>1935.137451171875</v>
+        <v>1869.380737304688</v>
       </c>
       <c r="FE4" t="n">
-        <v>1961.183227539062</v>
+        <v>1843.117553710938</v>
       </c>
       <c r="FF4" t="n">
-        <v>1973.468505859375</v>
+        <v>1825.123413085938</v>
       </c>
       <c r="FG4" t="n">
-        <v>2009.3515625</v>
+        <v>1818.187377929688</v>
       </c>
       <c r="FH4" t="n">
-        <v>2020.789184570312</v>
+        <v>1763.0087890625</v>
       </c>
       <c r="FI4" t="n">
-        <v>2047.622680664062</v>
+        <v>1753.97314453125</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2080.93603515625</v>
+        <v>1725.713500976562</v>
       </c>
       <c r="FK4" t="n">
-        <v>2122.14013671875</v>
+        <v>1692.410034179688</v>
       </c>
       <c r="FL4" t="n">
-        <v>2150.10986328125</v>
+        <v>1677.496337890625</v>
       </c>
       <c r="FM4" t="n">
-        <v>2188.823974609375</v>
+        <v>1644.982666015625</v>
       </c>
       <c r="FN4" t="n">
-        <v>2201.859130859375</v>
+        <v>1643.747924804688</v>
       </c>
       <c r="FO4" t="n">
-        <v>2211.97412109375</v>
+        <v>1623.389526367188</v>
       </c>
       <c r="FP4" t="n">
-        <v>2237.706298828125</v>
+        <v>1604.359008789062</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2237.816650390625</v>
+        <v>1594.721313476562</v>
       </c>
       <c r="FR4" t="n">
-        <v>2270.072509765625</v>
+        <v>1577.476684570312</v>
       </c>
       <c r="FS4" t="n">
-        <v>2270.182861328125</v>
+        <v>1560.746215820312</v>
       </c>
       <c r="FT4" t="n">
-        <v>2284.18115234375</v>
+        <v>1528.83251953125</v>
       </c>
       <c r="FU4" t="n">
-        <v>2296.62353515625</v>
+        <v>1489.18896484375</v>
       </c>
       <c r="FV4" t="n">
-        <v>2324.2265625</v>
+        <v>1466.737548828125</v>
       </c>
       <c r="FW4" t="n">
-        <v>2321.481689453125</v>
+        <v>1413.345703125</v>
       </c>
       <c r="FX4" t="n">
-        <v>2323.641845703125</v>
+        <v>1405.65771484375</v>
       </c>
       <c r="FY4" t="n">
-        <v>2333.4013671875</v>
+        <v>1373.2216796875</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2351.554443359375</v>
+        <v>1350.77490234375</v>
       </c>
       <c r="GA4" t="n">
-        <v>2350.945556640625</v>
+        <v>1327.111938476562</v>
       </c>
       <c r="GB4" t="n">
-        <v>2352.1279296875</v>
+        <v>1315.812377929688</v>
       </c>
       <c r="GC4" t="n">
-        <v>2352.472900390625</v>
+        <v>1291.068237304688</v>
       </c>
       <c r="GD4" t="n">
-        <v>2348.80078125</v>
+        <v>1271.113403320312</v>
       </c>
       <c r="GE4" t="n">
-        <v>2348.39599609375</v>
+        <v>1244.376342773438</v>
       </c>
       <c r="GF4" t="n">
-        <v>2349.126708984375</v>
+        <v>1216.549072265625</v>
       </c>
       <c r="GG4" t="n">
-        <v>2346.388427734375</v>
+        <v>1209.84716796875</v>
       </c>
       <c r="GH4" t="n">
-        <v>2344.33837890625</v>
+        <v>1181.255126953125</v>
       </c>
       <c r="GI4" t="n">
-        <v>2352.71630859375</v>
+        <v>1154.393310546875</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2351.859130859375</v>
+        <v>1132.13623046875</v>
       </c>
       <c r="GK4" t="n">
-        <v>2353.223876953125</v>
+        <v>1104.198852539062</v>
       </c>
       <c r="GL4" t="n">
-        <v>2363.0029296875</v>
+        <v>1064.792724609375</v>
       </c>
       <c r="GM4" t="n">
-        <v>2365.5517578125</v>
+        <v>1023.283081054688</v>
       </c>
       <c r="GN4" t="n">
-        <v>2366.846923828125</v>
+        <v>1007.968078613281</v>
       </c>
       <c r="GO4" t="n">
-        <v>2355.375244140625</v>
+        <v>973.18408203125</v>
       </c>
       <c r="GP4" t="n">
-        <v>2355.002197265625</v>
+        <v>937.3939819335938</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2356.07568359375</v>
+        <v>921.580078125</v>
       </c>
       <c r="GR4" t="n">
-        <v>2349.736572265625</v>
+        <v>898.4508056640625</v>
       </c>
       <c r="GS4" t="n">
-        <v>2356.331298828125</v>
+        <v>886.4837036132812</v>
       </c>
       <c r="GT4" t="n">
-        <v>2357.041748046875</v>
+        <v>874.696533203125</v>
       </c>
       <c r="GU4" t="n">
-        <v>2355.936767578125</v>
+        <v>863.119873046875</v>
       </c>
       <c r="GV4" t="n">
-        <v>2350.31884765625</v>
+        <v>858.8588256835938</v>
       </c>
       <c r="GW4" t="n">
-        <v>2344.11328125</v>
+        <v>850.6532592773438</v>
       </c>
       <c r="GX4" t="n">
-        <v>2332.0517578125</v>
+        <v>840.165283203125</v>
       </c>
       <c r="GY4" t="n">
-        <v>2330.96630859375</v>
+        <v>833.6680908203125</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2354.730224609375</v>
+        <v>821.6434326171875</v>
       </c>
       <c r="HA4" t="n">
-        <v>2354.9140625</v>
+        <v>810.3192749023438</v>
       </c>
       <c r="HB4" t="n">
-        <v>2346.430419921875</v>
+        <v>796.8629760742188</v>
       </c>
       <c r="HC4" t="n">
-        <v>2338.334228515625</v>
+        <v>785.388427734375</v>
       </c>
       <c r="HD4" t="n">
-        <v>2338.4453125</v>
+        <v>774.1245727539062</v>
       </c>
       <c r="HE4" t="n">
-        <v>2339.90625</v>
+        <v>778.697265625</v>
       </c>
       <c r="HF4" t="n">
-        <v>2345.526611328125</v>
+        <v>784.72607421875</v>
       </c>
       <c r="HG4" t="n">
-        <v>2339.63623046875</v>
+        <v>789.143310546875</v>
       </c>
       <c r="HH4" t="n">
-        <v>2340.803955078125</v>
+        <v>779.5084838867188</v>
       </c>
       <c r="HI4" t="n">
-        <v>2342.14404296875</v>
+        <v>756.9945068359375</v>
       </c>
       <c r="HJ4" t="n">
-        <v>2327.45947265625</v>
+        <v>734.0311279296875</v>
       </c>
       <c r="HK4" t="n">
-        <v>2316.57177734375</v>
+        <v>723.381103515625</v>
       </c>
       <c r="HL4" t="n">
-        <v>2290.632080078125</v>
+        <v>699.3135375976562</v>
       </c>
       <c r="HM4" t="n">
-        <v>2258.87548828125</v>
+        <v>688.6493530273438</v>
       </c>
       <c r="HN4" t="n">
-        <v>2251.912353515625</v>
+        <v>660.7933959960938</v>
       </c>
       <c r="HO4" t="n">
-        <v>2230.787109375</v>
+        <v>646.1320190429688</v>
       </c>
       <c r="HP4" t="n">
-        <v>2215.96875</v>
+        <v>638.0015869140625</v>
       </c>
       <c r="HQ4" t="n">
-        <v>2215.74560546875</v>
+        <v>621.8532104492188</v>
       </c>
       <c r="HR4" t="n">
-        <v>2201.45751953125</v>
+        <v>616.3501586914062</v>
       </c>
       <c r="HS4" t="n">
-        <v>2198.201416015625</v>
+        <v>614.5325927734375</v>
       </c>
       <c r="HT4" t="n">
-        <v>2189.203857421875</v>
+        <v>615.9345703125</v>
       </c>
       <c r="HU4" t="n">
-        <v>2191.115234375</v>
+        <v>617.8167114257812</v>
       </c>
       <c r="HV4" t="n">
-        <v>2191.01416015625</v>
+        <v>630.57763671875</v>
       </c>
       <c r="HW4" t="n">
-        <v>2194.073486328125</v>
+        <v>664.438232421875</v>
       </c>
       <c r="HX4" t="n">
-        <v>2205.49853515625</v>
+        <v>704.321044921875</v>
       </c>
       <c r="HY4" t="n">
-        <v>2206.69677734375</v>
+        <v>742.9320068359375</v>
       </c>
       <c r="HZ4" t="n">
-        <v>2215.51416015625</v>
+        <v>790.3375854492188</v>
       </c>
       <c r="IA4" t="n">
-        <v>2212.635009765625</v>
+        <v>832.491943359375</v>
       </c>
       <c r="IB4" t="n">
-        <v>2212.533935546875</v>
+        <v>855.4296264648438</v>
       </c>
       <c r="IC4" t="n">
-        <v>2213.626708984375</v>
+        <v>885.45458984375</v>
       </c>
       <c r="ID4" t="n">
-        <v>2213.562744140625</v>
+        <v>906.6689453125</v>
       </c>
       <c r="IE4" t="n">
-        <v>2214.876953125</v>
+        <v>922.466064453125</v>
       </c>
       <c r="IF4" t="n">
-        <v>2215.5390625</v>
+        <v>939.9352416992188</v>
       </c>
       <c r="IG4" t="n">
-        <v>2215.678955078125</v>
+        <v>944.6633911132812</v>
       </c>
       <c r="IH4" t="n">
-        <v>2223.45947265625</v>
+        <v>946.1143188476562</v>
       </c>
       <c r="II4" t="n">
-        <v>2229.396728515625</v>
+        <v>935.1171264648438</v>
       </c>
       <c r="IJ4" t="n">
-        <v>2236.715087890625</v>
+        <v>915.7570190429688</v>
       </c>
       <c r="IK4" t="n">
-        <v>2252.24267578125</v>
+        <v>879.944091796875</v>
       </c>
       <c r="IL4" t="n">
-        <v>2253.0810546875</v>
+        <v>844.7615356445312</v>
       </c>
       <c r="IM4" t="n">
-        <v>2258.15478515625</v>
+        <v>806.375732421875</v>
       </c>
       <c r="IN4" t="n">
-        <v>2271.384521484375</v>
+        <v>714.3876342773438</v>
       </c>
       <c r="IO4" t="n">
-        <v>2282.171875</v>
+        <v>688.4097900390625</v>
       </c>
       <c r="IP4" t="n">
-        <v>2280.823486328125</v>
+        <v>666.9849853515625</v>
       </c>
       <c r="IQ4" t="n">
-        <v>2300.1728515625</v>
+        <v>634.7664184570312</v>
       </c>
       <c r="IR4" t="n">
-        <v>2309.611083984375</v>
+        <v>629.5106811523438</v>
       </c>
       <c r="IS4" t="n">
-        <v>2312.224609375</v>
+        <v>619.8665771484375</v>
       </c>
       <c r="IT4" t="n">
-        <v>2292.31494140625</v>
+        <v>618.6083374023438</v>
       </c>
       <c r="IU4" t="n">
-        <v>2289.43603515625</v>
+        <v>616.7728881835938</v>
       </c>
       <c r="IV4" t="n">
-        <v>2279.19970703125</v>
+        <v>614.2007446289062</v>
       </c>
       <c r="IW4" t="n">
-        <v>2273.206787109375</v>
+        <v>613.3518676757812</v>
       </c>
       <c r="IX4" t="n">
-        <v>2274.116943359375</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>2273.59423828125</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>2272.0380859375</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>2265.95947265625</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>2266.1435546875</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>2253.212890625</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>2244.704833984375</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>2231.743896484375</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>2223.983642578125</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>2218.536376953125</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>2212.521484375</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>2212.22119140625</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>2206.291748046875</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>2202.5107421875</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>2202.37255859375</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>2198.8251953125</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>2192.10205078125</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>2189.572021484375</v>
-      </c>
-      <c r="JP4" t="n">
-        <v>2188.978515625</v>
-      </c>
-      <c r="JQ4" t="n">
-        <v>2191.843017578125</v>
-      </c>
-      <c r="JR4" t="n">
-        <v>2190.883544921875</v>
-      </c>
-      <c r="JS4" t="n">
-        <v>2188.765380859375</v>
-      </c>
-      <c r="JT4" t="n">
-        <v>2185.6318359375</v>
-      </c>
-      <c r="JU4" t="n">
-        <v>2176.691650390625</v>
-      </c>
-      <c r="JV4" t="n">
-        <v>2169.93017578125</v>
-      </c>
-      <c r="JW4" t="n">
-        <v>2162.353515625</v>
-      </c>
-      <c r="JX4" t="n">
-        <v>2163.875</v>
-      </c>
-      <c r="JY4" t="n">
-        <v>2162.712646484375</v>
-      </c>
-      <c r="JZ4" t="n">
-        <v>2163.021240234375</v>
-      </c>
-      <c r="KA4" t="n">
-        <v>2162.660888671875</v>
-      </c>
-      <c r="KB4" t="n">
-        <v>2162.403564453125</v>
-      </c>
-      <c r="KC4" t="n">
-        <v>2162.082275390625</v>
-      </c>
-      <c r="KD4" t="n">
-        <v>2162.44580078125</v>
-      </c>
-      <c r="KE4" t="n">
-        <v>2172.46923828125</v>
-      </c>
-      <c r="KF4" t="n">
-        <v>2180.512451171875</v>
-      </c>
-      <c r="KG4" t="n">
-        <v>2187.17626953125</v>
-      </c>
-      <c r="KH4" t="n">
-        <v>2188.432861328125</v>
-      </c>
-      <c r="KI4" t="n">
-        <v>2190.462890625</v>
-      </c>
-      <c r="KJ4" t="n">
-        <v>2194.774658203125</v>
-      </c>
-      <c r="KK4" t="n">
-        <v>2194.162109375</v>
-      </c>
-      <c r="KL4" t="n">
-        <v>2194.249755859375</v>
-      </c>
-      <c r="KM4" t="n">
-        <v>2192.9443359375</v>
-      </c>
-      <c r="KN4" t="n">
-        <v>2190.364501953125</v>
-      </c>
-      <c r="KO4" t="n">
-        <v>2192.526123046875</v>
-      </c>
-      <c r="KP4" t="n">
-        <v>2192.206298828125</v>
-      </c>
-      <c r="KQ4" t="n">
-        <v>2191.548583984375</v>
-      </c>
-      <c r="KR4" t="n">
-        <v>2195.29296875</v>
-      </c>
-      <c r="KS4" t="n">
-        <v>2195.92626953125</v>
-      </c>
-      <c r="KT4" t="n">
-        <v>2196.18701171875</v>
-      </c>
-      <c r="KU4" t="n">
-        <v>2199.98291015625</v>
-      </c>
-      <c r="KV4" t="n">
-        <v>2205.055419921875</v>
-      </c>
-      <c r="KW4" t="n">
-        <v>2198.437744140625</v>
-      </c>
-      <c r="KX4" t="n">
-        <v>2197.865234375</v>
-      </c>
-      <c r="KY4" t="n">
-        <v>2198.084228515625</v>
-      </c>
-      <c r="KZ4" t="n">
-        <v>2197.22802734375</v>
-      </c>
-      <c r="LA4" t="n">
-        <v>2196.33056640625</v>
-      </c>
-      <c r="LB4" t="n">
-        <v>2189.790283203125</v>
-      </c>
-      <c r="LC4" t="n">
-        <v>2173.743896484375</v>
-      </c>
-      <c r="LD4" t="n">
-        <v>2157.580810546875</v>
-      </c>
-      <c r="LE4" t="n">
-        <v>2126.24951171875</v>
-      </c>
-      <c r="LF4" t="n">
-        <v>2079.49462890625</v>
-      </c>
-      <c r="LG4" t="n">
-        <v>2044.536376953125</v>
-      </c>
-      <c r="LH4" t="n">
-        <v>2011.5859375</v>
-      </c>
-      <c r="LI4" t="n">
-        <v>1922.322509765625</v>
-      </c>
-      <c r="LJ4" t="n">
-        <v>1827.76953125</v>
-      </c>
-      <c r="LK4" t="n">
-        <v>1721.600952148438</v>
-      </c>
-      <c r="LL4" t="n">
-        <v>1659.810424804688</v>
-      </c>
-      <c r="LM4" t="n">
-        <v>1597.694213867188</v>
-      </c>
-      <c r="LN4" t="n">
-        <v>1523.170532226562</v>
-      </c>
-      <c r="LO4" t="n">
-        <v>1472.653930664062</v>
-      </c>
-      <c r="LP4" t="n">
-        <v>1380.901733398438</v>
-      </c>
-      <c r="LQ4" t="n">
-        <v>1268.522583007812</v>
-      </c>
-      <c r="LR4" t="n">
-        <v>1188.361328125</v>
-      </c>
-      <c r="LS4" t="n">
-        <v>1099.656616210938</v>
-      </c>
-      <c r="LT4" t="n">
-        <v>967.8489990234375</v>
-      </c>
-      <c r="LU4" t="n">
-        <v>900.317138671875</v>
-      </c>
-      <c r="LV4" t="n">
-        <v>832.96875</v>
-      </c>
-      <c r="LW4" t="n">
-        <v>787.3926391601562</v>
-      </c>
-      <c r="LX4" t="n">
-        <v>764.1300659179688</v>
-      </c>
-      <c r="LY4" t="n">
-        <v>723.351806640625</v>
-      </c>
-      <c r="LZ4" t="n">
-        <v>705.401611328125</v>
-      </c>
-      <c r="MA4" t="n">
-        <v>710.517822265625</v>
-      </c>
-      <c r="MB4" t="n">
-        <v>714.3390502929688</v>
-      </c>
-      <c r="MC4" t="n">
-        <v>730.866455078125</v>
-      </c>
-      <c r="MD4" t="n">
-        <v>735.9620971679688</v>
-      </c>
-      <c r="ME4" t="n">
-        <v>738.9542846679688</v>
-      </c>
-      <c r="MF4" t="n">
-        <v>738.785400390625</v>
-      </c>
-      <c r="MG4" t="n">
-        <v>730.11669921875</v>
-      </c>
-      <c r="MH4" t="n">
-        <v>726.5802001953125</v>
-      </c>
-      <c r="MI4" t="n">
-        <v>727.7767333984375</v>
-      </c>
-      <c r="MJ4" t="n">
-        <v>750.8587036132812</v>
-      </c>
-      <c r="MK4" t="n">
-        <v>772.3026733398438</v>
-      </c>
-      <c r="ML4" t="n">
-        <v>793.344970703125</v>
-      </c>
-      <c r="MM4" t="n">
-        <v>859.2882690429688</v>
-      </c>
-      <c r="MN4" t="n">
-        <v>881.5704956054688</v>
-      </c>
-      <c r="MO4" t="n">
-        <v>902.3435668945312</v>
-      </c>
-      <c r="MP4" t="n">
-        <v>920.2791137695312</v>
-      </c>
-      <c r="MQ4" t="n">
-        <v>918.199951171875</v>
-      </c>
-      <c r="MR4" t="n">
-        <v>881.8065185546875</v>
-      </c>
-      <c r="MS4" t="n">
-        <v>840.854736328125</v>
-      </c>
-      <c r="MT4" t="n">
-        <v>784.9977416992188</v>
-      </c>
-      <c r="MU4" t="n">
-        <v>689.5667114257812</v>
-      </c>
-      <c r="MV4" t="n">
-        <v>790.5460205078125</v>
-      </c>
-      <c r="MW4" t="n">
-        <v>862.6541748046875</v>
-      </c>
-      <c r="MX4" t="n">
-        <v>724.0653076171875</v>
-      </c>
-      <c r="MY4" t="n">
-        <v>718.2438354492188</v>
-      </c>
-      <c r="MZ4" t="n">
-        <v>702.1958618164062</v>
-      </c>
-      <c r="NA4" t="n">
-        <v>690.097412109375</v>
-      </c>
-      <c r="NB4" t="n">
-        <v>689.9198608398438</v>
-      </c>
-      <c r="NC4" t="n">
-        <v>695.0106811523438</v>
-      </c>
-      <c r="ND4" t="n">
-        <v>696.93017578125</v>
-      </c>
-      <c r="NE4" t="n">
-        <v>700.656005859375</v>
-      </c>
-      <c r="NF4" t="n">
-        <v>702.1578979492188</v>
-      </c>
-      <c r="NG4" t="n">
-        <v>710.978515625</v>
-      </c>
-      <c r="NH4" t="n">
-        <v>720.2406616210938</v>
-      </c>
-      <c r="NI4" t="n">
-        <v>738.0917358398438</v>
-      </c>
-      <c r="NJ4" t="n">
-        <v>746.6072998046875</v>
-      </c>
-      <c r="NK4" t="n">
-        <v>746.47802734375</v>
-      </c>
-      <c r="NL4" t="n">
-        <v>738.9357299804688</v>
-      </c>
-      <c r="NM4" t="n">
-        <v>733.4425048828125</v>
+        <v>613.2155151367188</v>
       </c>
     </row>
   </sheetData>
